--- a/teaser/examples/2022-08-03_Swimming pool_Database.xlsx
+++ b/teaser/examples/2022-08-03_Swimming pool_Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rwthaachende-my.sharepoint.com/personal/benani_zoumba_rwth-aachen_de/Documents/EBC/Pool_Repos/TEASER/teaser/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Python\TEASER\teaser\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_9AFCF35C2A31CBF677BA7776CECDC5F53AF4BCDD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F28A34C-8603-4724-999D-91F55C60CFF4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241E47EC-3AB0-4DA1-AC5D-778400AE1C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="11" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="418">
   <si>
     <t>Badname</t>
   </si>
@@ -1524,6 +1524,9 @@
   </si>
   <si>
     <t>Freeform_pool</t>
+  </si>
+  <si>
+    <t>Nonswimmer_pool</t>
   </si>
 </sst>
 </file>
@@ -2819,31 +2822,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2852,8 +2834,74 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2867,6 +2915,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2876,80 +2930,47 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2971,24 +2992,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3396,20 +3399,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="77"/>
+    <col min="3" max="3" width="11.42578125" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="156" t="s">
         <v>229</v>
       </c>
       <c r="B1" s="157"/>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="75" t="s">
         <v>386</v>
       </c>
@@ -3417,14 +3420,14 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>231</v>
       </c>
       <c r="B5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
         <v>232</v>
       </c>
@@ -3436,7 +3439,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>230</v>
       </c>
@@ -3445,16 +3448,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="78"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
         <v>161</v>
       </c>
       <c r="B9" s="80"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
         <v>162</v>
       </c>
@@ -3463,7 +3466,7 @@
         <v>Hallenbad</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
         <v>5</v>
       </c>
@@ -3472,7 +3475,7 @@
         <v>Sportbad</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
         <v>234</v>
       </c>
@@ -3519,880 +3522,880 @@
       <selection pane="bottomRight" activeCell="DX8" sqref="DX8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="72" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="72" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="72" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="17" width="5.6640625" customWidth="1"/>
-    <col min="18" max="21" width="13.5546875" customWidth="1"/>
-    <col min="22" max="22" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.109375" style="72" customWidth="1"/>
-    <col min="24" max="24" width="9.109375" customWidth="1"/>
-    <col min="25" max="32" width="5.6640625" customWidth="1"/>
-    <col min="33" max="36" width="13.5546875" customWidth="1"/>
-    <col min="37" max="37" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.109375" style="72" customWidth="1"/>
-    <col min="39" max="39" width="9.109375" customWidth="1"/>
-    <col min="40" max="47" width="5.6640625" customWidth="1"/>
-    <col min="48" max="51" width="13.5546875" customWidth="1"/>
-    <col min="52" max="52" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.109375" style="72" customWidth="1"/>
-    <col min="54" max="54" width="9.109375" customWidth="1"/>
-    <col min="55" max="62" width="5.6640625" customWidth="1"/>
-    <col min="63" max="66" width="13.5546875" customWidth="1"/>
-    <col min="67" max="67" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.109375" style="72" customWidth="1"/>
-    <col min="69" max="69" width="9.109375" customWidth="1"/>
-    <col min="70" max="77" width="5.6640625" customWidth="1"/>
-    <col min="78" max="81" width="13.5546875" customWidth="1"/>
-    <col min="82" max="82" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="9.109375" style="72" customWidth="1"/>
-    <col min="84" max="84" width="9.109375" customWidth="1"/>
-    <col min="85" max="92" width="5.6640625" customWidth="1"/>
-    <col min="93" max="96" width="13.5546875" customWidth="1"/>
-    <col min="97" max="97" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="9.109375" style="72" customWidth="1"/>
-    <col min="99" max="99" width="9.109375" customWidth="1"/>
-    <col min="100" max="107" width="5.6640625" customWidth="1"/>
-    <col min="108" max="111" width="13.5546875" customWidth="1"/>
-    <col min="112" max="112" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="9.109375" style="72" customWidth="1"/>
-    <col min="114" max="114" width="9.109375" customWidth="1"/>
-    <col min="115" max="122" width="5.6640625" customWidth="1"/>
-    <col min="123" max="126" width="13.5546875" customWidth="1"/>
-    <col min="127" max="127" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.44140625" style="73" customWidth="1"/>
-    <col min="129" max="129" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="10.33203125" style="1" customWidth="1"/>
-    <col min="132" max="132" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="136" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="10.6640625" style="1" customWidth="1"/>
-    <col min="142" max="142" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="148" max="150" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="72" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="72" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="72" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="17" width="5.7109375" customWidth="1"/>
+    <col min="18" max="21" width="13.5703125" customWidth="1"/>
+    <col min="22" max="22" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="72" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" customWidth="1"/>
+    <col min="25" max="32" width="5.7109375" customWidth="1"/>
+    <col min="33" max="36" width="13.5703125" customWidth="1"/>
+    <col min="37" max="37" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" style="72" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" customWidth="1"/>
+    <col min="40" max="47" width="5.7109375" customWidth="1"/>
+    <col min="48" max="51" width="13.5703125" customWidth="1"/>
+    <col min="52" max="52" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.140625" style="72" customWidth="1"/>
+    <col min="54" max="54" width="9.140625" customWidth="1"/>
+    <col min="55" max="62" width="5.7109375" customWidth="1"/>
+    <col min="63" max="66" width="13.5703125" customWidth="1"/>
+    <col min="67" max="67" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.140625" style="72" customWidth="1"/>
+    <col min="69" max="69" width="9.140625" customWidth="1"/>
+    <col min="70" max="77" width="5.7109375" customWidth="1"/>
+    <col min="78" max="81" width="13.5703125" customWidth="1"/>
+    <col min="82" max="82" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="9.140625" style="72" customWidth="1"/>
+    <col min="84" max="84" width="9.140625" customWidth="1"/>
+    <col min="85" max="92" width="5.7109375" customWidth="1"/>
+    <col min="93" max="96" width="13.5703125" customWidth="1"/>
+    <col min="97" max="97" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9.140625" style="72" customWidth="1"/>
+    <col min="99" max="99" width="9.140625" customWidth="1"/>
+    <col min="100" max="107" width="5.7109375" customWidth="1"/>
+    <col min="108" max="111" width="13.5703125" customWidth="1"/>
+    <col min="112" max="112" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="9.140625" style="72" customWidth="1"/>
+    <col min="114" max="114" width="9.140625" customWidth="1"/>
+    <col min="115" max="122" width="5.7109375" customWidth="1"/>
+    <col min="123" max="126" width="13.5703125" customWidth="1"/>
+    <col min="127" max="127" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.42578125" style="73" customWidth="1"/>
+    <col min="129" max="129" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="10.28515625" style="1" customWidth="1"/>
+    <col min="132" max="132" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="136" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="10.7109375" style="1" customWidth="1"/>
+    <col min="142" max="142" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="148" max="150" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="151" max="151" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="10.33203125" style="1" customWidth="1"/>
-    <col min="158" max="158" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="160" max="162" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="10.6640625" style="1" customWidth="1"/>
-    <col min="168" max="168" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="174" max="176" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="10.28515625" style="1" customWidth="1"/>
+    <col min="158" max="158" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="160" max="162" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="10.7109375" style="1" customWidth="1"/>
+    <col min="168" max="168" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="174" max="176" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="177" max="177" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="10.33203125" style="1" customWidth="1"/>
-    <col min="184" max="184" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="186" max="188" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="10.6640625" style="1" customWidth="1"/>
-    <col min="194" max="194" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="200" max="202" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="10.28515625" style="1" customWidth="1"/>
+    <col min="184" max="184" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="186" max="188" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="10.7109375" style="1" customWidth="1"/>
+    <col min="194" max="194" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="200" max="202" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="203" max="203" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="10.33203125" style="1" customWidth="1"/>
-    <col min="210" max="210" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="212" max="214" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="10.6640625" style="1" customWidth="1"/>
-    <col min="220" max="220" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="226" max="228" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="10.28515625" style="1" customWidth="1"/>
+    <col min="210" max="210" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="212" max="214" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="10.7109375" style="1" customWidth="1"/>
+    <col min="220" max="220" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="226" max="228" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="229" max="229" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="10.33203125" style="1" customWidth="1"/>
-    <col min="236" max="236" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="238" max="240" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="10.6640625" style="1" customWidth="1"/>
-    <col min="246" max="246" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="252" max="254" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="10.28515625" style="1" customWidth="1"/>
+    <col min="236" max="236" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="238" max="240" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="10.7109375" style="1" customWidth="1"/>
+    <col min="246" max="246" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="252" max="254" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="255" max="255" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="258" max="258" width="8" style="72" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="6" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="261" max="261" width="8" bestFit="1" customWidth="1"/>
     <col min="262" max="262" width="9" bestFit="1" customWidth="1"/>
     <col min="263" max="263" width="8" bestFit="1" customWidth="1"/>
     <col min="264" max="264" width="6" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="266" max="266" width="8" bestFit="1" customWidth="1"/>
     <col min="267" max="267" width="9" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="10.33203125" style="72" customWidth="1"/>
-    <col min="269" max="277" width="10.33203125" customWidth="1"/>
-    <col min="278" max="278" width="12.6640625" style="105" customWidth="1"/>
-    <col min="279" max="279" width="10.33203125" style="72" customWidth="1"/>
-    <col min="280" max="288" width="10.33203125" customWidth="1"/>
-    <col min="289" max="289" width="12.6640625" customWidth="1"/>
-    <col min="290" max="290" width="11.5546875" style="72" customWidth="1"/>
-    <col min="291" max="294" width="11.5546875" customWidth="1"/>
-    <col min="295" max="295" width="29.109375" style="72" customWidth="1"/>
-    <col min="296" max="296" width="21.6640625" customWidth="1"/>
-    <col min="297" max="297" width="12.44140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="21.6640625" customWidth="1"/>
-    <col min="301" max="301" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="21.6640625" customWidth="1"/>
-    <col min="305" max="305" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="309" max="309" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="310" max="310" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="312" max="312" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="22.109375" customWidth="1"/>
-    <col min="318" max="318" width="13.109375" style="72" customWidth="1"/>
-    <col min="319" max="319" width="13.109375" style="123" customWidth="1"/>
-    <col min="320" max="329" width="13.109375" customWidth="1"/>
-    <col min="330" max="330" width="61.6640625" style="72" customWidth="1"/>
-    <col min="331" max="331" width="11.5546875" style="72"/>
+    <col min="268" max="268" width="10.28515625" style="72" customWidth="1"/>
+    <col min="269" max="277" width="10.28515625" customWidth="1"/>
+    <col min="278" max="278" width="12.7109375" style="105" customWidth="1"/>
+    <col min="279" max="279" width="10.28515625" style="72" customWidth="1"/>
+    <col min="280" max="288" width="10.28515625" customWidth="1"/>
+    <col min="289" max="289" width="12.7109375" customWidth="1"/>
+    <col min="290" max="290" width="11.5703125" style="72" customWidth="1"/>
+    <col min="291" max="294" width="11.5703125" customWidth="1"/>
+    <col min="295" max="295" width="29.140625" style="72" customWidth="1"/>
+    <col min="296" max="296" width="21.7109375" customWidth="1"/>
+    <col min="297" max="297" width="12.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="21.7109375" customWidth="1"/>
+    <col min="301" max="301" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="21.7109375" customWidth="1"/>
+    <col min="305" max="305" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="312" max="312" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="22.140625" customWidth="1"/>
+    <col min="318" max="318" width="13.140625" style="72" customWidth="1"/>
+    <col min="319" max="319" width="13.140625" style="123" customWidth="1"/>
+    <col min="320" max="329" width="13.140625" customWidth="1"/>
+    <col min="330" max="330" width="61.7109375" style="72" customWidth="1"/>
+    <col min="331" max="331" width="11.5703125" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:332" s="61" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="158" t="s">
+    <row r="1" spans="1:332" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="158" t="s">
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="160"/>
-      <c r="H1" s="158" t="s">
+      <c r="G1" s="198"/>
+      <c r="H1" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="158" t="s">
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="197"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="198"/>
+      <c r="W1" s="196" t="s">
         <v>164</v>
       </c>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="159"/>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="159"/>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="159"/>
-      <c r="AG1" s="159"/>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="159"/>
-      <c r="AJ1" s="159"/>
-      <c r="AK1" s="160"/>
-      <c r="AL1" s="158" t="s">
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="197"/>
+      <c r="AA1" s="197"/>
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="197"/>
+      <c r="AD1" s="197"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="197"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="197"/>
+      <c r="AJ1" s="197"/>
+      <c r="AK1" s="198"/>
+      <c r="AL1" s="196" t="s">
         <v>165</v>
       </c>
-      <c r="AM1" s="159"/>
-      <c r="AN1" s="159"/>
-      <c r="AO1" s="159"/>
-      <c r="AP1" s="159"/>
-      <c r="AQ1" s="159"/>
-      <c r="AR1" s="159"/>
-      <c r="AS1" s="159"/>
-      <c r="AT1" s="159"/>
-      <c r="AU1" s="159"/>
-      <c r="AV1" s="159"/>
-      <c r="AW1" s="159"/>
-      <c r="AX1" s="159"/>
-      <c r="AY1" s="159"/>
-      <c r="AZ1" s="160"/>
-      <c r="BA1" s="158" t="s">
+      <c r="AM1" s="197"/>
+      <c r="AN1" s="197"/>
+      <c r="AO1" s="197"/>
+      <c r="AP1" s="197"/>
+      <c r="AQ1" s="197"/>
+      <c r="AR1" s="197"/>
+      <c r="AS1" s="197"/>
+      <c r="AT1" s="197"/>
+      <c r="AU1" s="197"/>
+      <c r="AV1" s="197"/>
+      <c r="AW1" s="197"/>
+      <c r="AX1" s="197"/>
+      <c r="AY1" s="197"/>
+      <c r="AZ1" s="198"/>
+      <c r="BA1" s="196" t="s">
         <v>166</v>
       </c>
-      <c r="BB1" s="159"/>
-      <c r="BC1" s="159"/>
-      <c r="BD1" s="159"/>
-      <c r="BE1" s="159"/>
-      <c r="BF1" s="159"/>
-      <c r="BG1" s="159"/>
-      <c r="BH1" s="159"/>
-      <c r="BI1" s="159"/>
-      <c r="BJ1" s="159"/>
-      <c r="BK1" s="159"/>
-      <c r="BL1" s="159"/>
-      <c r="BM1" s="159"/>
-      <c r="BN1" s="159"/>
-      <c r="BO1" s="160"/>
-      <c r="BP1" s="158" t="s">
+      <c r="BB1" s="197"/>
+      <c r="BC1" s="197"/>
+      <c r="BD1" s="197"/>
+      <c r="BE1" s="197"/>
+      <c r="BF1" s="197"/>
+      <c r="BG1" s="197"/>
+      <c r="BH1" s="197"/>
+      <c r="BI1" s="197"/>
+      <c r="BJ1" s="197"/>
+      <c r="BK1" s="197"/>
+      <c r="BL1" s="197"/>
+      <c r="BM1" s="197"/>
+      <c r="BN1" s="197"/>
+      <c r="BO1" s="198"/>
+      <c r="BP1" s="196" t="s">
         <v>167</v>
       </c>
-      <c r="BQ1" s="159"/>
-      <c r="BR1" s="159"/>
-      <c r="BS1" s="159"/>
-      <c r="BT1" s="159"/>
-      <c r="BU1" s="159"/>
-      <c r="BV1" s="159"/>
-      <c r="BW1" s="159"/>
-      <c r="BX1" s="159"/>
-      <c r="BY1" s="159"/>
-      <c r="BZ1" s="159"/>
-      <c r="CA1" s="159"/>
-      <c r="CB1" s="159"/>
-      <c r="CC1" s="159"/>
-      <c r="CD1" s="160"/>
-      <c r="CE1" s="158" t="s">
+      <c r="BQ1" s="197"/>
+      <c r="BR1" s="197"/>
+      <c r="BS1" s="197"/>
+      <c r="BT1" s="197"/>
+      <c r="BU1" s="197"/>
+      <c r="BV1" s="197"/>
+      <c r="BW1" s="197"/>
+      <c r="BX1" s="197"/>
+      <c r="BY1" s="197"/>
+      <c r="BZ1" s="197"/>
+      <c r="CA1" s="197"/>
+      <c r="CB1" s="197"/>
+      <c r="CC1" s="197"/>
+      <c r="CD1" s="198"/>
+      <c r="CE1" s="196" t="s">
         <v>168</v>
       </c>
-      <c r="CF1" s="159"/>
-      <c r="CG1" s="159"/>
-      <c r="CH1" s="159"/>
-      <c r="CI1" s="159"/>
-      <c r="CJ1" s="159"/>
-      <c r="CK1" s="159"/>
-      <c r="CL1" s="159"/>
-      <c r="CM1" s="159"/>
-      <c r="CN1" s="159"/>
-      <c r="CO1" s="159"/>
-      <c r="CP1" s="159"/>
-      <c r="CQ1" s="159"/>
-      <c r="CR1" s="159"/>
-      <c r="CS1" s="160"/>
-      <c r="CT1" s="158" t="s">
+      <c r="CF1" s="197"/>
+      <c r="CG1" s="197"/>
+      <c r="CH1" s="197"/>
+      <c r="CI1" s="197"/>
+      <c r="CJ1" s="197"/>
+      <c r="CK1" s="197"/>
+      <c r="CL1" s="197"/>
+      <c r="CM1" s="197"/>
+      <c r="CN1" s="197"/>
+      <c r="CO1" s="197"/>
+      <c r="CP1" s="197"/>
+      <c r="CQ1" s="197"/>
+      <c r="CR1" s="197"/>
+      <c r="CS1" s="198"/>
+      <c r="CT1" s="196" t="s">
         <v>169</v>
       </c>
-      <c r="CU1" s="159"/>
-      <c r="CV1" s="159"/>
-      <c r="CW1" s="159"/>
-      <c r="CX1" s="159"/>
-      <c r="CY1" s="159"/>
-      <c r="CZ1" s="159"/>
-      <c r="DA1" s="159"/>
-      <c r="DB1" s="159"/>
-      <c r="DC1" s="159"/>
-      <c r="DD1" s="159"/>
-      <c r="DE1" s="159"/>
-      <c r="DF1" s="159"/>
-      <c r="DG1" s="159"/>
-      <c r="DH1" s="160"/>
-      <c r="DI1" s="158" t="s">
+      <c r="CU1" s="197"/>
+      <c r="CV1" s="197"/>
+      <c r="CW1" s="197"/>
+      <c r="CX1" s="197"/>
+      <c r="CY1" s="197"/>
+      <c r="CZ1" s="197"/>
+      <c r="DA1" s="197"/>
+      <c r="DB1" s="197"/>
+      <c r="DC1" s="197"/>
+      <c r="DD1" s="197"/>
+      <c r="DE1" s="197"/>
+      <c r="DF1" s="197"/>
+      <c r="DG1" s="197"/>
+      <c r="DH1" s="198"/>
+      <c r="DI1" s="196" t="s">
         <v>170</v>
       </c>
-      <c r="DJ1" s="159"/>
-      <c r="DK1" s="159"/>
-      <c r="DL1" s="159"/>
-      <c r="DM1" s="159"/>
-      <c r="DN1" s="159"/>
-      <c r="DO1" s="159"/>
-      <c r="DP1" s="159"/>
-      <c r="DQ1" s="159"/>
-      <c r="DR1" s="159"/>
-      <c r="DS1" s="159"/>
-      <c r="DT1" s="159"/>
-      <c r="DU1" s="159"/>
-      <c r="DV1" s="159"/>
-      <c r="DW1" s="159"/>
-      <c r="DX1" s="169" t="s">
+      <c r="DJ1" s="197"/>
+      <c r="DK1" s="197"/>
+      <c r="DL1" s="197"/>
+      <c r="DM1" s="197"/>
+      <c r="DN1" s="197"/>
+      <c r="DO1" s="197"/>
+      <c r="DP1" s="197"/>
+      <c r="DQ1" s="197"/>
+      <c r="DR1" s="197"/>
+      <c r="DS1" s="197"/>
+      <c r="DT1" s="197"/>
+      <c r="DU1" s="197"/>
+      <c r="DV1" s="197"/>
+      <c r="DW1" s="197"/>
+      <c r="DX1" s="199" t="s">
         <v>171</v>
       </c>
-      <c r="DY1" s="159"/>
-      <c r="DZ1" s="159"/>
-      <c r="EA1" s="159"/>
-      <c r="EB1" s="159"/>
-      <c r="EC1" s="159"/>
-      <c r="ED1" s="159"/>
-      <c r="EE1" s="159"/>
-      <c r="EF1" s="159"/>
-      <c r="EG1" s="159"/>
-      <c r="EH1" s="159"/>
-      <c r="EI1" s="159"/>
-      <c r="EJ1" s="159"/>
-      <c r="EK1" s="159"/>
-      <c r="EL1" s="159"/>
-      <c r="EM1" s="159"/>
-      <c r="EN1" s="159"/>
-      <c r="EO1" s="159"/>
-      <c r="EP1" s="159"/>
-      <c r="EQ1" s="159"/>
-      <c r="ER1" s="159"/>
-      <c r="ES1" s="159"/>
-      <c r="ET1" s="159"/>
-      <c r="EU1" s="159"/>
-      <c r="EV1" s="159"/>
-      <c r="EW1" s="160"/>
-      <c r="EX1" s="158" t="s">
+      <c r="DY1" s="197"/>
+      <c r="DZ1" s="197"/>
+      <c r="EA1" s="197"/>
+      <c r="EB1" s="197"/>
+      <c r="EC1" s="197"/>
+      <c r="ED1" s="197"/>
+      <c r="EE1" s="197"/>
+      <c r="EF1" s="197"/>
+      <c r="EG1" s="197"/>
+      <c r="EH1" s="197"/>
+      <c r="EI1" s="197"/>
+      <c r="EJ1" s="197"/>
+      <c r="EK1" s="197"/>
+      <c r="EL1" s="197"/>
+      <c r="EM1" s="197"/>
+      <c r="EN1" s="197"/>
+      <c r="EO1" s="197"/>
+      <c r="EP1" s="197"/>
+      <c r="EQ1" s="197"/>
+      <c r="ER1" s="197"/>
+      <c r="ES1" s="197"/>
+      <c r="ET1" s="197"/>
+      <c r="EU1" s="197"/>
+      <c r="EV1" s="197"/>
+      <c r="EW1" s="198"/>
+      <c r="EX1" s="196" t="s">
         <v>172</v>
       </c>
-      <c r="EY1" s="159"/>
-      <c r="EZ1" s="159"/>
-      <c r="FA1" s="159"/>
-      <c r="FB1" s="159"/>
-      <c r="FC1" s="159"/>
-      <c r="FD1" s="159"/>
-      <c r="FE1" s="159"/>
-      <c r="FF1" s="159"/>
-      <c r="FG1" s="159"/>
-      <c r="FH1" s="159"/>
-      <c r="FI1" s="159"/>
-      <c r="FJ1" s="159"/>
-      <c r="FK1" s="159"/>
-      <c r="FL1" s="159"/>
-      <c r="FM1" s="159"/>
-      <c r="FN1" s="159"/>
-      <c r="FO1" s="159"/>
-      <c r="FP1" s="159"/>
-      <c r="FQ1" s="159"/>
-      <c r="FR1" s="159"/>
-      <c r="FS1" s="159"/>
-      <c r="FT1" s="159"/>
-      <c r="FU1" s="159"/>
-      <c r="FV1" s="159"/>
-      <c r="FW1" s="160"/>
-      <c r="FX1" s="158" t="s">
+      <c r="EY1" s="197"/>
+      <c r="EZ1" s="197"/>
+      <c r="FA1" s="197"/>
+      <c r="FB1" s="197"/>
+      <c r="FC1" s="197"/>
+      <c r="FD1" s="197"/>
+      <c r="FE1" s="197"/>
+      <c r="FF1" s="197"/>
+      <c r="FG1" s="197"/>
+      <c r="FH1" s="197"/>
+      <c r="FI1" s="197"/>
+      <c r="FJ1" s="197"/>
+      <c r="FK1" s="197"/>
+      <c r="FL1" s="197"/>
+      <c r="FM1" s="197"/>
+      <c r="FN1" s="197"/>
+      <c r="FO1" s="197"/>
+      <c r="FP1" s="197"/>
+      <c r="FQ1" s="197"/>
+      <c r="FR1" s="197"/>
+      <c r="FS1" s="197"/>
+      <c r="FT1" s="197"/>
+      <c r="FU1" s="197"/>
+      <c r="FV1" s="197"/>
+      <c r="FW1" s="198"/>
+      <c r="FX1" s="196" t="s">
         <v>173</v>
       </c>
-      <c r="FY1" s="159"/>
-      <c r="FZ1" s="159"/>
-      <c r="GA1" s="159"/>
-      <c r="GB1" s="159"/>
-      <c r="GC1" s="159"/>
-      <c r="GD1" s="159"/>
-      <c r="GE1" s="159"/>
-      <c r="GF1" s="159"/>
-      <c r="GG1" s="159"/>
-      <c r="GH1" s="159"/>
-      <c r="GI1" s="159"/>
-      <c r="GJ1" s="159"/>
-      <c r="GK1" s="159"/>
-      <c r="GL1" s="159"/>
-      <c r="GM1" s="159"/>
-      <c r="GN1" s="159"/>
-      <c r="GO1" s="159"/>
-      <c r="GP1" s="159"/>
-      <c r="GQ1" s="159"/>
-      <c r="GR1" s="159"/>
-      <c r="GS1" s="159"/>
-      <c r="GT1" s="159"/>
-      <c r="GU1" s="159"/>
-      <c r="GV1" s="159"/>
-      <c r="GW1" s="160"/>
-      <c r="GX1" s="158" t="s">
+      <c r="FY1" s="197"/>
+      <c r="FZ1" s="197"/>
+      <c r="GA1" s="197"/>
+      <c r="GB1" s="197"/>
+      <c r="GC1" s="197"/>
+      <c r="GD1" s="197"/>
+      <c r="GE1" s="197"/>
+      <c r="GF1" s="197"/>
+      <c r="GG1" s="197"/>
+      <c r="GH1" s="197"/>
+      <c r="GI1" s="197"/>
+      <c r="GJ1" s="197"/>
+      <c r="GK1" s="197"/>
+      <c r="GL1" s="197"/>
+      <c r="GM1" s="197"/>
+      <c r="GN1" s="197"/>
+      <c r="GO1" s="197"/>
+      <c r="GP1" s="197"/>
+      <c r="GQ1" s="197"/>
+      <c r="GR1" s="197"/>
+      <c r="GS1" s="197"/>
+      <c r="GT1" s="197"/>
+      <c r="GU1" s="197"/>
+      <c r="GV1" s="197"/>
+      <c r="GW1" s="198"/>
+      <c r="GX1" s="196" t="s">
         <v>174</v>
       </c>
-      <c r="GY1" s="159"/>
-      <c r="GZ1" s="159"/>
-      <c r="HA1" s="159"/>
-      <c r="HB1" s="159"/>
-      <c r="HC1" s="159"/>
-      <c r="HD1" s="159"/>
-      <c r="HE1" s="159"/>
-      <c r="HF1" s="159"/>
-      <c r="HG1" s="159"/>
-      <c r="HH1" s="159"/>
-      <c r="HI1" s="159"/>
-      <c r="HJ1" s="159"/>
-      <c r="HK1" s="159"/>
-      <c r="HL1" s="159"/>
-      <c r="HM1" s="159"/>
-      <c r="HN1" s="159"/>
-      <c r="HO1" s="159"/>
-      <c r="HP1" s="159"/>
-      <c r="HQ1" s="159"/>
-      <c r="HR1" s="159"/>
-      <c r="HS1" s="159"/>
-      <c r="HT1" s="159"/>
-      <c r="HU1" s="159"/>
-      <c r="HV1" s="159"/>
-      <c r="HW1" s="160"/>
-      <c r="HX1" s="158" t="s">
+      <c r="GY1" s="197"/>
+      <c r="GZ1" s="197"/>
+      <c r="HA1" s="197"/>
+      <c r="HB1" s="197"/>
+      <c r="HC1" s="197"/>
+      <c r="HD1" s="197"/>
+      <c r="HE1" s="197"/>
+      <c r="HF1" s="197"/>
+      <c r="HG1" s="197"/>
+      <c r="HH1" s="197"/>
+      <c r="HI1" s="197"/>
+      <c r="HJ1" s="197"/>
+      <c r="HK1" s="197"/>
+      <c r="HL1" s="197"/>
+      <c r="HM1" s="197"/>
+      <c r="HN1" s="197"/>
+      <c r="HO1" s="197"/>
+      <c r="HP1" s="197"/>
+      <c r="HQ1" s="197"/>
+      <c r="HR1" s="197"/>
+      <c r="HS1" s="197"/>
+      <c r="HT1" s="197"/>
+      <c r="HU1" s="197"/>
+      <c r="HV1" s="197"/>
+      <c r="HW1" s="198"/>
+      <c r="HX1" s="196" t="s">
         <v>175</v>
       </c>
-      <c r="HY1" s="159"/>
-      <c r="HZ1" s="159"/>
-      <c r="IA1" s="159"/>
-      <c r="IB1" s="159"/>
-      <c r="IC1" s="159"/>
-      <c r="ID1" s="159"/>
-      <c r="IE1" s="159"/>
-      <c r="IF1" s="159"/>
-      <c r="IG1" s="159"/>
-      <c r="IH1" s="159"/>
-      <c r="II1" s="159"/>
-      <c r="IJ1" s="159"/>
-      <c r="IK1" s="159"/>
-      <c r="IL1" s="159"/>
-      <c r="IM1" s="159"/>
-      <c r="IN1" s="159"/>
-      <c r="IO1" s="159"/>
-      <c r="IP1" s="159"/>
-      <c r="IQ1" s="159"/>
-      <c r="IR1" s="159"/>
-      <c r="IS1" s="159"/>
-      <c r="IT1" s="159"/>
-      <c r="IU1" s="159"/>
-      <c r="IV1" s="159"/>
-      <c r="IW1" s="160"/>
-      <c r="IX1" s="158" t="s">
+      <c r="HY1" s="197"/>
+      <c r="HZ1" s="197"/>
+      <c r="IA1" s="197"/>
+      <c r="IB1" s="197"/>
+      <c r="IC1" s="197"/>
+      <c r="ID1" s="197"/>
+      <c r="IE1" s="197"/>
+      <c r="IF1" s="197"/>
+      <c r="IG1" s="197"/>
+      <c r="IH1" s="197"/>
+      <c r="II1" s="197"/>
+      <c r="IJ1" s="197"/>
+      <c r="IK1" s="197"/>
+      <c r="IL1" s="197"/>
+      <c r="IM1" s="197"/>
+      <c r="IN1" s="197"/>
+      <c r="IO1" s="197"/>
+      <c r="IP1" s="197"/>
+      <c r="IQ1" s="197"/>
+      <c r="IR1" s="197"/>
+      <c r="IS1" s="197"/>
+      <c r="IT1" s="197"/>
+      <c r="IU1" s="197"/>
+      <c r="IV1" s="197"/>
+      <c r="IW1" s="198"/>
+      <c r="IX1" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="IY1" s="159"/>
-      <c r="IZ1" s="159"/>
-      <c r="JA1" s="159"/>
-      <c r="JB1" s="160"/>
-      <c r="JC1" s="161" t="s">
+      <c r="IY1" s="197"/>
+      <c r="IZ1" s="197"/>
+      <c r="JA1" s="197"/>
+      <c r="JB1" s="198"/>
+      <c r="JC1" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="JD1" s="161"/>
-      <c r="JE1" s="161"/>
-      <c r="JF1" s="161"/>
-      <c r="JG1" s="162"/>
-      <c r="JH1" s="158" t="s">
+      <c r="JD1" s="200"/>
+      <c r="JE1" s="200"/>
+      <c r="JF1" s="200"/>
+      <c r="JG1" s="201"/>
+      <c r="JH1" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="JI1" s="159"/>
-      <c r="JJ1" s="159"/>
-      <c r="JK1" s="159"/>
-      <c r="JL1" s="159"/>
-      <c r="JM1" s="159"/>
-      <c r="JN1" s="159"/>
-      <c r="JO1" s="159"/>
-      <c r="JP1" s="159"/>
-      <c r="JQ1" s="159"/>
-      <c r="JR1" s="159"/>
-      <c r="JS1" s="158" t="s">
+      <c r="JI1" s="197"/>
+      <c r="JJ1" s="197"/>
+      <c r="JK1" s="197"/>
+      <c r="JL1" s="197"/>
+      <c r="JM1" s="197"/>
+      <c r="JN1" s="197"/>
+      <c r="JO1" s="197"/>
+      <c r="JP1" s="197"/>
+      <c r="JQ1" s="197"/>
+      <c r="JR1" s="197"/>
+      <c r="JS1" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="JT1" s="159"/>
-      <c r="JU1" s="159"/>
-      <c r="JV1" s="159"/>
-      <c r="JW1" s="159"/>
-      <c r="JX1" s="159"/>
-      <c r="JY1" s="159"/>
-      <c r="JZ1" s="159"/>
-      <c r="KA1" s="159"/>
-      <c r="KB1" s="159"/>
-      <c r="KC1" s="159"/>
-      <c r="KD1" s="158" t="s">
+      <c r="JT1" s="197"/>
+      <c r="JU1" s="197"/>
+      <c r="JV1" s="197"/>
+      <c r="JW1" s="197"/>
+      <c r="JX1" s="197"/>
+      <c r="JY1" s="197"/>
+      <c r="JZ1" s="197"/>
+      <c r="KA1" s="197"/>
+      <c r="KB1" s="197"/>
+      <c r="KC1" s="197"/>
+      <c r="KD1" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="KE1" s="159"/>
-      <c r="KF1" s="159"/>
-      <c r="KG1" s="159"/>
-      <c r="KH1" s="159"/>
-      <c r="KI1" s="158" t="s">
+      <c r="KE1" s="197"/>
+      <c r="KF1" s="197"/>
+      <c r="KG1" s="197"/>
+      <c r="KH1" s="197"/>
+      <c r="KI1" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="KJ1" s="160"/>
-      <c r="KK1" s="158" t="s">
+      <c r="KJ1" s="198"/>
+      <c r="KK1" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="KL1" s="159"/>
-      <c r="KM1" s="159"/>
-      <c r="KN1" s="159"/>
-      <c r="KO1" s="159"/>
-      <c r="KP1" s="159"/>
-      <c r="KQ1" s="159"/>
-      <c r="KR1" s="159"/>
-      <c r="KS1" s="159"/>
-      <c r="KT1" s="159"/>
-      <c r="KU1" s="159"/>
-      <c r="KV1" s="159"/>
-      <c r="KW1" s="159"/>
-      <c r="KX1" s="159"/>
-      <c r="KY1" s="159"/>
-      <c r="KZ1" s="159"/>
-      <c r="LA1" s="159"/>
-      <c r="LB1" s="159"/>
-      <c r="LC1" s="159"/>
-      <c r="LD1" s="159"/>
-      <c r="LE1" s="159"/>
-      <c r="LF1" s="158" t="s">
+      <c r="KL1" s="197"/>
+      <c r="KM1" s="197"/>
+      <c r="KN1" s="197"/>
+      <c r="KO1" s="197"/>
+      <c r="KP1" s="197"/>
+      <c r="KQ1" s="197"/>
+      <c r="KR1" s="197"/>
+      <c r="KS1" s="197"/>
+      <c r="KT1" s="197"/>
+      <c r="KU1" s="197"/>
+      <c r="KV1" s="197"/>
+      <c r="KW1" s="197"/>
+      <c r="KX1" s="197"/>
+      <c r="KY1" s="197"/>
+      <c r="KZ1" s="197"/>
+      <c r="LA1" s="197"/>
+      <c r="LB1" s="197"/>
+      <c r="LC1" s="197"/>
+      <c r="LD1" s="197"/>
+      <c r="LE1" s="197"/>
+      <c r="LF1" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="LG1" s="159"/>
-      <c r="LH1" s="159"/>
-      <c r="LI1" s="159"/>
-      <c r="LJ1" s="159"/>
-      <c r="LK1" s="159"/>
-      <c r="LL1" s="159"/>
-      <c r="LM1" s="159"/>
-      <c r="LN1" s="159"/>
-      <c r="LO1" s="159"/>
-      <c r="LP1" s="159"/>
-      <c r="LQ1" s="160"/>
+      <c r="LG1" s="197"/>
+      <c r="LH1" s="197"/>
+      <c r="LI1" s="197"/>
+      <c r="LJ1" s="197"/>
+      <c r="LK1" s="197"/>
+      <c r="LL1" s="197"/>
+      <c r="LM1" s="197"/>
+      <c r="LN1" s="197"/>
+      <c r="LO1" s="197"/>
+      <c r="LP1" s="197"/>
+      <c r="LQ1" s="198"/>
       <c r="LR1" s="60" t="s">
         <v>34</v>
       </c>
       <c r="LS1" s="60"/>
     </row>
-    <row r="2" spans="1:332" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="165" t="s">
+    <row r="2" spans="1:332" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="163" t="s">
+      <c r="D2" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="167" t="s">
+      <c r="E2" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="165" t="s">
+      <c r="F2" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="163" t="s">
+      <c r="G2" s="159" t="s">
         <v>177</v>
       </c>
-      <c r="H2" s="172" t="s">
+      <c r="H2" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="I2" s="170" t="s">
+      <c r="I2" s="185" t="s">
         <v>179</v>
       </c>
-      <c r="J2" s="174" t="s">
+      <c r="J2" s="191" t="s">
         <v>180</v>
       </c>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="174" t="s">
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="191" t="s">
         <v>181</v>
       </c>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="170" t="s">
+      <c r="O2" s="192"/>
+      <c r="P2" s="192"/>
+      <c r="Q2" s="192"/>
+      <c r="R2" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="S2" s="170" t="s">
+      <c r="S2" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="T2" s="170" t="s">
+      <c r="T2" s="185" t="s">
         <v>184</v>
       </c>
-      <c r="U2" s="170" t="s">
+      <c r="U2" s="185" t="s">
         <v>185</v>
       </c>
-      <c r="V2" s="170" t="s">
+      <c r="V2" s="185" t="s">
         <v>186</v>
       </c>
-      <c r="W2" s="172" t="s">
+      <c r="W2" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="X2" s="170" t="s">
+      <c r="X2" s="185" t="s">
         <v>179</v>
       </c>
-      <c r="Y2" s="174" t="s">
+      <c r="Y2" s="191" t="s">
         <v>180</v>
       </c>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="176"/>
-      <c r="AC2" s="174" t="s">
+      <c r="Z2" s="192"/>
+      <c r="AA2" s="192"/>
+      <c r="AB2" s="193"/>
+      <c r="AC2" s="191" t="s">
         <v>181</v>
       </c>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="170" t="s">
+      <c r="AD2" s="192"/>
+      <c r="AE2" s="192"/>
+      <c r="AF2" s="192"/>
+      <c r="AG2" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="AH2" s="170" t="s">
+      <c r="AH2" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="AI2" s="170" t="s">
+      <c r="AI2" s="185" t="s">
         <v>184</v>
       </c>
-      <c r="AJ2" s="170" t="s">
+      <c r="AJ2" s="185" t="s">
         <v>185</v>
       </c>
-      <c r="AK2" s="170" t="s">
+      <c r="AK2" s="185" t="s">
         <v>186</v>
       </c>
-      <c r="AL2" s="172" t="s">
+      <c r="AL2" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="AM2" s="170" t="s">
+      <c r="AM2" s="185" t="s">
         <v>179</v>
       </c>
-      <c r="AN2" s="174" t="s">
+      <c r="AN2" s="191" t="s">
         <v>180</v>
       </c>
-      <c r="AO2" s="175"/>
-      <c r="AP2" s="175"/>
-      <c r="AQ2" s="176"/>
-      <c r="AR2" s="174" t="s">
+      <c r="AO2" s="192"/>
+      <c r="AP2" s="192"/>
+      <c r="AQ2" s="193"/>
+      <c r="AR2" s="191" t="s">
         <v>181</v>
       </c>
-      <c r="AS2" s="175"/>
-      <c r="AT2" s="175"/>
-      <c r="AU2" s="175"/>
-      <c r="AV2" s="170" t="s">
+      <c r="AS2" s="192"/>
+      <c r="AT2" s="192"/>
+      <c r="AU2" s="192"/>
+      <c r="AV2" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="AW2" s="170" t="s">
+      <c r="AW2" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="AX2" s="170" t="s">
+      <c r="AX2" s="185" t="s">
         <v>184</v>
       </c>
-      <c r="AY2" s="170" t="s">
+      <c r="AY2" s="185" t="s">
         <v>185</v>
       </c>
-      <c r="AZ2" s="170" t="s">
+      <c r="AZ2" s="185" t="s">
         <v>186</v>
       </c>
-      <c r="BA2" s="172" t="s">
+      <c r="BA2" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="BB2" s="170" t="s">
+      <c r="BB2" s="185" t="s">
         <v>179</v>
       </c>
-      <c r="BC2" s="174" t="s">
+      <c r="BC2" s="191" t="s">
         <v>180</v>
       </c>
-      <c r="BD2" s="175"/>
-      <c r="BE2" s="175"/>
-      <c r="BF2" s="176"/>
-      <c r="BG2" s="174" t="s">
+      <c r="BD2" s="192"/>
+      <c r="BE2" s="192"/>
+      <c r="BF2" s="193"/>
+      <c r="BG2" s="191" t="s">
         <v>181</v>
       </c>
-      <c r="BH2" s="175"/>
-      <c r="BI2" s="175"/>
-      <c r="BJ2" s="175"/>
-      <c r="BK2" s="170" t="s">
+      <c r="BH2" s="192"/>
+      <c r="BI2" s="192"/>
+      <c r="BJ2" s="192"/>
+      <c r="BK2" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="BL2" s="170" t="s">
+      <c r="BL2" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="BM2" s="170" t="s">
+      <c r="BM2" s="185" t="s">
         <v>184</v>
       </c>
-      <c r="BN2" s="170" t="s">
+      <c r="BN2" s="185" t="s">
         <v>185</v>
       </c>
-      <c r="BO2" s="170" t="s">
+      <c r="BO2" s="185" t="s">
         <v>186</v>
       </c>
-      <c r="BP2" s="172" t="s">
+      <c r="BP2" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="BQ2" s="170" t="s">
+      <c r="BQ2" s="185" t="s">
         <v>179</v>
       </c>
-      <c r="BR2" s="174" t="s">
+      <c r="BR2" s="191" t="s">
         <v>180</v>
       </c>
-      <c r="BS2" s="175"/>
-      <c r="BT2" s="175"/>
-      <c r="BU2" s="176"/>
-      <c r="BV2" s="174" t="s">
+      <c r="BS2" s="192"/>
+      <c r="BT2" s="192"/>
+      <c r="BU2" s="193"/>
+      <c r="BV2" s="191" t="s">
         <v>181</v>
       </c>
-      <c r="BW2" s="175"/>
-      <c r="BX2" s="175"/>
-      <c r="BY2" s="175"/>
-      <c r="BZ2" s="170" t="s">
+      <c r="BW2" s="192"/>
+      <c r="BX2" s="192"/>
+      <c r="BY2" s="192"/>
+      <c r="BZ2" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="CA2" s="170" t="s">
+      <c r="CA2" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="CB2" s="170" t="s">
+      <c r="CB2" s="185" t="s">
         <v>184</v>
       </c>
-      <c r="CC2" s="170" t="s">
+      <c r="CC2" s="185" t="s">
         <v>185</v>
       </c>
-      <c r="CD2" s="170" t="s">
+      <c r="CD2" s="185" t="s">
         <v>186</v>
       </c>
-      <c r="CE2" s="172" t="s">
+      <c r="CE2" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="CF2" s="170" t="s">
+      <c r="CF2" s="185" t="s">
         <v>179</v>
       </c>
-      <c r="CG2" s="174" t="s">
+      <c r="CG2" s="191" t="s">
         <v>180</v>
       </c>
-      <c r="CH2" s="175"/>
-      <c r="CI2" s="175"/>
-      <c r="CJ2" s="176"/>
-      <c r="CK2" s="174" t="s">
+      <c r="CH2" s="192"/>
+      <c r="CI2" s="192"/>
+      <c r="CJ2" s="193"/>
+      <c r="CK2" s="191" t="s">
         <v>181</v>
       </c>
-      <c r="CL2" s="175"/>
-      <c r="CM2" s="175"/>
-      <c r="CN2" s="175"/>
-      <c r="CO2" s="170" t="s">
+      <c r="CL2" s="192"/>
+      <c r="CM2" s="192"/>
+      <c r="CN2" s="192"/>
+      <c r="CO2" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="CP2" s="170" t="s">
+      <c r="CP2" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="CQ2" s="170" t="s">
+      <c r="CQ2" s="185" t="s">
         <v>184</v>
       </c>
-      <c r="CR2" s="170" t="s">
+      <c r="CR2" s="185" t="s">
         <v>185</v>
       </c>
-      <c r="CS2" s="170" t="s">
+      <c r="CS2" s="185" t="s">
         <v>186</v>
       </c>
-      <c r="CT2" s="172" t="s">
+      <c r="CT2" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="CU2" s="170" t="s">
+      <c r="CU2" s="185" t="s">
         <v>179</v>
       </c>
-      <c r="CV2" s="174" t="s">
+      <c r="CV2" s="191" t="s">
         <v>180</v>
       </c>
-      <c r="CW2" s="175"/>
-      <c r="CX2" s="175"/>
-      <c r="CY2" s="176"/>
-      <c r="CZ2" s="174" t="s">
+      <c r="CW2" s="192"/>
+      <c r="CX2" s="192"/>
+      <c r="CY2" s="193"/>
+      <c r="CZ2" s="191" t="s">
         <v>181</v>
       </c>
-      <c r="DA2" s="175"/>
-      <c r="DB2" s="175"/>
-      <c r="DC2" s="175"/>
-      <c r="DD2" s="170" t="s">
+      <c r="DA2" s="192"/>
+      <c r="DB2" s="192"/>
+      <c r="DC2" s="192"/>
+      <c r="DD2" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="DE2" s="170" t="s">
+      <c r="DE2" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="DF2" s="170" t="s">
+      <c r="DF2" s="185" t="s">
         <v>184</v>
       </c>
-      <c r="DG2" s="170" t="s">
+      <c r="DG2" s="185" t="s">
         <v>185</v>
       </c>
-      <c r="DH2" s="170" t="s">
+      <c r="DH2" s="185" t="s">
         <v>186</v>
       </c>
-      <c r="DI2" s="172" t="s">
+      <c r="DI2" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="DJ2" s="170" t="s">
+      <c r="DJ2" s="185" t="s">
         <v>179</v>
       </c>
-      <c r="DK2" s="174" t="s">
+      <c r="DK2" s="191" t="s">
         <v>180</v>
       </c>
-      <c r="DL2" s="175"/>
-      <c r="DM2" s="175"/>
-      <c r="DN2" s="176"/>
-      <c r="DO2" s="174" t="s">
+      <c r="DL2" s="192"/>
+      <c r="DM2" s="192"/>
+      <c r="DN2" s="193"/>
+      <c r="DO2" s="191" t="s">
         <v>181</v>
       </c>
-      <c r="DP2" s="175"/>
-      <c r="DQ2" s="175"/>
-      <c r="DR2" s="175"/>
-      <c r="DS2" s="170" t="s">
+      <c r="DP2" s="192"/>
+      <c r="DQ2" s="192"/>
+      <c r="DR2" s="192"/>
+      <c r="DS2" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="DT2" s="170" t="s">
+      <c r="DT2" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="DU2" s="170" t="s">
+      <c r="DU2" s="185" t="s">
         <v>184</v>
       </c>
-      <c r="DV2" s="170" t="s">
+      <c r="DV2" s="185" t="s">
         <v>185</v>
       </c>
-      <c r="DW2" s="172" t="s">
+      <c r="DW2" s="187" t="s">
         <v>186</v>
       </c>
-      <c r="DX2" s="179" t="s">
+      <c r="DX2" s="189" t="s">
         <v>187</v>
       </c>
       <c r="DY2" s="177" t="s">
@@ -4467,7 +4470,7 @@
       <c r="EV2" s="177" t="s">
         <v>209</v>
       </c>
-      <c r="EW2" s="183" t="s">
+      <c r="EW2" s="179" t="s">
         <v>210</v>
       </c>
       <c r="EX2" s="177" t="s">
@@ -4479,7 +4482,7 @@
       <c r="EZ2" s="177" t="s">
         <v>189</v>
       </c>
-      <c r="FA2" s="185" t="s">
+      <c r="FA2" s="183" t="s">
         <v>381</v>
       </c>
       <c r="FB2" s="177" t="s">
@@ -4545,7 +4548,7 @@
       <c r="FV2" s="177" t="s">
         <v>209</v>
       </c>
-      <c r="FW2" s="183" t="s">
+      <c r="FW2" s="179" t="s">
         <v>210</v>
       </c>
       <c r="FX2" s="177" t="s">
@@ -4557,7 +4560,7 @@
       <c r="FZ2" s="177" t="s">
         <v>189</v>
       </c>
-      <c r="GA2" s="185" t="s">
+      <c r="GA2" s="183" t="s">
         <v>381</v>
       </c>
       <c r="GB2" s="177" t="s">
@@ -4623,7 +4626,7 @@
       <c r="GV2" s="177" t="s">
         <v>209</v>
       </c>
-      <c r="GW2" s="183" t="s">
+      <c r="GW2" s="179" t="s">
         <v>210</v>
       </c>
       <c r="GX2" s="177" t="s">
@@ -4635,7 +4638,7 @@
       <c r="GZ2" s="177" t="s">
         <v>189</v>
       </c>
-      <c r="HA2" s="185" t="s">
+      <c r="HA2" s="183" t="s">
         <v>381</v>
       </c>
       <c r="HB2" s="177" t="s">
@@ -4701,7 +4704,7 @@
       <c r="HV2" s="177" t="s">
         <v>209</v>
       </c>
-      <c r="HW2" s="183" t="s">
+      <c r="HW2" s="179" t="s">
         <v>210</v>
       </c>
       <c r="HX2" s="177" t="s">
@@ -4713,7 +4716,7 @@
       <c r="HZ2" s="177" t="s">
         <v>189</v>
       </c>
-      <c r="IA2" s="185" t="s">
+      <c r="IA2" s="183" t="s">
         <v>381</v>
       </c>
       <c r="IB2" s="177" t="s">
@@ -4779,153 +4782,153 @@
       <c r="IV2" s="177" t="s">
         <v>209</v>
       </c>
-      <c r="IW2" s="183" t="s">
+      <c r="IW2" s="179" t="s">
         <v>210</v>
       </c>
-      <c r="IX2" s="165" t="s">
+      <c r="IX2" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="IY2" s="165"/>
-      <c r="IZ2" s="165"/>
-      <c r="JA2" s="165"/>
-      <c r="JB2" s="165"/>
-      <c r="JC2" s="165" t="s">
+      <c r="IY2" s="158"/>
+      <c r="IZ2" s="158"/>
+      <c r="JA2" s="158"/>
+      <c r="JB2" s="158"/>
+      <c r="JC2" s="158" t="s">
         <v>211</v>
       </c>
-      <c r="JD2" s="165"/>
-      <c r="JE2" s="165"/>
-      <c r="JF2" s="165"/>
-      <c r="JG2" s="165"/>
-      <c r="JH2" s="187" t="s">
+      <c r="JD2" s="158"/>
+      <c r="JE2" s="158"/>
+      <c r="JF2" s="158"/>
+      <c r="JG2" s="158"/>
+      <c r="JH2" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="JI2" s="188"/>
-      <c r="JJ2" s="187" t="s">
+      <c r="JI2" s="176"/>
+      <c r="JJ2" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="JK2" s="188"/>
-      <c r="JL2" s="187" t="s">
+      <c r="JK2" s="176"/>
+      <c r="JL2" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="JM2" s="188"/>
-      <c r="JN2" s="187" t="s">
+      <c r="JM2" s="176"/>
+      <c r="JN2" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="JO2" s="188"/>
-      <c r="JP2" s="187" t="s">
+      <c r="JO2" s="176"/>
+      <c r="JP2" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="JQ2" s="188"/>
-      <c r="JR2" s="191" t="s">
+      <c r="JQ2" s="176"/>
+      <c r="JR2" s="173" t="s">
         <v>237</v>
       </c>
-      <c r="JS2" s="189" t="s">
+      <c r="JS2" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="JT2" s="190"/>
-      <c r="JU2" s="189" t="s">
+      <c r="JT2" s="169"/>
+      <c r="JU2" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="JV2" s="190"/>
-      <c r="JW2" s="189" t="s">
+      <c r="JV2" s="169"/>
+      <c r="JW2" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="JX2" s="190"/>
-      <c r="JY2" s="189" t="s">
+      <c r="JX2" s="169"/>
+      <c r="JY2" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="JZ2" s="190"/>
-      <c r="KA2" s="189" t="s">
+      <c r="JZ2" s="169"/>
+      <c r="KA2" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="KB2" s="190"/>
-      <c r="KC2" s="199" t="s">
+      <c r="KB2" s="169"/>
+      <c r="KC2" s="171" t="s">
         <v>237</v>
       </c>
-      <c r="KD2" s="191" t="s">
+      <c r="KD2" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="KE2" s="198" t="s">
+      <c r="KE2" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="KF2" s="193"/>
-      <c r="KG2" s="193" t="s">
+      <c r="KF2" s="165"/>
+      <c r="KG2" s="165" t="s">
         <v>330</v>
       </c>
-      <c r="KH2" s="193"/>
-      <c r="KI2" s="191" t="s">
+      <c r="KH2" s="165"/>
+      <c r="KI2" s="173" t="s">
         <v>385</v>
       </c>
-      <c r="KJ2" s="194" t="s">
+      <c r="KJ2" s="166" t="s">
         <v>400</v>
       </c>
-      <c r="KK2" s="196" t="s">
+      <c r="KK2" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="KL2" s="196"/>
-      <c r="KM2" s="196"/>
-      <c r="KN2" s="197"/>
-      <c r="KO2" s="196" t="s">
+      <c r="KL2" s="162"/>
+      <c r="KM2" s="162"/>
+      <c r="KN2" s="164"/>
+      <c r="KO2" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="KP2" s="196"/>
-      <c r="KQ2" s="196"/>
-      <c r="KR2" s="196"/>
-      <c r="KS2" s="201" t="s">
+      <c r="KP2" s="162"/>
+      <c r="KQ2" s="162"/>
+      <c r="KR2" s="162"/>
+      <c r="KS2" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="KT2" s="197"/>
-      <c r="KU2" s="196" t="s">
+      <c r="KT2" s="164"/>
+      <c r="KU2" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="KV2" s="196"/>
-      <c r="KW2" s="201" t="s">
+      <c r="KV2" s="162"/>
+      <c r="KW2" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="KX2" s="197"/>
-      <c r="KY2" s="196" t="s">
+      <c r="KX2" s="164"/>
+      <c r="KY2" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="KZ2" s="196"/>
-      <c r="LA2" s="201" t="s">
+      <c r="KZ2" s="162"/>
+      <c r="LA2" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="LB2" s="196"/>
-      <c r="LC2" s="196"/>
-      <c r="LD2" s="196"/>
-      <c r="LE2" s="197"/>
-      <c r="LF2" s="165" t="s">
+      <c r="LB2" s="162"/>
+      <c r="LC2" s="162"/>
+      <c r="LD2" s="162"/>
+      <c r="LE2" s="164"/>
+      <c r="LF2" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="LG2" s="165"/>
-      <c r="LH2" s="165"/>
-      <c r="LI2" s="165"/>
-      <c r="LJ2" s="165"/>
-      <c r="LK2" s="163"/>
-      <c r="LL2" s="165" t="s">
+      <c r="LG2" s="158"/>
+      <c r="LH2" s="158"/>
+      <c r="LI2" s="158"/>
+      <c r="LJ2" s="158"/>
+      <c r="LK2" s="159"/>
+      <c r="LL2" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="LM2" s="165"/>
-      <c r="LN2" s="165"/>
-      <c r="LO2" s="165"/>
-      <c r="LP2" s="165"/>
-      <c r="LQ2" s="165"/>
-      <c r="LR2" s="167" t="s">
+      <c r="LM2" s="158"/>
+      <c r="LN2" s="158"/>
+      <c r="LO2" s="158"/>
+      <c r="LP2" s="158"/>
+      <c r="LQ2" s="158"/>
+      <c r="LR2" s="160" t="s">
         <v>35</v>
       </c>
       <c r="LS2" s="59"/>
       <c r="LT2" s="6"/>
     </row>
-    <row r="3" spans="1:332" s="5" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="164"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="171"/>
+    <row r="3" spans="1:332" s="5" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="194"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="186"/>
       <c r="J3" s="141" t="s">
         <v>212</v>
       </c>
@@ -4950,13 +4953,13 @@
       <c r="Q3" s="142" t="s">
         <v>215</v>
       </c>
-      <c r="R3" s="171"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="171"/>
-      <c r="U3" s="171"/>
-      <c r="V3" s="171"/>
-      <c r="W3" s="173"/>
-      <c r="X3" s="171"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="186"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="186"/>
+      <c r="V3" s="186"/>
+      <c r="W3" s="188"/>
+      <c r="X3" s="186"/>
       <c r="Y3" s="141" t="s">
         <v>212</v>
       </c>
@@ -4981,13 +4984,13 @@
       <c r="AF3" s="142" t="s">
         <v>215</v>
       </c>
-      <c r="AG3" s="171"/>
-      <c r="AH3" s="171"/>
-      <c r="AI3" s="171"/>
-      <c r="AJ3" s="171"/>
-      <c r="AK3" s="171"/>
-      <c r="AL3" s="173"/>
-      <c r="AM3" s="171"/>
+      <c r="AG3" s="186"/>
+      <c r="AH3" s="186"/>
+      <c r="AI3" s="186"/>
+      <c r="AJ3" s="186"/>
+      <c r="AK3" s="186"/>
+      <c r="AL3" s="188"/>
+      <c r="AM3" s="186"/>
       <c r="AN3" s="141" t="s">
         <v>212</v>
       </c>
@@ -5012,13 +5015,13 @@
       <c r="AU3" s="142" t="s">
         <v>215</v>
       </c>
-      <c r="AV3" s="171"/>
-      <c r="AW3" s="171"/>
-      <c r="AX3" s="171"/>
-      <c r="AY3" s="171"/>
-      <c r="AZ3" s="171"/>
-      <c r="BA3" s="173"/>
-      <c r="BB3" s="171"/>
+      <c r="AV3" s="186"/>
+      <c r="AW3" s="186"/>
+      <c r="AX3" s="186"/>
+      <c r="AY3" s="186"/>
+      <c r="AZ3" s="186"/>
+      <c r="BA3" s="188"/>
+      <c r="BB3" s="186"/>
       <c r="BC3" s="141" t="s">
         <v>212</v>
       </c>
@@ -5043,13 +5046,13 @@
       <c r="BJ3" s="142" t="s">
         <v>215</v>
       </c>
-      <c r="BK3" s="171"/>
-      <c r="BL3" s="171"/>
-      <c r="BM3" s="171"/>
-      <c r="BN3" s="171"/>
-      <c r="BO3" s="171"/>
-      <c r="BP3" s="173"/>
-      <c r="BQ3" s="171"/>
+      <c r="BK3" s="186"/>
+      <c r="BL3" s="186"/>
+      <c r="BM3" s="186"/>
+      <c r="BN3" s="186"/>
+      <c r="BO3" s="186"/>
+      <c r="BP3" s="188"/>
+      <c r="BQ3" s="186"/>
       <c r="BR3" s="141" t="s">
         <v>212</v>
       </c>
@@ -5074,13 +5077,13 @@
       <c r="BY3" s="142" t="s">
         <v>215</v>
       </c>
-      <c r="BZ3" s="171"/>
-      <c r="CA3" s="171"/>
-      <c r="CB3" s="171"/>
-      <c r="CC3" s="171"/>
-      <c r="CD3" s="171"/>
-      <c r="CE3" s="173"/>
-      <c r="CF3" s="171"/>
+      <c r="BZ3" s="186"/>
+      <c r="CA3" s="186"/>
+      <c r="CB3" s="186"/>
+      <c r="CC3" s="186"/>
+      <c r="CD3" s="186"/>
+      <c r="CE3" s="188"/>
+      <c r="CF3" s="186"/>
       <c r="CG3" s="141" t="s">
         <v>212</v>
       </c>
@@ -5105,13 +5108,13 @@
       <c r="CN3" s="142" t="s">
         <v>215</v>
       </c>
-      <c r="CO3" s="171"/>
-      <c r="CP3" s="171"/>
-      <c r="CQ3" s="171"/>
-      <c r="CR3" s="171"/>
-      <c r="CS3" s="171"/>
-      <c r="CT3" s="173"/>
-      <c r="CU3" s="171"/>
+      <c r="CO3" s="186"/>
+      <c r="CP3" s="186"/>
+      <c r="CQ3" s="186"/>
+      <c r="CR3" s="186"/>
+      <c r="CS3" s="186"/>
+      <c r="CT3" s="188"/>
+      <c r="CU3" s="186"/>
       <c r="CV3" s="141" t="s">
         <v>212</v>
       </c>
@@ -5136,13 +5139,13 @@
       <c r="DC3" s="142" t="s">
         <v>215</v>
       </c>
-      <c r="DD3" s="171"/>
-      <c r="DE3" s="171"/>
-      <c r="DF3" s="171"/>
-      <c r="DG3" s="171"/>
-      <c r="DH3" s="171"/>
-      <c r="DI3" s="173"/>
-      <c r="DJ3" s="171"/>
+      <c r="DD3" s="186"/>
+      <c r="DE3" s="186"/>
+      <c r="DF3" s="186"/>
+      <c r="DG3" s="186"/>
+      <c r="DH3" s="186"/>
+      <c r="DI3" s="188"/>
+      <c r="DJ3" s="186"/>
       <c r="DK3" s="141" t="s">
         <v>212</v>
       </c>
@@ -5167,12 +5170,12 @@
       <c r="DR3" s="142" t="s">
         <v>215</v>
       </c>
-      <c r="DS3" s="171"/>
-      <c r="DT3" s="171"/>
-      <c r="DU3" s="171"/>
-      <c r="DV3" s="171"/>
-      <c r="DW3" s="173"/>
-      <c r="DX3" s="180"/>
+      <c r="DS3" s="186"/>
+      <c r="DT3" s="186"/>
+      <c r="DU3" s="186"/>
+      <c r="DV3" s="186"/>
+      <c r="DW3" s="188"/>
+      <c r="DX3" s="190"/>
       <c r="DY3" s="178"/>
       <c r="DZ3" s="178"/>
       <c r="EA3" s="178"/>
@@ -5197,11 +5200,11 @@
       <c r="ET3" s="178"/>
       <c r="EU3" s="178"/>
       <c r="EV3" s="178"/>
-      <c r="EW3" s="184"/>
+      <c r="EW3" s="180"/>
       <c r="EX3" s="178"/>
       <c r="EY3" s="178"/>
       <c r="EZ3" s="178"/>
-      <c r="FA3" s="186"/>
+      <c r="FA3" s="184"/>
       <c r="FB3" s="178"/>
       <c r="FC3" s="178"/>
       <c r="FD3" s="178"/>
@@ -5223,11 +5226,11 @@
       <c r="FT3" s="178"/>
       <c r="FU3" s="178"/>
       <c r="FV3" s="178"/>
-      <c r="FW3" s="184"/>
+      <c r="FW3" s="180"/>
       <c r="FX3" s="178"/>
       <c r="FY3" s="178"/>
       <c r="FZ3" s="178"/>
-      <c r="GA3" s="186"/>
+      <c r="GA3" s="184"/>
       <c r="GB3" s="178"/>
       <c r="GC3" s="178"/>
       <c r="GD3" s="178"/>
@@ -5249,11 +5252,11 @@
       <c r="GT3" s="178"/>
       <c r="GU3" s="178"/>
       <c r="GV3" s="178"/>
-      <c r="GW3" s="184"/>
+      <c r="GW3" s="180"/>
       <c r="GX3" s="178"/>
       <c r="GY3" s="178"/>
       <c r="GZ3" s="178"/>
-      <c r="HA3" s="186"/>
+      <c r="HA3" s="184"/>
       <c r="HB3" s="178"/>
       <c r="HC3" s="178"/>
       <c r="HD3" s="178"/>
@@ -5275,11 +5278,11 @@
       <c r="HT3" s="178"/>
       <c r="HU3" s="178"/>
       <c r="HV3" s="178"/>
-      <c r="HW3" s="184"/>
+      <c r="HW3" s="180"/>
       <c r="HX3" s="178"/>
       <c r="HY3" s="178"/>
       <c r="HZ3" s="178"/>
-      <c r="IA3" s="186"/>
+      <c r="IA3" s="184"/>
       <c r="IB3" s="178"/>
       <c r="IC3" s="178"/>
       <c r="ID3" s="178"/>
@@ -5301,7 +5304,7 @@
       <c r="IT3" s="178"/>
       <c r="IU3" s="178"/>
       <c r="IV3" s="178"/>
-      <c r="IW3" s="184"/>
+      <c r="IW3" s="180"/>
       <c r="IX3" s="62" t="s">
         <v>216</v>
       </c>
@@ -5362,7 +5365,7 @@
       <c r="JQ3" s="145" t="s">
         <v>236</v>
       </c>
-      <c r="JR3" s="192"/>
+      <c r="JR3" s="174"/>
       <c r="JS3" s="143" t="s">
         <v>11</v>
       </c>
@@ -5393,8 +5396,8 @@
       <c r="KB3" s="144" t="s">
         <v>236</v>
       </c>
-      <c r="KC3" s="200"/>
-      <c r="KD3" s="192"/>
+      <c r="KC3" s="172"/>
+      <c r="KD3" s="174"/>
       <c r="KE3" s="146" t="s">
         <v>18</v>
       </c>
@@ -5407,8 +5410,8 @@
       <c r="KH3" s="147" t="s">
         <v>221</v>
       </c>
-      <c r="KI3" s="192"/>
-      <c r="KJ3" s="195"/>
+      <c r="KI3" s="174"/>
+      <c r="KJ3" s="167"/>
       <c r="KK3" s="4" t="s">
         <v>29</v>
       </c>
@@ -5508,10 +5511,10 @@
       <c r="LQ3" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="LR3" s="168"/>
+      <c r="LR3" s="161"/>
       <c r="LS3" s="7"/>
     </row>
-    <row r="4" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
         <v>147</v>
       </c>
@@ -5932,7 +5935,7 @@
       </c>
       <c r="LS4" s="65"/>
     </row>
-    <row r="5" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
         <v>153</v>
       </c>
@@ -6656,7 +6659,7 @@
       <c r="LR5" s="65"/>
       <c r="LS5" s="65"/>
     </row>
-    <row r="6" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>394</v>
       </c>
@@ -7125,7 +7128,7 @@
       </c>
       <c r="LS6" s="65"/>
     </row>
-    <row r="7" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
         <v>397</v>
       </c>
@@ -7599,7 +7602,7 @@
       <c r="LR7" s="65"/>
       <c r="LS7" s="65"/>
     </row>
-    <row r="8" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
         <v>401</v>
       </c>
@@ -8035,7 +8038,7 @@
       <c r="LR8" s="65"/>
       <c r="LS8" s="65"/>
     </row>
-    <row r="9" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65"/>
       <c r="F9" s="65"/>
       <c r="H9" s="65"/>
@@ -8105,7 +8108,7 @@
       <c r="LR9" s="65"/>
       <c r="LS9" s="65"/>
     </row>
-    <row r="10" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65"/>
       <c r="F10" s="65"/>
       <c r="H10" s="65"/>
@@ -8175,7 +8178,7 @@
       <c r="LR10" s="65"/>
       <c r="LS10" s="65"/>
     </row>
-    <row r="11" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="65"/>
       <c r="F11" s="65"/>
       <c r="H11" s="65"/>
@@ -8245,7 +8248,7 @@
       <c r="LR11" s="65"/>
       <c r="LS11" s="65"/>
     </row>
-    <row r="12" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="65"/>
       <c r="F12" s="65"/>
       <c r="H12" s="65"/>
@@ -8315,7 +8318,7 @@
       <c r="LR12" s="65"/>
       <c r="LS12" s="65"/>
     </row>
-    <row r="13" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="65"/>
       <c r="F13" s="65"/>
       <c r="H13" s="65"/>
@@ -8385,7 +8388,7 @@
       <c r="LR13" s="65"/>
       <c r="LS13" s="65"/>
     </row>
-    <row r="14" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="65"/>
       <c r="F14" s="65"/>
       <c r="H14" s="65"/>
@@ -8455,7 +8458,7 @@
       <c r="LR14" s="65"/>
       <c r="LS14" s="65"/>
     </row>
-    <row r="15" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65"/>
       <c r="F15" s="65"/>
       <c r="H15" s="65"/>
@@ -8525,7 +8528,7 @@
       <c r="LR15" s="65"/>
       <c r="LS15" s="65"/>
     </row>
-    <row r="16" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="65"/>
       <c r="F16" s="65"/>
       <c r="H16" s="65"/>
@@ -8595,7 +8598,7 @@
       <c r="LR16" s="65"/>
       <c r="LS16" s="65"/>
     </row>
-    <row r="17" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="65"/>
       <c r="F17" s="65"/>
       <c r="H17" s="65"/>
@@ -8665,7 +8668,7 @@
       <c r="LR17" s="65"/>
       <c r="LS17" s="65"/>
     </row>
-    <row r="18" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="65"/>
       <c r="F18" s="65"/>
       <c r="H18" s="65"/>
@@ -8735,7 +8738,7 @@
       <c r="LR18" s="65"/>
       <c r="LS18" s="65"/>
     </row>
-    <row r="19" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="65"/>
       <c r="F19" s="65"/>
       <c r="H19" s="65"/>
@@ -8805,7 +8808,7 @@
       <c r="LR19" s="65"/>
       <c r="LS19" s="65"/>
     </row>
-    <row r="20" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="65"/>
       <c r="F20" s="65"/>
       <c r="H20" s="65"/>
@@ -8875,7 +8878,7 @@
       <c r="LR20" s="65"/>
       <c r="LS20" s="65"/>
     </row>
-    <row r="21" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="65"/>
       <c r="F21" s="65"/>
       <c r="H21" s="65"/>
@@ -8945,7 +8948,7 @@
       <c r="LR21" s="65"/>
       <c r="LS21" s="65"/>
     </row>
-    <row r="22" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="65"/>
       <c r="F22" s="65"/>
       <c r="H22" s="65"/>
@@ -9015,7 +9018,7 @@
       <c r="LR22" s="65"/>
       <c r="LS22" s="65"/>
     </row>
-    <row r="23" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
       <c r="F23" s="65"/>
       <c r="H23" s="65"/>
@@ -9085,7 +9088,7 @@
       <c r="LR23" s="65"/>
       <c r="LS23" s="65"/>
     </row>
-    <row r="24" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="65"/>
       <c r="F24" s="65"/>
       <c r="H24" s="65"/>
@@ -9155,7 +9158,7 @@
       <c r="LR24" s="65"/>
       <c r="LS24" s="65"/>
     </row>
-    <row r="25" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="65"/>
       <c r="F25" s="65"/>
       <c r="H25" s="65"/>
@@ -9225,7 +9228,7 @@
       <c r="LR25" s="65"/>
       <c r="LS25" s="65"/>
     </row>
-    <row r="26" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65"/>
       <c r="F26" s="65"/>
       <c r="H26" s="65"/>
@@ -9295,7 +9298,7 @@
       <c r="LR26" s="65"/>
       <c r="LS26" s="65"/>
     </row>
-    <row r="27" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="65"/>
       <c r="F27" s="65"/>
       <c r="H27" s="65"/>
@@ -9365,7 +9368,7 @@
       <c r="LR27" s="65"/>
       <c r="LS27" s="65"/>
     </row>
-    <row r="28" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="65"/>
       <c r="F28" s="65"/>
       <c r="H28" s="65"/>
@@ -9435,7 +9438,7 @@
       <c r="LR28" s="65"/>
       <c r="LS28" s="65"/>
     </row>
-    <row r="29" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="65"/>
       <c r="F29" s="65"/>
       <c r="H29" s="65"/>
@@ -9505,7 +9508,7 @@
       <c r="LR29" s="65"/>
       <c r="LS29" s="65"/>
     </row>
-    <row r="30" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="65"/>
       <c r="F30" s="65"/>
       <c r="H30" s="65"/>
@@ -9575,7 +9578,7 @@
       <c r="LR30" s="65"/>
       <c r="LS30" s="65"/>
     </row>
-    <row r="31" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="65"/>
       <c r="F31" s="65"/>
       <c r="H31" s="65"/>
@@ -9645,7 +9648,7 @@
       <c r="LR31" s="65"/>
       <c r="LS31" s="65"/>
     </row>
-    <row r="32" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="65"/>
       <c r="F32" s="65"/>
       <c r="H32" s="65"/>
@@ -9715,7 +9718,7 @@
       <c r="LR32" s="65"/>
       <c r="LS32" s="65"/>
     </row>
-    <row r="33" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="65"/>
       <c r="F33" s="65"/>
       <c r="H33" s="65"/>
@@ -9785,7 +9788,7 @@
       <c r="LR33" s="65"/>
       <c r="LS33" s="65"/>
     </row>
-    <row r="34" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="65"/>
       <c r="F34" s="65"/>
       <c r="H34" s="65"/>
@@ -9855,7 +9858,7 @@
       <c r="LR34" s="65"/>
       <c r="LS34" s="65"/>
     </row>
-    <row r="35" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="65"/>
       <c r="F35" s="65"/>
       <c r="H35" s="65"/>
@@ -9925,7 +9928,7 @@
       <c r="LR35" s="65"/>
       <c r="LS35" s="65"/>
     </row>
-    <row r="36" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="65"/>
       <c r="F36" s="65"/>
       <c r="H36" s="65"/>
@@ -9995,7 +9998,7 @@
       <c r="LR36" s="65"/>
       <c r="LS36" s="65"/>
     </row>
-    <row r="37" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="65"/>
       <c r="F37" s="65"/>
       <c r="H37" s="65"/>
@@ -10065,7 +10068,7 @@
       <c r="LR37" s="65"/>
       <c r="LS37" s="65"/>
     </row>
-    <row r="38" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="65"/>
       <c r="F38" s="65"/>
       <c r="H38" s="65"/>
@@ -10135,7 +10138,7 @@
       <c r="LR38" s="65"/>
       <c r="LS38" s="65"/>
     </row>
-    <row r="39" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="65"/>
       <c r="F39" s="65"/>
       <c r="H39" s="65"/>
@@ -10205,7 +10208,7 @@
       <c r="LR39" s="65"/>
       <c r="LS39" s="65"/>
     </row>
-    <row r="40" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="65"/>
       <c r="F40" s="65"/>
       <c r="H40" s="65"/>
@@ -10275,7 +10278,7 @@
       <c r="LR40" s="65"/>
       <c r="LS40" s="65"/>
     </row>
-    <row r="41" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="65"/>
       <c r="F41" s="65"/>
       <c r="H41" s="65"/>
@@ -10345,7 +10348,7 @@
       <c r="LR41" s="65"/>
       <c r="LS41" s="65"/>
     </row>
-    <row r="42" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="65"/>
       <c r="F42" s="65"/>
       <c r="H42" s="65"/>
@@ -10415,7 +10418,7 @@
       <c r="LR42" s="65"/>
       <c r="LS42" s="65"/>
     </row>
-    <row r="43" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="65"/>
       <c r="F43" s="65"/>
       <c r="H43" s="65"/>
@@ -10485,7 +10488,7 @@
       <c r="LR43" s="65"/>
       <c r="LS43" s="65"/>
     </row>
-    <row r="44" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="65"/>
       <c r="F44" s="65"/>
       <c r="H44" s="65"/>
@@ -10555,7 +10558,7 @@
       <c r="LR44" s="65"/>
       <c r="LS44" s="65"/>
     </row>
-    <row r="45" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="65"/>
       <c r="F45" s="65"/>
       <c r="H45" s="65"/>
@@ -10625,7 +10628,7 @@
       <c r="LR45" s="65"/>
       <c r="LS45" s="65"/>
     </row>
-    <row r="46" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="65"/>
       <c r="F46" s="65"/>
       <c r="H46" s="65"/>
@@ -10695,7 +10698,7 @@
       <c r="LR46" s="65"/>
       <c r="LS46" s="65"/>
     </row>
-    <row r="47" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="65"/>
       <c r="F47" s="65"/>
       <c r="H47" s="65"/>
@@ -10765,7 +10768,7 @@
       <c r="LR47" s="65"/>
       <c r="LS47" s="65"/>
     </row>
-    <row r="48" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="65"/>
       <c r="F48" s="65"/>
       <c r="H48" s="65"/>
@@ -10835,7 +10838,7 @@
       <c r="LR48" s="65"/>
       <c r="LS48" s="65"/>
     </row>
-    <row r="49" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="65"/>
       <c r="F49" s="65"/>
       <c r="H49" s="65"/>
@@ -10905,7 +10908,7 @@
       <c r="LR49" s="65"/>
       <c r="LS49" s="65"/>
     </row>
-    <row r="50" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="65"/>
       <c r="F50" s="65"/>
       <c r="H50" s="65"/>
@@ -10975,7 +10978,7 @@
       <c r="LR50" s="65"/>
       <c r="LS50" s="65"/>
     </row>
-    <row r="51" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="65"/>
       <c r="F51" s="65"/>
       <c r="H51" s="65"/>
@@ -11045,7 +11048,7 @@
       <c r="LR51" s="65"/>
       <c r="LS51" s="65"/>
     </row>
-    <row r="52" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="65"/>
       <c r="F52" s="65"/>
       <c r="H52" s="65"/>
@@ -11115,7 +11118,7 @@
       <c r="LR52" s="65"/>
       <c r="LS52" s="65"/>
     </row>
-    <row r="53" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="65"/>
       <c r="F53" s="65"/>
       <c r="H53" s="65"/>
@@ -11185,7 +11188,7 @@
       <c r="LR53" s="65"/>
       <c r="LS53" s="65"/>
     </row>
-    <row r="54" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="65"/>
       <c r="F54" s="65"/>
       <c r="H54" s="65"/>
@@ -11255,7 +11258,7 @@
       <c r="LR54" s="65"/>
       <c r="LS54" s="65"/>
     </row>
-    <row r="55" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="65"/>
       <c r="F55" s="65"/>
       <c r="H55" s="65"/>
@@ -11325,7 +11328,7 @@
       <c r="LR55" s="65"/>
       <c r="LS55" s="65"/>
     </row>
-    <row r="56" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="65"/>
       <c r="F56" s="65"/>
       <c r="H56" s="65"/>
@@ -11395,7 +11398,7 @@
       <c r="LR56" s="65"/>
       <c r="LS56" s="65"/>
     </row>
-    <row r="57" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="65"/>
       <c r="F57" s="65"/>
       <c r="H57" s="65"/>
@@ -11465,7 +11468,7 @@
       <c r="LR57" s="65"/>
       <c r="LS57" s="65"/>
     </row>
-    <row r="58" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="65"/>
       <c r="F58" s="65"/>
       <c r="H58" s="65"/>
@@ -11535,7 +11538,7 @@
       <c r="LR58" s="65"/>
       <c r="LS58" s="65"/>
     </row>
-    <row r="59" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="65"/>
       <c r="F59" s="65"/>
       <c r="H59" s="65"/>
@@ -11605,7 +11608,7 @@
       <c r="LR59" s="65"/>
       <c r="LS59" s="65"/>
     </row>
-    <row r="60" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="65"/>
       <c r="F60" s="65"/>
       <c r="H60" s="65"/>
@@ -11675,7 +11678,7 @@
       <c r="LR60" s="65"/>
       <c r="LS60" s="65"/>
     </row>
-    <row r="61" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="65"/>
       <c r="F61" s="65"/>
       <c r="H61" s="65"/>
@@ -11745,7 +11748,7 @@
       <c r="LR61" s="65"/>
       <c r="LS61" s="65"/>
     </row>
-    <row r="62" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="65"/>
       <c r="F62" s="65"/>
       <c r="H62" s="65"/>
@@ -11815,7 +11818,7 @@
       <c r="LR62" s="65"/>
       <c r="LS62" s="65"/>
     </row>
-    <row r="63" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="65"/>
       <c r="F63" s="65"/>
       <c r="H63" s="65"/>
@@ -11885,7 +11888,7 @@
       <c r="LR63" s="65"/>
       <c r="LS63" s="65"/>
     </row>
-    <row r="64" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="65"/>
       <c r="F64" s="65"/>
       <c r="H64" s="65"/>
@@ -11955,7 +11958,7 @@
       <c r="LR64" s="65"/>
       <c r="LS64" s="65"/>
     </row>
-    <row r="65" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="65"/>
       <c r="F65" s="65"/>
       <c r="H65" s="65"/>
@@ -12025,7 +12028,7 @@
       <c r="LR65" s="65"/>
       <c r="LS65" s="65"/>
     </row>
-    <row r="66" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="65"/>
       <c r="F66" s="65"/>
       <c r="H66" s="65"/>
@@ -12095,7 +12098,7 @@
       <c r="LR66" s="65"/>
       <c r="LS66" s="65"/>
     </row>
-    <row r="67" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="65"/>
       <c r="F67" s="65"/>
       <c r="H67" s="65"/>
@@ -12165,7 +12168,7 @@
       <c r="LR67" s="65"/>
       <c r="LS67" s="65"/>
     </row>
-    <row r="68" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="65"/>
       <c r="F68" s="65"/>
       <c r="H68" s="65"/>
@@ -12235,7 +12238,7 @@
       <c r="LR68" s="65"/>
       <c r="LS68" s="65"/>
     </row>
-    <row r="69" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="65"/>
       <c r="F69" s="65"/>
       <c r="H69" s="65"/>
@@ -12305,7 +12308,7 @@
       <c r="LR69" s="65"/>
       <c r="LS69" s="65"/>
     </row>
-    <row r="70" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="65"/>
       <c r="F70" s="65"/>
       <c r="H70" s="65"/>
@@ -12375,7 +12378,7 @@
       <c r="LR70" s="65"/>
       <c r="LS70" s="65"/>
     </row>
-    <row r="71" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="65"/>
       <c r="F71" s="65"/>
       <c r="H71" s="65"/>
@@ -12445,7 +12448,7 @@
       <c r="LR71" s="65"/>
       <c r="LS71" s="65"/>
     </row>
-    <row r="72" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="65"/>
       <c r="F72" s="65"/>
       <c r="H72" s="65"/>
@@ -12515,7 +12518,7 @@
       <c r="LR72" s="65"/>
       <c r="LS72" s="65"/>
     </row>
-    <row r="73" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="65"/>
       <c r="F73" s="65"/>
       <c r="H73" s="65"/>
@@ -12585,7 +12588,7 @@
       <c r="LR73" s="65"/>
       <c r="LS73" s="65"/>
     </row>
-    <row r="74" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="65"/>
       <c r="F74" s="65"/>
       <c r="H74" s="65"/>
@@ -12655,7 +12658,7 @@
       <c r="LR74" s="65"/>
       <c r="LS74" s="65"/>
     </row>
-    <row r="75" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="65"/>
       <c r="F75" s="65"/>
       <c r="H75" s="65"/>
@@ -12725,7 +12728,7 @@
       <c r="LR75" s="65"/>
       <c r="LS75" s="65"/>
     </row>
-    <row r="76" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="65"/>
       <c r="F76" s="65"/>
       <c r="H76" s="65"/>
@@ -12795,7 +12798,7 @@
       <c r="LR76" s="65"/>
       <c r="LS76" s="65"/>
     </row>
-    <row r="77" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="65"/>
       <c r="F77" s="65"/>
       <c r="H77" s="65"/>
@@ -12865,7 +12868,7 @@
       <c r="LR77" s="65"/>
       <c r="LS77" s="65"/>
     </row>
-    <row r="78" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="65"/>
       <c r="F78" s="65"/>
       <c r="H78" s="65"/>
@@ -12935,7 +12938,7 @@
       <c r="LR78" s="65"/>
       <c r="LS78" s="65"/>
     </row>
-    <row r="79" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="65"/>
       <c r="F79" s="65"/>
       <c r="H79" s="65"/>
@@ -13005,7 +13008,7 @@
       <c r="LR79" s="65"/>
       <c r="LS79" s="65"/>
     </row>
-    <row r="80" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="65"/>
       <c r="F80" s="65"/>
       <c r="H80" s="65"/>
@@ -13075,7 +13078,7 @@
       <c r="LR80" s="65"/>
       <c r="LS80" s="65"/>
     </row>
-    <row r="81" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="65"/>
       <c r="F81" s="65"/>
       <c r="H81" s="65"/>
@@ -13145,7 +13148,7 @@
       <c r="LR81" s="65"/>
       <c r="LS81" s="65"/>
     </row>
-    <row r="82" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="65"/>
       <c r="F82" s="65"/>
       <c r="H82" s="65"/>
@@ -13215,7 +13218,7 @@
       <c r="LR82" s="65"/>
       <c r="LS82" s="65"/>
     </row>
-    <row r="83" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="65"/>
       <c r="F83" s="65"/>
       <c r="H83" s="65"/>
@@ -13285,7 +13288,7 @@
       <c r="LR83" s="65"/>
       <c r="LS83" s="65"/>
     </row>
-    <row r="84" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="65"/>
       <c r="F84" s="65"/>
       <c r="H84" s="65"/>
@@ -13355,7 +13358,7 @@
       <c r="LR84" s="65"/>
       <c r="LS84" s="65"/>
     </row>
-    <row r="85" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="65"/>
       <c r="F85" s="65"/>
       <c r="H85" s="65"/>
@@ -13425,7 +13428,7 @@
       <c r="LR85" s="65"/>
       <c r="LS85" s="65"/>
     </row>
-    <row r="86" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="65"/>
       <c r="F86" s="65"/>
       <c r="H86" s="65"/>
@@ -13495,7 +13498,7 @@
       <c r="LR86" s="65"/>
       <c r="LS86" s="65"/>
     </row>
-    <row r="87" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="65"/>
       <c r="F87" s="65"/>
       <c r="H87" s="65"/>
@@ -13565,7 +13568,7 @@
       <c r="LR87" s="65"/>
       <c r="LS87" s="65"/>
     </row>
-    <row r="88" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="65"/>
       <c r="F88" s="65"/>
       <c r="H88" s="65"/>
@@ -13635,7 +13638,7 @@
       <c r="LR88" s="65"/>
       <c r="LS88" s="65"/>
     </row>
-    <row r="89" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="65"/>
       <c r="F89" s="65"/>
       <c r="H89" s="65"/>
@@ -13705,7 +13708,7 @@
       <c r="LR89" s="65"/>
       <c r="LS89" s="65"/>
     </row>
-    <row r="90" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="65"/>
       <c r="F90" s="65"/>
       <c r="H90" s="65"/>
@@ -13775,7 +13778,7 @@
       <c r="LR90" s="65"/>
       <c r="LS90" s="65"/>
     </row>
-    <row r="91" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="65"/>
       <c r="F91" s="65"/>
       <c r="H91" s="65"/>
@@ -13845,7 +13848,7 @@
       <c r="LR91" s="65"/>
       <c r="LS91" s="65"/>
     </row>
-    <row r="92" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="65"/>
       <c r="F92" s="65"/>
       <c r="H92" s="65"/>
@@ -13915,7 +13918,7 @@
       <c r="LR92" s="65"/>
       <c r="LS92" s="65"/>
     </row>
-    <row r="93" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="65"/>
       <c r="F93" s="65"/>
       <c r="H93" s="65"/>
@@ -13985,7 +13988,7 @@
       <c r="LR93" s="65"/>
       <c r="LS93" s="65"/>
     </row>
-    <row r="94" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="65"/>
       <c r="F94" s="65"/>
       <c r="H94" s="65"/>
@@ -14055,7 +14058,7 @@
       <c r="LR94" s="65"/>
       <c r="LS94" s="65"/>
     </row>
-    <row r="95" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="65"/>
       <c r="F95" s="65"/>
       <c r="H95" s="65"/>
@@ -14125,7 +14128,7 @@
       <c r="LR95" s="65"/>
       <c r="LS95" s="65"/>
     </row>
-    <row r="96" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="65"/>
       <c r="F96" s="65"/>
       <c r="H96" s="65"/>
@@ -14195,7 +14198,7 @@
       <c r="LR96" s="65"/>
       <c r="LS96" s="65"/>
     </row>
-    <row r="97" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="65"/>
       <c r="F97" s="65"/>
       <c r="H97" s="65"/>
@@ -14265,7 +14268,7 @@
       <c r="LR97" s="65"/>
       <c r="LS97" s="65"/>
     </row>
-    <row r="98" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="65"/>
       <c r="F98" s="65"/>
       <c r="H98" s="65"/>
@@ -14335,7 +14338,7 @@
       <c r="LR98" s="65"/>
       <c r="LS98" s="65"/>
     </row>
-    <row r="99" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="65"/>
       <c r="F99" s="65"/>
       <c r="H99" s="65"/>
@@ -14405,7 +14408,7 @@
       <c r="LR99" s="65"/>
       <c r="LS99" s="65"/>
     </row>
-    <row r="100" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:331" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="65"/>
       <c r="F100" s="65"/>
       <c r="H100" s="65"/>
@@ -14477,232 +14480,17 @@
     </row>
   </sheetData>
   <mergeCells count="261">
-    <mergeCell ref="LF2:LK2"/>
-    <mergeCell ref="LL2:LQ2"/>
-    <mergeCell ref="LR2:LR3"/>
-    <mergeCell ref="KO2:KR2"/>
-    <mergeCell ref="KS2:KT2"/>
-    <mergeCell ref="KU2:KV2"/>
-    <mergeCell ref="KW2:KX2"/>
-    <mergeCell ref="KY2:KZ2"/>
-    <mergeCell ref="LA2:LE2"/>
-    <mergeCell ref="KG2:KH2"/>
-    <mergeCell ref="KJ2:KJ3"/>
-    <mergeCell ref="KK2:KN2"/>
-    <mergeCell ref="JW2:JX2"/>
-    <mergeCell ref="JY2:JZ2"/>
-    <mergeCell ref="KA2:KB2"/>
-    <mergeCell ref="KE2:KF2"/>
-    <mergeCell ref="KC2:KC3"/>
-    <mergeCell ref="KD2:KD3"/>
-    <mergeCell ref="KI2:KI3"/>
-    <mergeCell ref="JL2:JM2"/>
-    <mergeCell ref="JN2:JO2"/>
-    <mergeCell ref="JP2:JQ2"/>
-    <mergeCell ref="JS2:JT2"/>
-    <mergeCell ref="JU2:JV2"/>
-    <mergeCell ref="IV2:IV3"/>
-    <mergeCell ref="IW2:IW3"/>
-    <mergeCell ref="IX2:JB2"/>
-    <mergeCell ref="JC2:JG2"/>
-    <mergeCell ref="JH2:JI2"/>
-    <mergeCell ref="JJ2:JK2"/>
-    <mergeCell ref="JR2:JR3"/>
-    <mergeCell ref="IP2:IP3"/>
-    <mergeCell ref="IQ2:IQ3"/>
-    <mergeCell ref="IR2:IR3"/>
-    <mergeCell ref="IS2:IS3"/>
-    <mergeCell ref="IT2:IT3"/>
-    <mergeCell ref="IU2:IU3"/>
-    <mergeCell ref="II2:II3"/>
-    <mergeCell ref="IJ2:IJ3"/>
-    <mergeCell ref="IL2:IL3"/>
-    <mergeCell ref="IM2:IM3"/>
-    <mergeCell ref="IN2:IN3"/>
-    <mergeCell ref="IO2:IO3"/>
-    <mergeCell ref="IK2:IK3"/>
-    <mergeCell ref="IC2:IC3"/>
-    <mergeCell ref="ID2:ID3"/>
-    <mergeCell ref="IE2:IE3"/>
-    <mergeCell ref="IF2:IF3"/>
-    <mergeCell ref="IG2:IG3"/>
-    <mergeCell ref="IH2:IH3"/>
-    <mergeCell ref="HV2:HV3"/>
-    <mergeCell ref="HW2:HW3"/>
-    <mergeCell ref="HX2:HX3"/>
-    <mergeCell ref="HY2:HY3"/>
-    <mergeCell ref="HZ2:HZ3"/>
-    <mergeCell ref="IB2:IB3"/>
-    <mergeCell ref="IA2:IA3"/>
-    <mergeCell ref="HP2:HP3"/>
-    <mergeCell ref="HQ2:HQ3"/>
-    <mergeCell ref="HR2:HR3"/>
-    <mergeCell ref="HS2:HS3"/>
-    <mergeCell ref="HT2:HT3"/>
-    <mergeCell ref="HU2:HU3"/>
-    <mergeCell ref="HI2:HI3"/>
-    <mergeCell ref="HJ2:HJ3"/>
-    <mergeCell ref="HL2:HL3"/>
-    <mergeCell ref="HM2:HM3"/>
-    <mergeCell ref="HN2:HN3"/>
-    <mergeCell ref="HO2:HO3"/>
-    <mergeCell ref="HK2:HK3"/>
-    <mergeCell ref="HC2:HC3"/>
-    <mergeCell ref="HD2:HD3"/>
-    <mergeCell ref="HE2:HE3"/>
-    <mergeCell ref="HF2:HF3"/>
-    <mergeCell ref="HG2:HG3"/>
-    <mergeCell ref="HH2:HH3"/>
-    <mergeCell ref="GV2:GV3"/>
-    <mergeCell ref="GW2:GW3"/>
-    <mergeCell ref="GX2:GX3"/>
-    <mergeCell ref="GY2:GY3"/>
-    <mergeCell ref="GZ2:GZ3"/>
-    <mergeCell ref="HB2:HB3"/>
-    <mergeCell ref="HA2:HA3"/>
-    <mergeCell ref="GP2:GP3"/>
-    <mergeCell ref="GQ2:GQ3"/>
-    <mergeCell ref="GR2:GR3"/>
-    <mergeCell ref="GS2:GS3"/>
-    <mergeCell ref="GT2:GT3"/>
-    <mergeCell ref="GU2:GU3"/>
-    <mergeCell ref="GI2:GI3"/>
-    <mergeCell ref="GJ2:GJ3"/>
-    <mergeCell ref="GL2:GL3"/>
-    <mergeCell ref="GM2:GM3"/>
-    <mergeCell ref="GN2:GN3"/>
-    <mergeCell ref="GO2:GO3"/>
-    <mergeCell ref="GK2:GK3"/>
-    <mergeCell ref="GC2:GC3"/>
-    <mergeCell ref="GD2:GD3"/>
-    <mergeCell ref="GE2:GE3"/>
-    <mergeCell ref="GF2:GF3"/>
-    <mergeCell ref="GG2:GG3"/>
-    <mergeCell ref="GH2:GH3"/>
-    <mergeCell ref="FV2:FV3"/>
-    <mergeCell ref="FW2:FW3"/>
-    <mergeCell ref="FX2:FX3"/>
-    <mergeCell ref="FY2:FY3"/>
-    <mergeCell ref="FZ2:FZ3"/>
-    <mergeCell ref="GB2:GB3"/>
-    <mergeCell ref="GA2:GA3"/>
-    <mergeCell ref="FP2:FP3"/>
-    <mergeCell ref="FQ2:FQ3"/>
-    <mergeCell ref="FR2:FR3"/>
-    <mergeCell ref="FS2:FS3"/>
-    <mergeCell ref="FT2:FT3"/>
-    <mergeCell ref="FU2:FU3"/>
-    <mergeCell ref="FI2:FI3"/>
-    <mergeCell ref="FJ2:FJ3"/>
-    <mergeCell ref="FL2:FL3"/>
-    <mergeCell ref="FM2:FM3"/>
-    <mergeCell ref="FN2:FN3"/>
-    <mergeCell ref="FO2:FO3"/>
-    <mergeCell ref="FK2:FK3"/>
-    <mergeCell ref="FC2:FC3"/>
-    <mergeCell ref="FD2:FD3"/>
-    <mergeCell ref="FE2:FE3"/>
-    <mergeCell ref="FF2:FF3"/>
-    <mergeCell ref="FG2:FG3"/>
-    <mergeCell ref="FH2:FH3"/>
-    <mergeCell ref="EV2:EV3"/>
-    <mergeCell ref="EW2:EW3"/>
-    <mergeCell ref="EX2:EX3"/>
-    <mergeCell ref="EY2:EY3"/>
-    <mergeCell ref="EZ2:EZ3"/>
-    <mergeCell ref="FB2:FB3"/>
-    <mergeCell ref="FA2:FA3"/>
-    <mergeCell ref="EP2:EP3"/>
-    <mergeCell ref="EQ2:EQ3"/>
-    <mergeCell ref="ER2:ER3"/>
-    <mergeCell ref="ES2:ES3"/>
-    <mergeCell ref="ET2:ET3"/>
-    <mergeCell ref="EU2:EU3"/>
-    <mergeCell ref="EI2:EI3"/>
-    <mergeCell ref="EJ2:EJ3"/>
-    <mergeCell ref="EL2:EL3"/>
-    <mergeCell ref="EM2:EM3"/>
-    <mergeCell ref="EN2:EN3"/>
-    <mergeCell ref="EO2:EO3"/>
-    <mergeCell ref="EK2:EK3"/>
-    <mergeCell ref="EC2:EC3"/>
-    <mergeCell ref="ED2:ED3"/>
-    <mergeCell ref="EE2:EE3"/>
-    <mergeCell ref="EF2:EF3"/>
-    <mergeCell ref="EG2:EG3"/>
-    <mergeCell ref="EH2:EH3"/>
-    <mergeCell ref="DV2:DV3"/>
-    <mergeCell ref="DW2:DW3"/>
-    <mergeCell ref="DX2:DX3"/>
-    <mergeCell ref="DY2:DY3"/>
-    <mergeCell ref="DZ2:DZ3"/>
-    <mergeCell ref="EB2:EB3"/>
-    <mergeCell ref="EA2:EA3"/>
-    <mergeCell ref="DJ2:DJ3"/>
-    <mergeCell ref="DK2:DN2"/>
-    <mergeCell ref="DO2:DR2"/>
-    <mergeCell ref="DS2:DS3"/>
-    <mergeCell ref="DT2:DT3"/>
-    <mergeCell ref="DU2:DU3"/>
-    <mergeCell ref="DD2:DD3"/>
-    <mergeCell ref="DE2:DE3"/>
-    <mergeCell ref="DF2:DF3"/>
-    <mergeCell ref="DG2:DG3"/>
-    <mergeCell ref="DH2:DH3"/>
-    <mergeCell ref="DI2:DI3"/>
-    <mergeCell ref="CR2:CR3"/>
-    <mergeCell ref="CS2:CS3"/>
-    <mergeCell ref="CT2:CT3"/>
-    <mergeCell ref="CU2:CU3"/>
-    <mergeCell ref="CV2:CY2"/>
-    <mergeCell ref="CZ2:DC2"/>
-    <mergeCell ref="CF2:CF3"/>
-    <mergeCell ref="CG2:CJ2"/>
-    <mergeCell ref="CK2:CN2"/>
-    <mergeCell ref="CO2:CO3"/>
-    <mergeCell ref="CP2:CP3"/>
-    <mergeCell ref="CQ2:CQ3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CA3"/>
-    <mergeCell ref="CB2:CB3"/>
-    <mergeCell ref="CC2:CC3"/>
-    <mergeCell ref="CD2:CD3"/>
-    <mergeCell ref="CE2:CE3"/>
-    <mergeCell ref="BN2:BN3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BP2:BP3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BR2:BU2"/>
-    <mergeCell ref="BV2:BY2"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="BM2:BM3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:AK1"/>
+    <mergeCell ref="AL1:AZ1"/>
+    <mergeCell ref="BA1:BO1"/>
+    <mergeCell ref="JS1:KC1"/>
+    <mergeCell ref="KD1:KH1"/>
+    <mergeCell ref="KI1:KJ1"/>
+    <mergeCell ref="KK1:LE1"/>
+    <mergeCell ref="LF1:LQ1"/>
+    <mergeCell ref="JC1:JG1"/>
+    <mergeCell ref="JH1:JR1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -14727,17 +14515,232 @@
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:AK1"/>
-    <mergeCell ref="AL1:AZ1"/>
-    <mergeCell ref="BA1:BO1"/>
-    <mergeCell ref="JS1:KC1"/>
-    <mergeCell ref="KD1:KH1"/>
-    <mergeCell ref="KI1:KJ1"/>
-    <mergeCell ref="KK1:LE1"/>
-    <mergeCell ref="LF1:LQ1"/>
-    <mergeCell ref="JC1:JG1"/>
-    <mergeCell ref="JH1:JR1"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CA3"/>
+    <mergeCell ref="CB2:CB3"/>
+    <mergeCell ref="CC2:CC3"/>
+    <mergeCell ref="CD2:CD3"/>
+    <mergeCell ref="CE2:CE3"/>
+    <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BP2:BP3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BU2"/>
+    <mergeCell ref="BV2:BY2"/>
+    <mergeCell ref="CR2:CR3"/>
+    <mergeCell ref="CS2:CS3"/>
+    <mergeCell ref="CT2:CT3"/>
+    <mergeCell ref="CU2:CU3"/>
+    <mergeCell ref="CV2:CY2"/>
+    <mergeCell ref="CZ2:DC2"/>
+    <mergeCell ref="CF2:CF3"/>
+    <mergeCell ref="CG2:CJ2"/>
+    <mergeCell ref="CK2:CN2"/>
+    <mergeCell ref="CO2:CO3"/>
+    <mergeCell ref="CP2:CP3"/>
+    <mergeCell ref="CQ2:CQ3"/>
+    <mergeCell ref="DJ2:DJ3"/>
+    <mergeCell ref="DK2:DN2"/>
+    <mergeCell ref="DO2:DR2"/>
+    <mergeCell ref="DS2:DS3"/>
+    <mergeCell ref="DT2:DT3"/>
+    <mergeCell ref="DU2:DU3"/>
+    <mergeCell ref="DD2:DD3"/>
+    <mergeCell ref="DE2:DE3"/>
+    <mergeCell ref="DF2:DF3"/>
+    <mergeCell ref="DG2:DG3"/>
+    <mergeCell ref="DH2:DH3"/>
+    <mergeCell ref="DI2:DI3"/>
+    <mergeCell ref="EC2:EC3"/>
+    <mergeCell ref="ED2:ED3"/>
+    <mergeCell ref="EE2:EE3"/>
+    <mergeCell ref="EF2:EF3"/>
+    <mergeCell ref="EG2:EG3"/>
+    <mergeCell ref="EH2:EH3"/>
+    <mergeCell ref="DV2:DV3"/>
+    <mergeCell ref="DW2:DW3"/>
+    <mergeCell ref="DX2:DX3"/>
+    <mergeCell ref="DY2:DY3"/>
+    <mergeCell ref="DZ2:DZ3"/>
+    <mergeCell ref="EB2:EB3"/>
+    <mergeCell ref="EA2:EA3"/>
+    <mergeCell ref="EP2:EP3"/>
+    <mergeCell ref="EQ2:EQ3"/>
+    <mergeCell ref="ER2:ER3"/>
+    <mergeCell ref="ES2:ES3"/>
+    <mergeCell ref="ET2:ET3"/>
+    <mergeCell ref="EU2:EU3"/>
+    <mergeCell ref="EI2:EI3"/>
+    <mergeCell ref="EJ2:EJ3"/>
+    <mergeCell ref="EL2:EL3"/>
+    <mergeCell ref="EM2:EM3"/>
+    <mergeCell ref="EN2:EN3"/>
+    <mergeCell ref="EO2:EO3"/>
+    <mergeCell ref="EK2:EK3"/>
+    <mergeCell ref="FC2:FC3"/>
+    <mergeCell ref="FD2:FD3"/>
+    <mergeCell ref="FE2:FE3"/>
+    <mergeCell ref="FF2:FF3"/>
+    <mergeCell ref="FG2:FG3"/>
+    <mergeCell ref="FH2:FH3"/>
+    <mergeCell ref="EV2:EV3"/>
+    <mergeCell ref="EW2:EW3"/>
+    <mergeCell ref="EX2:EX3"/>
+    <mergeCell ref="EY2:EY3"/>
+    <mergeCell ref="EZ2:EZ3"/>
+    <mergeCell ref="FB2:FB3"/>
+    <mergeCell ref="FA2:FA3"/>
+    <mergeCell ref="FP2:FP3"/>
+    <mergeCell ref="FQ2:FQ3"/>
+    <mergeCell ref="FR2:FR3"/>
+    <mergeCell ref="FS2:FS3"/>
+    <mergeCell ref="FT2:FT3"/>
+    <mergeCell ref="FU2:FU3"/>
+    <mergeCell ref="FI2:FI3"/>
+    <mergeCell ref="FJ2:FJ3"/>
+    <mergeCell ref="FL2:FL3"/>
+    <mergeCell ref="FM2:FM3"/>
+    <mergeCell ref="FN2:FN3"/>
+    <mergeCell ref="FO2:FO3"/>
+    <mergeCell ref="FK2:FK3"/>
+    <mergeCell ref="GC2:GC3"/>
+    <mergeCell ref="GD2:GD3"/>
+    <mergeCell ref="GE2:GE3"/>
+    <mergeCell ref="GF2:GF3"/>
+    <mergeCell ref="GG2:GG3"/>
+    <mergeCell ref="GH2:GH3"/>
+    <mergeCell ref="FV2:FV3"/>
+    <mergeCell ref="FW2:FW3"/>
+    <mergeCell ref="FX2:FX3"/>
+    <mergeCell ref="FY2:FY3"/>
+    <mergeCell ref="FZ2:FZ3"/>
+    <mergeCell ref="GB2:GB3"/>
+    <mergeCell ref="GA2:GA3"/>
+    <mergeCell ref="GP2:GP3"/>
+    <mergeCell ref="GQ2:GQ3"/>
+    <mergeCell ref="GR2:GR3"/>
+    <mergeCell ref="GS2:GS3"/>
+    <mergeCell ref="GT2:GT3"/>
+    <mergeCell ref="GU2:GU3"/>
+    <mergeCell ref="GI2:GI3"/>
+    <mergeCell ref="GJ2:GJ3"/>
+    <mergeCell ref="GL2:GL3"/>
+    <mergeCell ref="GM2:GM3"/>
+    <mergeCell ref="GN2:GN3"/>
+    <mergeCell ref="GO2:GO3"/>
+    <mergeCell ref="GK2:GK3"/>
+    <mergeCell ref="HC2:HC3"/>
+    <mergeCell ref="HD2:HD3"/>
+    <mergeCell ref="HE2:HE3"/>
+    <mergeCell ref="HF2:HF3"/>
+    <mergeCell ref="HG2:HG3"/>
+    <mergeCell ref="HH2:HH3"/>
+    <mergeCell ref="GV2:GV3"/>
+    <mergeCell ref="GW2:GW3"/>
+    <mergeCell ref="GX2:GX3"/>
+    <mergeCell ref="GY2:GY3"/>
+    <mergeCell ref="GZ2:GZ3"/>
+    <mergeCell ref="HB2:HB3"/>
+    <mergeCell ref="HA2:HA3"/>
+    <mergeCell ref="HP2:HP3"/>
+    <mergeCell ref="HQ2:HQ3"/>
+    <mergeCell ref="HR2:HR3"/>
+    <mergeCell ref="HS2:HS3"/>
+    <mergeCell ref="HT2:HT3"/>
+    <mergeCell ref="HU2:HU3"/>
+    <mergeCell ref="HI2:HI3"/>
+    <mergeCell ref="HJ2:HJ3"/>
+    <mergeCell ref="HL2:HL3"/>
+    <mergeCell ref="HM2:HM3"/>
+    <mergeCell ref="HN2:HN3"/>
+    <mergeCell ref="HO2:HO3"/>
+    <mergeCell ref="HK2:HK3"/>
+    <mergeCell ref="IC2:IC3"/>
+    <mergeCell ref="ID2:ID3"/>
+    <mergeCell ref="IE2:IE3"/>
+    <mergeCell ref="IF2:IF3"/>
+    <mergeCell ref="IG2:IG3"/>
+    <mergeCell ref="IH2:IH3"/>
+    <mergeCell ref="HV2:HV3"/>
+    <mergeCell ref="HW2:HW3"/>
+    <mergeCell ref="HX2:HX3"/>
+    <mergeCell ref="HY2:HY3"/>
+    <mergeCell ref="HZ2:HZ3"/>
+    <mergeCell ref="IB2:IB3"/>
+    <mergeCell ref="IA2:IA3"/>
+    <mergeCell ref="IP2:IP3"/>
+    <mergeCell ref="IQ2:IQ3"/>
+    <mergeCell ref="IR2:IR3"/>
+    <mergeCell ref="IS2:IS3"/>
+    <mergeCell ref="IT2:IT3"/>
+    <mergeCell ref="IU2:IU3"/>
+    <mergeCell ref="II2:II3"/>
+    <mergeCell ref="IJ2:IJ3"/>
+    <mergeCell ref="IL2:IL3"/>
+    <mergeCell ref="IM2:IM3"/>
+    <mergeCell ref="IN2:IN3"/>
+    <mergeCell ref="IO2:IO3"/>
+    <mergeCell ref="IK2:IK3"/>
+    <mergeCell ref="JL2:JM2"/>
+    <mergeCell ref="JN2:JO2"/>
+    <mergeCell ref="JP2:JQ2"/>
+    <mergeCell ref="JS2:JT2"/>
+    <mergeCell ref="JU2:JV2"/>
+    <mergeCell ref="IV2:IV3"/>
+    <mergeCell ref="IW2:IW3"/>
+    <mergeCell ref="IX2:JB2"/>
+    <mergeCell ref="JC2:JG2"/>
+    <mergeCell ref="JH2:JI2"/>
+    <mergeCell ref="JJ2:JK2"/>
+    <mergeCell ref="JR2:JR3"/>
+    <mergeCell ref="KG2:KH2"/>
+    <mergeCell ref="KJ2:KJ3"/>
+    <mergeCell ref="KK2:KN2"/>
+    <mergeCell ref="JW2:JX2"/>
+    <mergeCell ref="JY2:JZ2"/>
+    <mergeCell ref="KA2:KB2"/>
+    <mergeCell ref="KE2:KF2"/>
+    <mergeCell ref="KC2:KC3"/>
+    <mergeCell ref="KD2:KD3"/>
+    <mergeCell ref="KI2:KI3"/>
+    <mergeCell ref="LF2:LK2"/>
+    <mergeCell ref="LL2:LQ2"/>
+    <mergeCell ref="LR2:LR3"/>
+    <mergeCell ref="KO2:KR2"/>
+    <mergeCell ref="KS2:KT2"/>
+    <mergeCell ref="KU2:KV2"/>
+    <mergeCell ref="KW2:KX2"/>
+    <mergeCell ref="KY2:KZ2"/>
+    <mergeCell ref="LA2:LE2"/>
   </mergeCells>
   <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EI4:EI100 EN4:EN100 EL4:EL100 EQ4:ER100 FI4:FI100 FN4:FN100 FL4:FL100 FQ4:FR100 II4:II100 IN4:IN100 IL4:IL100 IQ4:IR100 HI4:HI100 HN4:HN100 HL4:HL100 HQ4:HR100 GI4:GI100 GN4:GN100 GL4:GL100 GQ4:GR100" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -14811,43 +14814,43 @@
   </sheetPr>
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" style="30" customWidth="1"/>
-    <col min="2" max="3" width="13.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="31" customWidth="1"/>
-    <col min="5" max="7" width="13.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="31" customWidth="1"/>
-    <col min="9" max="17" width="13.109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="28.85546875" style="30" customWidth="1"/>
+    <col min="2" max="3" width="13.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="31" customWidth="1"/>
+    <col min="5" max="7" width="13.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="31" customWidth="1"/>
+    <col min="9" max="17" width="13.140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
+    <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="208" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="203"/>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="str">
         <f>Übersicht!$B$3</f>
         <v>Plytje Hallenbad Leer</v>
@@ -14869,82 +14872,82 @@
       <c r="P2" s="101"/>
       <c r="Q2" s="101"/>
     </row>
-    <row r="3" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="214" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="204" t="s">
+      <c r="C3" s="211"/>
+      <c r="D3" s="210" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="205"/>
-      <c r="F3" s="206" t="s">
+      <c r="E3" s="211"/>
+      <c r="F3" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="207"/>
-      <c r="H3" s="208" t="s">
+      <c r="G3" s="213"/>
+      <c r="H3" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="205"/>
-      <c r="J3" s="206" t="s">
+      <c r="I3" s="211"/>
+      <c r="J3" s="212" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="207"/>
-      <c r="L3" s="206" t="s">
+      <c r="K3" s="213"/>
+      <c r="L3" s="212" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="207"/>
-      <c r="N3" s="206" t="s">
+      <c r="M3" s="213"/>
+      <c r="N3" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="207"/>
-      <c r="P3" s="208" t="s">
+      <c r="O3" s="213"/>
+      <c r="P3" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="205"/>
-    </row>
-    <row r="4" spans="1:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q3" s="211"/>
+    </row>
+    <row r="4" spans="1:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="212"/>
-      <c r="D4" s="211" t="s">
+      <c r="C4" s="205"/>
+      <c r="D4" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="211" t="s">
+      <c r="E4" s="205"/>
+      <c r="F4" s="204" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="212"/>
-      <c r="H4" s="211" t="s">
+      <c r="G4" s="205"/>
+      <c r="H4" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="212"/>
-      <c r="J4" s="209" t="s">
+      <c r="I4" s="205"/>
+      <c r="J4" s="202" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="210"/>
-      <c r="L4" s="209" t="s">
+      <c r="K4" s="203"/>
+      <c r="L4" s="202" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="210"/>
-      <c r="N4" s="209" t="s">
+      <c r="M4" s="203"/>
+      <c r="N4" s="202" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="210"/>
-      <c r="P4" s="211" t="s">
+      <c r="O4" s="203"/>
+      <c r="P4" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="212"/>
-    </row>
-    <row r="5" spans="1:17" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="213" t="s">
+      <c r="Q4" s="205"/>
+    </row>
+    <row r="5" spans="1:17" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="206" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -15004,8 +15007,8 @@
         <v>11.55</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="213"/>
+    <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="206"/>
       <c r="B6" s="13" t="s">
         <v>62</v>
       </c>
@@ -15063,8 +15066,8 @@
         <v>16.309999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="213"/>
+    <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="206"/>
       <c r="B7" s="13" t="s">
         <v>63</v>
       </c>
@@ -15122,8 +15125,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="213"/>
+    <row r="8" spans="1:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="206"/>
       <c r="B8" s="15" t="s">
         <v>64</v>
       </c>
@@ -15181,8 +15184,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="213" t="s">
+    <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="206" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="90" t="s">
@@ -15242,8 +15245,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="213"/>
+    <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="206"/>
       <c r="B10" s="13" t="s">
         <v>62</v>
       </c>
@@ -15301,8 +15304,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="213"/>
+    <row r="11" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="206"/>
       <c r="B11" s="13" t="s">
         <v>63</v>
       </c>
@@ -15360,8 +15363,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="213"/>
+    <row r="12" spans="1:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="206"/>
       <c r="B12" s="15" t="s">
         <v>64</v>
       </c>
@@ -15419,7 +15422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="69.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>66</v>
       </c>
@@ -15464,7 +15467,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="69.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>67</v>
       </c>
@@ -15509,7 +15512,7 @@
         <v>1119.32</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="69.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
         <v>68</v>
       </c>
@@ -15554,7 +15557,7 @@
         <v>34.229999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="69.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
         <v>69</v>
       </c>
@@ -15599,7 +15602,7 @@
         <v>1119.32</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="69.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>70</v>
       </c>
@@ -15645,7 +15648,7 @@
       </c>
       <c r="R17" s="23"/>
     </row>
-    <row r="18" spans="1:18" ht="69.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>71</v>
       </c>
@@ -15690,7 +15693,7 @@
         <v>1132.02</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="69.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="99" t="s">
         <v>72</v>
       </c>
@@ -15736,7 +15739,7 @@
       </c>
       <c r="R19" s="23"/>
     </row>
-    <row r="20" spans="1:18" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
@@ -15756,7 +15759,7 @@
       <c r="Q20" s="25"/>
       <c r="R20" s="23"/>
     </row>
-    <row r="21" spans="1:18" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -15776,7 +15779,7 @@
       <c r="Q21" s="25"/>
       <c r="R21" s="23"/>
     </row>
-    <row r="22" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -15796,7 +15799,7 @@
       <c r="Q22" s="25"/>
       <c r="R22" s="23"/>
     </row>
-    <row r="23" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -15815,7 +15818,7 @@
       <c r="P23" s="29"/>
       <c r="Q23" s="25"/>
     </row>
-    <row r="24" spans="1:18" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -15834,17 +15837,26 @@
       <c r="P24" s="29"/>
       <c r="Q24" s="25"/>
     </row>
-    <row r="25" spans="1:18" ht="43.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:18" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R26" s="214"/>
-    </row>
-    <row r="27" spans="1:18" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R27" s="214"/>
-    </row>
-    <row r="28" spans="1:18" ht="44.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:18" ht="46.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="207"/>
+    </row>
+    <row r="27" spans="1:18" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="207"/>
+    </row>
+    <row r="28" spans="1:18" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:18" ht="46.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="A5:A8"/>
@@ -15856,15 +15868,6 @@
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
@@ -15905,52 +15908,52 @@
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4" max="9" width="26.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="9" width="26.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
+    <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="208" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>Übersicht!$B$3</f>
         <v>Plytje Hallenbad Leer</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="215" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="213"/>
+      <c r="B3" s="206"/>
       <c r="C3" s="14" t="s">
         <v>74</v>
       </c>
@@ -15973,7 +15976,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>81</v>
       </c>
@@ -15991,7 +15994,7 @@
         <v>413</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>415</v>
@@ -16000,7 +16003,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>146</v>
       </c>
@@ -16009,7 +16012,7 @@
       </c>
       <c r="C5" s="37">
         <f ca="1">SUM(D5:I5)</f>
-        <v>511.8</v>
+        <v>408.8</v>
       </c>
       <c r="D5" s="148" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(D$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+1))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(D$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+1)))</f>
@@ -16023,9 +16026,9 @@
         <f t="array" aca="1" ref="F5" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+1))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+1)))</f>
         <v>33.5</v>
       </c>
-      <c r="G5" s="148" cm="1">
+      <c r="G5" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+1))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+1)))</f>
-        <v>103</v>
+        <v/>
       </c>
       <c r="H5" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+1))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+1)))</f>
@@ -16036,7 +16039,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>402</v>
       </c>
@@ -16056,9 +16059,9 @@
         <f t="array" aca="1" ref="F6" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+2))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+2)))</f>
         <v>0.35</v>
       </c>
-      <c r="G6" s="148" cm="1">
+      <c r="G6" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+2))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+2)))</f>
-        <v>1.8</v>
+        <v/>
       </c>
       <c r="H6" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+2))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+2)))</f>
@@ -16070,7 +16073,7 @@
       </c>
       <c r="J6" s="40"/>
     </row>
-    <row r="7" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>85</v>
       </c>
@@ -16079,7 +16082,7 @@
       </c>
       <c r="C7" s="37">
         <f ca="1">SUM(D7:I7)</f>
-        <v>1361.1100000000001</v>
+        <v>1175.71</v>
       </c>
       <c r="D7" s="148" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(D$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+3))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(D$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+3)))</f>
@@ -16093,9 +16096,9 @@
         <f t="array" aca="1" ref="F7" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+3))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+3)))</f>
         <v>11.73</v>
       </c>
-      <c r="G7" s="148" cm="1">
+      <c r="G7" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+3))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+3)))</f>
-        <v>185.4</v>
+        <v/>
       </c>
       <c r="H7" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+3))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+3)))</f>
@@ -16107,7 +16110,7 @@
       </c>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>87</v>
       </c>
@@ -16127,9 +16130,9 @@
         <f t="array" aca="1" ref="F8" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+4))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+4)))</f>
         <v>24</v>
       </c>
-      <c r="G8" s="148" cm="1">
+      <c r="G8" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+4))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+4)))</f>
-        <v>41</v>
+        <v/>
       </c>
       <c r="H8" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+4))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+4)))</f>
@@ -16141,7 +16144,7 @@
       </c>
       <c r="J8" s="43"/>
     </row>
-    <row r="9" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>88</v>
       </c>
@@ -16150,7 +16153,7 @@
       </c>
       <c r="C9" s="37">
         <f ca="1">SUM(D9:I9)</f>
-        <v>511.8</v>
+        <v>408.8</v>
       </c>
       <c r="D9" s="148" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(D$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+6))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(D$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+6)))</f>
@@ -16164,9 +16167,9 @@
         <f t="array" aca="1" ref="F9" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+6))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+6)))</f>
         <v>33.5</v>
       </c>
-      <c r="G9" s="148" cm="1">
+      <c r="G9" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+6))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+6)))</f>
-        <v>103</v>
+        <v/>
       </c>
       <c r="H9" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+6))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+6)))</f>
@@ -16178,7 +16181,7 @@
       </c>
       <c r="J9" s="44"/>
     </row>
-    <row r="10" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>89</v>
       </c>
@@ -16201,9 +16204,9 @@
         <f t="array" aca="1" ref="F10" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+6))),"",F$5-F$9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="148" cm="1">
+      <c r="G10" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+6))),"",G$5-G$9)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H10" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+6))),"",H$5-H$9)</f>
@@ -16214,7 +16217,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>90</v>
       </c>
@@ -16237,9 +16240,9 @@
         <f t="array" aca="1" ref="F11" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+7))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+7)))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="148" cm="1">
+      <c r="G11" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+7))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+7)))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H11" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+7))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+7)))</f>
@@ -16250,7 +16253,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>91</v>
       </c>
@@ -16259,7 +16262,7 @@
       </c>
       <c r="C12" s="37">
         <f ca="1">SUM(D12:I12)</f>
-        <v>330.2</v>
+        <v>256.39999999999998</v>
       </c>
       <c r="D12" s="148" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(D$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+8))),"",D$8*D$6-D$11)</f>
@@ -16273,9 +16276,9 @@
         <f t="array" aca="1" ref="F12" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+8))),"",F$8*F$6-F$11)</f>
         <v>8.3999999999999986</v>
       </c>
-      <c r="G12" s="148" cm="1">
+      <c r="G12" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+8))),"",G$8*G$6-G$11)</f>
-        <v>73.8</v>
+        <v/>
       </c>
       <c r="H12" s="148" t="str" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+8))),"",H$8*H$6-H$11)</f>
@@ -16287,7 +16290,7 @@
       </c>
       <c r="J12" s="45"/>
     </row>
-    <row r="13" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>92</v>
       </c>
@@ -16307,9 +16310,9 @@
         <f t="array" aca="1" ref="F13" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+5))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+5)))</f>
         <v>305.14999999999998</v>
       </c>
-      <c r="G13" s="150" cm="1">
+      <c r="G13" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+5))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+5)))</f>
-        <v>305.14999999999998</v>
+        <v/>
       </c>
       <c r="H13" s="149" t="str" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+5))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+5)))</f>
@@ -16321,7 +16324,7 @@
       </c>
       <c r="J13" s="43"/>
     </row>
-    <row r="14" spans="1:14" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>94</v>
       </c>
@@ -16341,9 +16344,9 @@
         <f t="array" aca="1" ref="F14" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+8))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+8)))</f>
         <v>4</v>
       </c>
-      <c r="G14" s="48" cm="1">
+      <c r="G14" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+8))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+8)))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="H14" s="47" t="str" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+8))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+8)))</f>
@@ -16354,7 +16357,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>96</v>
       </c>
@@ -16376,7 +16379,7 @@
       </c>
       <c r="G15" s="39" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+9))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+9)))</f>
-        <v>Open suction filter</v>
+        <v/>
       </c>
       <c r="H15" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+9))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+9)))</f>
@@ -16387,7 +16390,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>98</v>
       </c>
@@ -16409,7 +16412,7 @@
       </c>
       <c r="G16" s="39" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+10))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+10)))</f>
-        <v>without ozone</v>
+        <v/>
       </c>
       <c r="H16" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+10))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+10)))</f>
@@ -16420,7 +16423,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>99</v>
       </c>
@@ -16442,7 +16445,7 @@
       </c>
       <c r="G17" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))))),"","Freshwater")</f>
-        <v>Freshwater</v>
+        <v/>
       </c>
       <c r="H17" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))))),"","Freshwater")</f>
@@ -16453,7 +16456,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>100</v>
       </c>
@@ -16475,7 +16478,7 @@
       </c>
       <c r="G18" s="39" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+11))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+11)))</f>
-        <v>false</v>
+        <v/>
       </c>
       <c r="H18" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+11))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+11)))</f>
@@ -16486,7 +16489,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>102</v>
       </c>
@@ -16504,9 +16507,9 @@
         <f t="array" aca="1" ref="F19" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+12))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+12)))</f>
         <v>0</v>
       </c>
-      <c r="G19" s="42" cm="1">
+      <c r="G19" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+12))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+12)))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H19" s="41" t="str" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+12))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+12)))</f>
@@ -16518,7 +16521,7 @@
       </c>
       <c r="K19" s="23"/>
     </row>
-    <row r="20" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="154" t="s">
         <v>409</v>
       </c>
@@ -16538,9 +16541,9 @@
         <f t="array" aca="1" ref="F20" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+13))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+13)))</f>
         <v>350</v>
       </c>
-      <c r="G20" s="42" cm="1">
+      <c r="G20" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+13))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+13)))</f>
-        <v>350</v>
+        <v/>
       </c>
       <c r="H20" s="41" t="str" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+13))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+13)))</f>
@@ -16552,7 +16555,7 @@
       </c>
       <c r="K20" s="23"/>
     </row>
-    <row r="21" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>103</v>
       </c>
@@ -16574,7 +16577,7 @@
       </c>
       <c r="G21" s="39" t="str" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+14))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+14)))</f>
-        <v>true</v>
+        <v/>
       </c>
       <c r="H21" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+14))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+14)))</f>
@@ -16586,7 +16589,7 @@
       </c>
       <c r="K21" s="23"/>
     </row>
-    <row r="22" spans="1:11" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>105</v>
       </c>
@@ -16606,9 +16609,9 @@
         <f t="array" aca="1" ref="F22" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+15))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+15)))</f>
         <v>0.8</v>
       </c>
-      <c r="G22" s="42" cm="1">
+      <c r="G22" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+15))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+15)))</f>
-        <v>0.8</v>
+        <v/>
       </c>
       <c r="H22" s="41" t="str" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+15))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+15)))</f>
@@ -16620,7 +16623,7 @@
       </c>
       <c r="K22" s="23"/>
     </row>
-    <row r="23" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>107</v>
       </c>
@@ -16642,7 +16645,7 @@
       </c>
       <c r="G23" s="39" t="str" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+16))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+16)))</f>
-        <v>true</v>
+        <v/>
       </c>
       <c r="H23" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="H23" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+16))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+16)))</f>
@@ -16654,7 +16657,7 @@
       </c>
       <c r="K23" s="23"/>
     </row>
-    <row r="24" spans="1:11" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>108</v>
       </c>
@@ -16674,9 +16677,9 @@
         <f t="array" aca="1" ref="F24" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+17))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+17)))</f>
         <v>21</v>
       </c>
-      <c r="G24" s="42" cm="1">
+      <c r="G24" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+17))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+17)))</f>
-        <v>50</v>
+        <v/>
       </c>
       <c r="H24" s="41" t="str" cm="1">
         <f t="array" aca="1" ref="H24" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+17))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+17)))</f>
@@ -16688,7 +16691,7 @@
       </c>
       <c r="K24" s="23"/>
     </row>
-    <row r="25" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>109</v>
       </c>
@@ -16708,9 +16711,9 @@
         <f t="array" aca="1" ref="F25" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+18))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+18)))</f>
         <v>33</v>
       </c>
-      <c r="G25" s="48" cm="1">
+      <c r="G25" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+18))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+18)))</f>
-        <v>33</v>
+        <v/>
       </c>
       <c r="H25" s="47" t="str" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+18))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+18)))</f>
@@ -16721,7 +16724,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>111</v>
       </c>
@@ -16743,7 +16746,7 @@
       </c>
       <c r="G26" s="39" t="str" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+19))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+19)))</f>
-        <v>false</v>
+        <v/>
       </c>
       <c r="H26" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="H26" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+19))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+19)))</f>
@@ -16754,7 +16757,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>112</v>
       </c>
@@ -16776,7 +16779,7 @@
       </c>
       <c r="G27" s="39" t="str" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+20))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+20)))</f>
-        <v>false</v>
+        <v/>
       </c>
       <c r="H27" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+20))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+20)))</f>
@@ -16787,7 +16790,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>113</v>
       </c>
@@ -16807,9 +16810,9 @@
         <f t="array" aca="1" ref="F28" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+21))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+21)))</f>
         <v>0</v>
       </c>
-      <c r="G28" s="39" cm="1">
+      <c r="G28" s="39" t="str" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+21))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+21)))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H28" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+21))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+21)))</f>
@@ -16819,9 +16822,9 @@
         <f t="array" aca="1" ref="I28" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(I$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+21))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(I$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+21)))</f>
         <v/>
       </c>
-      <c r="K28" s="214"/>
-    </row>
-    <row r="29" spans="1:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K28" s="207"/>
+    </row>
+    <row r="29" spans="1:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>114</v>
       </c>
@@ -16841,9 +16844,9 @@
         <f t="array" aca="1" ref="F29" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+22))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+22)))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="39" cm="1">
+      <c r="G29" s="39" t="str" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+22))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+22)))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H29" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+22))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+22)))</f>
@@ -16853,9 +16856,9 @@
         <f t="array" aca="1" ref="I29" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(I$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+22))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(I$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+22)))</f>
         <v/>
       </c>
-      <c r="K29" s="214"/>
-    </row>
-    <row r="30" spans="1:11" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="207"/>
+    </row>
+    <row r="30" spans="1:11" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>115</v>
       </c>
@@ -16875,9 +16878,9 @@
         <f t="array" aca="1" ref="F30" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+23))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+23)))</f>
         <v>0</v>
       </c>
-      <c r="G30" s="39" cm="1">
+      <c r="G30" s="39" t="str" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+23))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+23)))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H30" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+23))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+23)))</f>
@@ -16888,7 +16891,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>117</v>
       </c>
@@ -16908,9 +16911,9 @@
         <f t="array" aca="1" ref="F31" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+24))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(F$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+24)))</f>
         <v>0</v>
       </c>
-      <c r="G31" s="39" cm="1">
+      <c r="G31" s="39" t="str" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+24))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+24)))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H31" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+24))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+24)))</f>
@@ -16921,7 +16924,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>119</v>
       </c>
@@ -16943,7 +16946,7 @@
       </c>
       <c r="G32" s="39" t="str" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+25))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(G$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+25)))</f>
-        <v>Stainless steel</v>
+        <v/>
       </c>
       <c r="H32" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+25))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(H$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+25)))</f>
@@ -16985,17 +16988,17 @@
       <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" style="84" customWidth="1"/>
-    <col min="2" max="3" width="12.5546875" style="84" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="84" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" style="84" customWidth="1"/>
     <col min="4" max="4" width="24" style="84" customWidth="1"/>
-    <col min="5" max="6" width="39.33203125" style="84" customWidth="1"/>
-    <col min="7" max="11" width="12.5546875" style="84" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="49"/>
+    <col min="5" max="6" width="39.28515625" style="84" customWidth="1"/>
+    <col min="7" max="11" width="12.5703125" style="84" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="86" t="s">
         <v>121</v>
       </c>
@@ -17010,7 +17013,7 @@
       <c r="J1" s="86"/>
       <c r="K1" s="86"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="139" t="str">
         <f>Übersicht!$B$3</f>
         <v>Plytje Hallenbad Leer</v>
@@ -17026,7 +17029,7 @@
       <c r="J2" s="138"/>
       <c r="K2" s="138"/>
     </row>
-    <row r="3" spans="1:14" s="85" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="85" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>122</v>
       </c>
@@ -17061,7 +17064,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="124"/>
       <c r="B4" s="129"/>
       <c r="C4" s="52" t="s">
@@ -17086,7 +17089,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="87" t="s">
         <v>132</v>
       </c>
@@ -17126,7 +17129,7 @@
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="84">
         <v>2</v>
       </c>
@@ -17161,7 +17164,7 @@
       <c r="J6" s="130"/>
       <c r="K6" s="130"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="84">
         <v>3</v>
       </c>
@@ -17196,7 +17199,7 @@
       <c r="J7" s="130"/>
       <c r="K7" s="130"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="84">
         <v>4</v>
       </c>
@@ -17231,7 +17234,7 @@
       <c r="J8" s="130"/>
       <c r="K8" s="130"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="84">
         <v>5</v>
       </c>
@@ -17266,7 +17269,7 @@
       <c r="J9" s="130"/>
       <c r="K9" s="130"/>
     </row>
-    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="81" t="s">
         <v>134</v>
       </c>
@@ -17286,7 +17289,7 @@
       <c r="M10" s="216"/>
       <c r="N10" s="216"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="82"/>
       <c r="B11" s="82">
         <v>2</v>
@@ -17304,7 +17307,7 @@
       <c r="M11" s="216"/>
       <c r="N11" s="216"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
       <c r="B12" s="84">
         <v>3</v>
@@ -17319,7 +17322,7 @@
       <c r="M12" s="216"/>
       <c r="N12" s="216"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="82"/>
       <c r="B13" s="84">
         <v>4</v>
@@ -17337,7 +17340,7 @@
       <c r="M13" s="216"/>
       <c r="N13" s="216"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="82"/>
       <c r="B14" s="83">
         <v>5</v>
@@ -17355,7 +17358,7 @@
       <c r="M14" s="216"/>
       <c r="N14" s="216"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="81" t="s">
         <v>137</v>
       </c>
@@ -17393,7 +17396,7 @@
       <c r="J15" s="134"/>
       <c r="K15" s="134"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="82"/>
       <c r="B16" s="84">
         <v>2</v>
@@ -17429,7 +17432,7 @@
       <c r="J16" s="135"/>
       <c r="K16" s="135"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="82"/>
       <c r="B17" s="84">
         <v>3</v>
@@ -17465,7 +17468,7 @@
       <c r="J17" s="135"/>
       <c r="K17" s="135"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="82"/>
       <c r="B18" s="84">
         <v>4</v>
@@ -17480,7 +17483,7 @@
       <c r="J18" s="135"/>
       <c r="K18" s="135"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="82"/>
       <c r="B19" s="83">
         <v>5</v>
@@ -17495,7 +17498,7 @@
       <c r="J19" s="135"/>
       <c r="K19" s="135"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="81" t="s">
         <v>139</v>
       </c>
@@ -17533,7 +17536,7 @@
       <c r="J20" s="134"/>
       <c r="K20" s="134"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="82"/>
       <c r="B21" s="84">
         <v>2</v>
@@ -17569,7 +17572,7 @@
       <c r="J21" s="135"/>
       <c r="K21" s="135"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="82"/>
       <c r="B22" s="84">
         <v>3</v>
@@ -17605,7 +17608,7 @@
       <c r="J22" s="135"/>
       <c r="K22" s="135"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="82"/>
       <c r="B23" s="84">
         <v>4</v>
@@ -17641,7 +17644,7 @@
       <c r="J23" s="135"/>
       <c r="K23" s="135"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="82"/>
       <c r="B24" s="83">
         <v>5</v>
@@ -17677,7 +17680,7 @@
       <c r="J24" s="135"/>
       <c r="K24" s="135"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
         <v>142</v>
       </c>
@@ -17694,7 +17697,7 @@
       <c r="J25" s="134"/>
       <c r="K25" s="134"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="82"/>
       <c r="B26" s="84">
         <v>2</v>
@@ -17709,7 +17712,7 @@
       <c r="J26" s="135"/>
       <c r="K26" s="135"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="82"/>
       <c r="B27" s="84">
         <v>3</v>
@@ -17724,7 +17727,7 @@
       <c r="J27" s="135"/>
       <c r="K27" s="135"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="82"/>
       <c r="B28" s="84">
         <v>4</v>
@@ -17739,7 +17742,7 @@
       <c r="J28" s="135"/>
       <c r="K28" s="135"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="82"/>
       <c r="B29" s="83">
         <v>5</v>
@@ -17754,7 +17757,7 @@
       <c r="J29" s="135"/>
       <c r="K29" s="135"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
         <v>143</v>
       </c>
@@ -17771,7 +17774,7 @@
       <c r="J30" s="134"/>
       <c r="K30" s="134"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="82"/>
       <c r="B31" s="84">
         <v>2</v>
@@ -17786,7 +17789,7 @@
       <c r="J31" s="135"/>
       <c r="K31" s="135"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="82"/>
       <c r="B32" s="84">
         <v>3</v>
@@ -17801,7 +17804,7 @@
       <c r="J32" s="135"/>
       <c r="K32" s="135"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="82"/>
       <c r="B33" s="84">
         <v>4</v>
@@ -17816,7 +17819,7 @@
       <c r="J33" s="135"/>
       <c r="K33" s="135"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="82"/>
       <c r="B34" s="84">
         <v>5</v>
@@ -17831,7 +17834,7 @@
       <c r="J34" s="135"/>
       <c r="K34" s="135"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
         <v>144</v>
       </c>
@@ -17894,19 +17897,19 @@
       <selection pane="bottomRight" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
     <col min="2" max="2" width="38" style="105" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" style="105" customWidth="1"/>
-    <col min="4" max="5" width="20.88671875" style="105" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" style="72" customWidth="1"/>
+    <col min="3" max="3" width="50.28515625" style="105" customWidth="1"/>
+    <col min="4" max="5" width="20.85546875" style="105" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="72" customWidth="1"/>
     <col min="7" max="7" width="20" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" style="72" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="72"/>
+    <col min="8" max="8" width="22.85546875" style="72" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="115" t="s">
         <v>248</v>
       </c>
@@ -17932,7 +17935,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="116"/>
       <c r="B2" s="109"/>
       <c r="C2" s="109"/>
@@ -17952,7 +17955,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="117"/>
       <c r="B3" s="112"/>
       <c r="C3" s="112"/>
@@ -17972,7 +17975,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="118" t="s">
         <v>285</v>
       </c>
@@ -17984,7 +17987,7 @@
       <c r="G4" s="119"/>
       <c r="H4" s="119"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>300</v>
       </c>
@@ -18004,7 +18007,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>277</v>
       </c>
@@ -18024,7 +18027,7 @@
         <v>0.77584580000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>295</v>
       </c>
@@ -18044,7 +18047,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>279</v>
       </c>
@@ -18064,7 +18067,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>303</v>
       </c>
@@ -18084,7 +18087,7 @@
         <v>1.3838755</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -18104,7 +18107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>312</v>
       </c>
@@ -18124,7 +18127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>280</v>
       </c>
@@ -18144,7 +18147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>275</v>
       </c>
@@ -18164,7 +18167,7 @@
         <v>0.83640959999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>276</v>
       </c>
@@ -18184,7 +18187,7 @@
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>274</v>
       </c>
@@ -18204,7 +18207,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -18224,7 +18227,7 @@
         <v>0.47699999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>278</v>
       </c>
@@ -18244,7 +18247,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="123" t="s">
         <v>309</v>
       </c>
@@ -18264,11 +18267,11 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="123"/>
       <c r="F19" s="105"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="120" t="s">
         <v>246</v>
       </c>
@@ -18280,7 +18283,7 @@
       <c r="G24" s="121"/>
       <c r="H24" s="121"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>249</v>
       </c>
@@ -18300,7 +18303,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>250</v>
       </c>
@@ -18320,7 +18323,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>317</v>
       </c>
@@ -18340,7 +18343,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>252</v>
       </c>
@@ -18360,7 +18363,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>253</v>
       </c>
@@ -18380,7 +18383,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>255</v>
       </c>
@@ -18400,7 +18403,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>254</v>
       </c>
@@ -18420,7 +18423,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>257</v>
       </c>
@@ -18440,7 +18443,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>256</v>
       </c>
@@ -18460,7 +18463,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>251</v>
       </c>
@@ -18480,7 +18483,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="120" t="s">
         <v>320</v>
       </c>
@@ -18492,7 +18495,7 @@
       <c r="G40" s="121"/>
       <c r="H40" s="121"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>327</v>
       </c>
@@ -18512,7 +18515,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>318</v>
       </c>
@@ -18532,7 +18535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>295</v>
       </c>
@@ -18552,7 +18555,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>324</v>
       </c>
@@ -18572,7 +18575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>278</v>
       </c>
@@ -18592,7 +18595,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>323</v>
       </c>
@@ -18612,7 +18615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="120" t="s">
         <v>7</v>
       </c>
@@ -18624,7 +18627,7 @@
       <c r="G50" s="121"/>
       <c r="H50" s="121"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>389</v>
       </c>
@@ -18644,7 +18647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>278</v>
       </c>
@@ -18664,7 +18667,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>392</v>
       </c>
@@ -18684,7 +18687,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>393</v>
       </c>
@@ -18704,7 +18707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="120" t="s">
         <v>40</v>
       </c>
@@ -18716,7 +18719,7 @@
       <c r="G56" s="121"/>
       <c r="H56" s="121"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>366</v>
       </c>
@@ -18742,7 +18745,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>367</v>
       </c>
@@ -18768,7 +18771,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>371</v>
       </c>
@@ -18794,7 +18797,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>372</v>
       </c>
@@ -18820,7 +18823,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>368</v>
       </c>
@@ -18846,7 +18849,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>373</v>
       </c>
@@ -18872,7 +18875,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>376</v>
       </c>
@@ -18898,7 +18901,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>369</v>
       </c>
@@ -18924,7 +18927,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>374</v>
       </c>
@@ -18950,7 +18953,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>378</v>
       </c>
@@ -18976,7 +18979,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>370</v>
       </c>
@@ -19002,7 +19005,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>375</v>
       </c>
@@ -19028,7 +19031,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>380</v>
       </c>
@@ -19054,7 +19057,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>377</v>
       </c>
@@ -19080,7 +19083,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>379</v>
       </c>

--- a/teaser/examples/2022-08-03_Swimming pool_Database.xlsx
+++ b/teaser/examples/2022-08-03_Swimming pool_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Python\TEASER\teaser\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241E47EC-3AB0-4DA1-AC5D-778400AE1C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27E3924-8D7B-481A-8AA6-82BCAB9F8228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="11" r:id="rId1"/>
@@ -73,18 +73,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="415">
   <si>
     <t>Badname</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Schwimmbad Allgemein</t>
-  </si>
-  <si>
-    <t>Kontakt Ansprechpartner</t>
   </si>
   <si>
     <t>Badtyp</t>
@@ -719,10 +713,6 @@
   </si>
   <si>
     <t>Gebäudehülle: Baukonstruktion</t>
-  </si>
-  <si>
-    <t>E-Mail 
-Adresse</t>
   </si>
   <si>
     <t>Zonen-
@@ -2822,10 +2812,31 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2834,74 +2845,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2915,12 +2860,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2930,47 +2869,80 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2992,6 +2964,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3075,7 +3065,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Tabelle boundary"/>
@@ -3396,7 +3386,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3408,40 +3398,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="156" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B1" s="157"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="75" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B3" s="88" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B5" s="80"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B6" s="78">
         <f>VLOOKUP($B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$DY$2),FALSE)+VLOOKUP($B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$EY$2),FALSE)+VLOOKUP($B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$FY$2),FALSE)+VLOOKUP($B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$GY$2),FALSE)+VLOOKUP($B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$HY$2),FALSE)</f>
         <v>511.8</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B7" s="78">
         <f>VLOOKUP($B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$E$2),FALSE)</f>
@@ -3453,13 +3443,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B9" s="80"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B10" s="78" t="str">
         <f>VLOOKUP($B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$B$2),FALSE)</f>
@@ -3468,7 +3458,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" s="78" t="str">
         <f>VLOOKUP($B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$C$2),FALSE)</f>
@@ -3477,14 +3467,14 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B12">
         <f>VLOOKUP($B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$D$2),FALSE)</f>
         <v>2570</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3516,15 +3506,15 @@
   <dimension ref="A1:LT100"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="DU4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="DX8" sqref="DX8"/>
+      <selection pane="bottomRight" activeCell="A6" activeCellId="1" sqref="A4:XFD4 A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="72" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="72" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
@@ -3570,7 +3560,7 @@
     <col min="115" max="122" width="5.7109375" customWidth="1"/>
     <col min="123" max="126" width="13.5703125" customWidth="1"/>
     <col min="127" max="127" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.42578125" style="73" customWidth="1"/>
+    <col min="128" max="128" width="19.85546875" style="73" customWidth="1"/>
     <col min="129" max="129" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="131" max="131" width="10.28515625" style="1" customWidth="1"/>
@@ -3729,1453 +3719,1447 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:332" s="61" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="158" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="158" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="158" t="s">
+        <v>162</v>
+      </c>
+      <c r="X1" s="159"/>
+      <c r="Y1" s="159"/>
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="159"/>
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="159"/>
+      <c r="AD1" s="159"/>
+      <c r="AE1" s="159"/>
+      <c r="AF1" s="159"/>
+      <c r="AG1" s="159"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="159"/>
+      <c r="AJ1" s="159"/>
+      <c r="AK1" s="160"/>
+      <c r="AL1" s="158" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM1" s="159"/>
+      <c r="AN1" s="159"/>
+      <c r="AO1" s="159"/>
+      <c r="AP1" s="159"/>
+      <c r="AQ1" s="159"/>
+      <c r="AR1" s="159"/>
+      <c r="AS1" s="159"/>
+      <c r="AT1" s="159"/>
+      <c r="AU1" s="159"/>
+      <c r="AV1" s="159"/>
+      <c r="AW1" s="159"/>
+      <c r="AX1" s="159"/>
+      <c r="AY1" s="159"/>
+      <c r="AZ1" s="160"/>
+      <c r="BA1" s="158" t="s">
+        <v>164</v>
+      </c>
+      <c r="BB1" s="159"/>
+      <c r="BC1" s="159"/>
+      <c r="BD1" s="159"/>
+      <c r="BE1" s="159"/>
+      <c r="BF1" s="159"/>
+      <c r="BG1" s="159"/>
+      <c r="BH1" s="159"/>
+      <c r="BI1" s="159"/>
+      <c r="BJ1" s="159"/>
+      <c r="BK1" s="159"/>
+      <c r="BL1" s="159"/>
+      <c r="BM1" s="159"/>
+      <c r="BN1" s="159"/>
+      <c r="BO1" s="160"/>
+      <c r="BP1" s="158" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ1" s="159"/>
+      <c r="BR1" s="159"/>
+      <c r="BS1" s="159"/>
+      <c r="BT1" s="159"/>
+      <c r="BU1" s="159"/>
+      <c r="BV1" s="159"/>
+      <c r="BW1" s="159"/>
+      <c r="BX1" s="159"/>
+      <c r="BY1" s="159"/>
+      <c r="BZ1" s="159"/>
+      <c r="CA1" s="159"/>
+      <c r="CB1" s="159"/>
+      <c r="CC1" s="159"/>
+      <c r="CD1" s="160"/>
+      <c r="CE1" s="158" t="s">
+        <v>166</v>
+      </c>
+      <c r="CF1" s="159"/>
+      <c r="CG1" s="159"/>
+      <c r="CH1" s="159"/>
+      <c r="CI1" s="159"/>
+      <c r="CJ1" s="159"/>
+      <c r="CK1" s="159"/>
+      <c r="CL1" s="159"/>
+      <c r="CM1" s="159"/>
+      <c r="CN1" s="159"/>
+      <c r="CO1" s="159"/>
+      <c r="CP1" s="159"/>
+      <c r="CQ1" s="159"/>
+      <c r="CR1" s="159"/>
+      <c r="CS1" s="160"/>
+      <c r="CT1" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="CU1" s="159"/>
+      <c r="CV1" s="159"/>
+      <c r="CW1" s="159"/>
+      <c r="CX1" s="159"/>
+      <c r="CY1" s="159"/>
+      <c r="CZ1" s="159"/>
+      <c r="DA1" s="159"/>
+      <c r="DB1" s="159"/>
+      <c r="DC1" s="159"/>
+      <c r="DD1" s="159"/>
+      <c r="DE1" s="159"/>
+      <c r="DF1" s="159"/>
+      <c r="DG1" s="159"/>
+      <c r="DH1" s="160"/>
+      <c r="DI1" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="DJ1" s="159"/>
+      <c r="DK1" s="159"/>
+      <c r="DL1" s="159"/>
+      <c r="DM1" s="159"/>
+      <c r="DN1" s="159"/>
+      <c r="DO1" s="159"/>
+      <c r="DP1" s="159"/>
+      <c r="DQ1" s="159"/>
+      <c r="DR1" s="159"/>
+      <c r="DS1" s="159"/>
+      <c r="DT1" s="159"/>
+      <c r="DU1" s="159"/>
+      <c r="DV1" s="159"/>
+      <c r="DW1" s="159"/>
+      <c r="DX1" s="169" t="s">
+        <v>169</v>
+      </c>
+      <c r="DY1" s="159"/>
+      <c r="DZ1" s="159"/>
+      <c r="EA1" s="159"/>
+      <c r="EB1" s="159"/>
+      <c r="EC1" s="159"/>
+      <c r="ED1" s="159"/>
+      <c r="EE1" s="159"/>
+      <c r="EF1" s="159"/>
+      <c r="EG1" s="159"/>
+      <c r="EH1" s="159"/>
+      <c r="EI1" s="159"/>
+      <c r="EJ1" s="159"/>
+      <c r="EK1" s="159"/>
+      <c r="EL1" s="159"/>
+      <c r="EM1" s="159"/>
+      <c r="EN1" s="159"/>
+      <c r="EO1" s="159"/>
+      <c r="EP1" s="159"/>
+      <c r="EQ1" s="159"/>
+      <c r="ER1" s="159"/>
+      <c r="ES1" s="159"/>
+      <c r="ET1" s="159"/>
+      <c r="EU1" s="159"/>
+      <c r="EV1" s="159"/>
+      <c r="EW1" s="160"/>
+      <c r="EX1" s="158" t="s">
+        <v>170</v>
+      </c>
+      <c r="EY1" s="159"/>
+      <c r="EZ1" s="159"/>
+      <c r="FA1" s="159"/>
+      <c r="FB1" s="159"/>
+      <c r="FC1" s="159"/>
+      <c r="FD1" s="159"/>
+      <c r="FE1" s="159"/>
+      <c r="FF1" s="159"/>
+      <c r="FG1" s="159"/>
+      <c r="FH1" s="159"/>
+      <c r="FI1" s="159"/>
+      <c r="FJ1" s="159"/>
+      <c r="FK1" s="159"/>
+      <c r="FL1" s="159"/>
+      <c r="FM1" s="159"/>
+      <c r="FN1" s="159"/>
+      <c r="FO1" s="159"/>
+      <c r="FP1" s="159"/>
+      <c r="FQ1" s="159"/>
+      <c r="FR1" s="159"/>
+      <c r="FS1" s="159"/>
+      <c r="FT1" s="159"/>
+      <c r="FU1" s="159"/>
+      <c r="FV1" s="159"/>
+      <c r="FW1" s="160"/>
+      <c r="FX1" s="158" t="s">
+        <v>171</v>
+      </c>
+      <c r="FY1" s="159"/>
+      <c r="FZ1" s="159"/>
+      <c r="GA1" s="159"/>
+      <c r="GB1" s="159"/>
+      <c r="GC1" s="159"/>
+      <c r="GD1" s="159"/>
+      <c r="GE1" s="159"/>
+      <c r="GF1" s="159"/>
+      <c r="GG1" s="159"/>
+      <c r="GH1" s="159"/>
+      <c r="GI1" s="159"/>
+      <c r="GJ1" s="159"/>
+      <c r="GK1" s="159"/>
+      <c r="GL1" s="159"/>
+      <c r="GM1" s="159"/>
+      <c r="GN1" s="159"/>
+      <c r="GO1" s="159"/>
+      <c r="GP1" s="159"/>
+      <c r="GQ1" s="159"/>
+      <c r="GR1" s="159"/>
+      <c r="GS1" s="159"/>
+      <c r="GT1" s="159"/>
+      <c r="GU1" s="159"/>
+      <c r="GV1" s="159"/>
+      <c r="GW1" s="160"/>
+      <c r="GX1" s="158" t="s">
+        <v>172</v>
+      </c>
+      <c r="GY1" s="159"/>
+      <c r="GZ1" s="159"/>
+      <c r="HA1" s="159"/>
+      <c r="HB1" s="159"/>
+      <c r="HC1" s="159"/>
+      <c r="HD1" s="159"/>
+      <c r="HE1" s="159"/>
+      <c r="HF1" s="159"/>
+      <c r="HG1" s="159"/>
+      <c r="HH1" s="159"/>
+      <c r="HI1" s="159"/>
+      <c r="HJ1" s="159"/>
+      <c r="HK1" s="159"/>
+      <c r="HL1" s="159"/>
+      <c r="HM1" s="159"/>
+      <c r="HN1" s="159"/>
+      <c r="HO1" s="159"/>
+      <c r="HP1" s="159"/>
+      <c r="HQ1" s="159"/>
+      <c r="HR1" s="159"/>
+      <c r="HS1" s="159"/>
+      <c r="HT1" s="159"/>
+      <c r="HU1" s="159"/>
+      <c r="HV1" s="159"/>
+      <c r="HW1" s="160"/>
+      <c r="HX1" s="158" t="s">
+        <v>173</v>
+      </c>
+      <c r="HY1" s="159"/>
+      <c r="HZ1" s="159"/>
+      <c r="IA1" s="159"/>
+      <c r="IB1" s="159"/>
+      <c r="IC1" s="159"/>
+      <c r="ID1" s="159"/>
+      <c r="IE1" s="159"/>
+      <c r="IF1" s="159"/>
+      <c r="IG1" s="159"/>
+      <c r="IH1" s="159"/>
+      <c r="II1" s="159"/>
+      <c r="IJ1" s="159"/>
+      <c r="IK1" s="159"/>
+      <c r="IL1" s="159"/>
+      <c r="IM1" s="159"/>
+      <c r="IN1" s="159"/>
+      <c r="IO1" s="159"/>
+      <c r="IP1" s="159"/>
+      <c r="IQ1" s="159"/>
+      <c r="IR1" s="159"/>
+      <c r="IS1" s="159"/>
+      <c r="IT1" s="159"/>
+      <c r="IU1" s="159"/>
+      <c r="IV1" s="159"/>
+      <c r="IW1" s="160"/>
+      <c r="IX1" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="IY1" s="159"/>
+      <c r="IZ1" s="159"/>
+      <c r="JA1" s="159"/>
+      <c r="JB1" s="160"/>
+      <c r="JC1" s="161" t="s">
+        <v>174</v>
+      </c>
+      <c r="JD1" s="161"/>
+      <c r="JE1" s="161"/>
+      <c r="JF1" s="161"/>
+      <c r="JG1" s="162"/>
+      <c r="JH1" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="JI1" s="159"/>
+      <c r="JJ1" s="159"/>
+      <c r="JK1" s="159"/>
+      <c r="JL1" s="159"/>
+      <c r="JM1" s="159"/>
+      <c r="JN1" s="159"/>
+      <c r="JO1" s="159"/>
+      <c r="JP1" s="159"/>
+      <c r="JQ1" s="159"/>
+      <c r="JR1" s="159"/>
+      <c r="JS1" s="158" t="s">
+        <v>14</v>
+      </c>
+      <c r="JT1" s="159"/>
+      <c r="JU1" s="159"/>
+      <c r="JV1" s="159"/>
+      <c r="JW1" s="159"/>
+      <c r="JX1" s="159"/>
+      <c r="JY1" s="159"/>
+      <c r="JZ1" s="159"/>
+      <c r="KA1" s="159"/>
+      <c r="KB1" s="159"/>
+      <c r="KC1" s="159"/>
+      <c r="KD1" s="158" t="s">
+        <v>15</v>
+      </c>
+      <c r="KE1" s="159"/>
+      <c r="KF1" s="159"/>
+      <c r="KG1" s="159"/>
+      <c r="KH1" s="159"/>
+      <c r="KI1" s="158" t="s">
+        <v>18</v>
+      </c>
+      <c r="KJ1" s="160"/>
+      <c r="KK1" s="158" t="s">
+        <v>26</v>
+      </c>
+      <c r="KL1" s="159"/>
+      <c r="KM1" s="159"/>
+      <c r="KN1" s="159"/>
+      <c r="KO1" s="159"/>
+      <c r="KP1" s="159"/>
+      <c r="KQ1" s="159"/>
+      <c r="KR1" s="159"/>
+      <c r="KS1" s="159"/>
+      <c r="KT1" s="159"/>
+      <c r="KU1" s="159"/>
+      <c r="KV1" s="159"/>
+      <c r="KW1" s="159"/>
+      <c r="KX1" s="159"/>
+      <c r="KY1" s="159"/>
+      <c r="KZ1" s="159"/>
+      <c r="LA1" s="159"/>
+      <c r="LB1" s="159"/>
+      <c r="LC1" s="159"/>
+      <c r="LD1" s="159"/>
+      <c r="LE1" s="159"/>
+      <c r="LF1" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="LG1" s="159"/>
+      <c r="LH1" s="159"/>
+      <c r="LI1" s="159"/>
+      <c r="LJ1" s="159"/>
+      <c r="LK1" s="159"/>
+      <c r="LL1" s="159"/>
+      <c r="LM1" s="159"/>
+      <c r="LN1" s="159"/>
+      <c r="LO1" s="159"/>
+      <c r="LP1" s="159"/>
+      <c r="LQ1" s="160"/>
+      <c r="LR1" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="LS1" s="60"/>
+    </row>
+    <row r="2" spans="1:332" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="196" t="s">
+      <c r="C2" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="198"/>
-      <c r="H1" s="196" t="s">
-        <v>163</v>
-      </c>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="197"/>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="198"/>
-      <c r="W1" s="196" t="s">
-        <v>164</v>
-      </c>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="197"/>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="197"/>
-      <c r="AH1" s="197"/>
-      <c r="AI1" s="197"/>
-      <c r="AJ1" s="197"/>
-      <c r="AK1" s="198"/>
-      <c r="AL1" s="196" t="s">
-        <v>165</v>
-      </c>
-      <c r="AM1" s="197"/>
-      <c r="AN1" s="197"/>
-      <c r="AO1" s="197"/>
-      <c r="AP1" s="197"/>
-      <c r="AQ1" s="197"/>
-      <c r="AR1" s="197"/>
-      <c r="AS1" s="197"/>
-      <c r="AT1" s="197"/>
-      <c r="AU1" s="197"/>
-      <c r="AV1" s="197"/>
-      <c r="AW1" s="197"/>
-      <c r="AX1" s="197"/>
-      <c r="AY1" s="197"/>
-      <c r="AZ1" s="198"/>
-      <c r="BA1" s="196" t="s">
-        <v>166</v>
-      </c>
-      <c r="BB1" s="197"/>
-      <c r="BC1" s="197"/>
-      <c r="BD1" s="197"/>
-      <c r="BE1" s="197"/>
-      <c r="BF1" s="197"/>
-      <c r="BG1" s="197"/>
-      <c r="BH1" s="197"/>
-      <c r="BI1" s="197"/>
-      <c r="BJ1" s="197"/>
-      <c r="BK1" s="197"/>
-      <c r="BL1" s="197"/>
-      <c r="BM1" s="197"/>
-      <c r="BN1" s="197"/>
-      <c r="BO1" s="198"/>
-      <c r="BP1" s="196" t="s">
-        <v>167</v>
-      </c>
-      <c r="BQ1" s="197"/>
-      <c r="BR1" s="197"/>
-      <c r="BS1" s="197"/>
-      <c r="BT1" s="197"/>
-      <c r="BU1" s="197"/>
-      <c r="BV1" s="197"/>
-      <c r="BW1" s="197"/>
-      <c r="BX1" s="197"/>
-      <c r="BY1" s="197"/>
-      <c r="BZ1" s="197"/>
-      <c r="CA1" s="197"/>
-      <c r="CB1" s="197"/>
-      <c r="CC1" s="197"/>
-      <c r="CD1" s="198"/>
-      <c r="CE1" s="196" t="s">
-        <v>168</v>
-      </c>
-      <c r="CF1" s="197"/>
-      <c r="CG1" s="197"/>
-      <c r="CH1" s="197"/>
-      <c r="CI1" s="197"/>
-      <c r="CJ1" s="197"/>
-      <c r="CK1" s="197"/>
-      <c r="CL1" s="197"/>
-      <c r="CM1" s="197"/>
-      <c r="CN1" s="197"/>
-      <c r="CO1" s="197"/>
-      <c r="CP1" s="197"/>
-      <c r="CQ1" s="197"/>
-      <c r="CR1" s="197"/>
-      <c r="CS1" s="198"/>
-      <c r="CT1" s="196" t="s">
-        <v>169</v>
-      </c>
-      <c r="CU1" s="197"/>
-      <c r="CV1" s="197"/>
-      <c r="CW1" s="197"/>
-      <c r="CX1" s="197"/>
-      <c r="CY1" s="197"/>
-      <c r="CZ1" s="197"/>
-      <c r="DA1" s="197"/>
-      <c r="DB1" s="197"/>
-      <c r="DC1" s="197"/>
-      <c r="DD1" s="197"/>
-      <c r="DE1" s="197"/>
-      <c r="DF1" s="197"/>
-      <c r="DG1" s="197"/>
-      <c r="DH1" s="198"/>
-      <c r="DI1" s="196" t="s">
-        <v>170</v>
-      </c>
-      <c r="DJ1" s="197"/>
-      <c r="DK1" s="197"/>
-      <c r="DL1" s="197"/>
-      <c r="DM1" s="197"/>
-      <c r="DN1" s="197"/>
-      <c r="DO1" s="197"/>
-      <c r="DP1" s="197"/>
-      <c r="DQ1" s="197"/>
-      <c r="DR1" s="197"/>
-      <c r="DS1" s="197"/>
-      <c r="DT1" s="197"/>
-      <c r="DU1" s="197"/>
-      <c r="DV1" s="197"/>
-      <c r="DW1" s="197"/>
-      <c r="DX1" s="199" t="s">
-        <v>171</v>
-      </c>
-      <c r="DY1" s="197"/>
-      <c r="DZ1" s="197"/>
-      <c r="EA1" s="197"/>
-      <c r="EB1" s="197"/>
-      <c r="EC1" s="197"/>
-      <c r="ED1" s="197"/>
-      <c r="EE1" s="197"/>
-      <c r="EF1" s="197"/>
-      <c r="EG1" s="197"/>
-      <c r="EH1" s="197"/>
-      <c r="EI1" s="197"/>
-      <c r="EJ1" s="197"/>
-      <c r="EK1" s="197"/>
-      <c r="EL1" s="197"/>
-      <c r="EM1" s="197"/>
-      <c r="EN1" s="197"/>
-      <c r="EO1" s="197"/>
-      <c r="EP1" s="197"/>
-      <c r="EQ1" s="197"/>
-      <c r="ER1" s="197"/>
-      <c r="ES1" s="197"/>
-      <c r="ET1" s="197"/>
-      <c r="EU1" s="197"/>
-      <c r="EV1" s="197"/>
-      <c r="EW1" s="198"/>
-      <c r="EX1" s="196" t="s">
-        <v>172</v>
-      </c>
-      <c r="EY1" s="197"/>
-      <c r="EZ1" s="197"/>
-      <c r="FA1" s="197"/>
-      <c r="FB1" s="197"/>
-      <c r="FC1" s="197"/>
-      <c r="FD1" s="197"/>
-      <c r="FE1" s="197"/>
-      <c r="FF1" s="197"/>
-      <c r="FG1" s="197"/>
-      <c r="FH1" s="197"/>
-      <c r="FI1" s="197"/>
-      <c r="FJ1" s="197"/>
-      <c r="FK1" s="197"/>
-      <c r="FL1" s="197"/>
-      <c r="FM1" s="197"/>
-      <c r="FN1" s="197"/>
-      <c r="FO1" s="197"/>
-      <c r="FP1" s="197"/>
-      <c r="FQ1" s="197"/>
-      <c r="FR1" s="197"/>
-      <c r="FS1" s="197"/>
-      <c r="FT1" s="197"/>
-      <c r="FU1" s="197"/>
-      <c r="FV1" s="197"/>
-      <c r="FW1" s="198"/>
-      <c r="FX1" s="196" t="s">
-        <v>173</v>
-      </c>
-      <c r="FY1" s="197"/>
-      <c r="FZ1" s="197"/>
-      <c r="GA1" s="197"/>
-      <c r="GB1" s="197"/>
-      <c r="GC1" s="197"/>
-      <c r="GD1" s="197"/>
-      <c r="GE1" s="197"/>
-      <c r="GF1" s="197"/>
-      <c r="GG1" s="197"/>
-      <c r="GH1" s="197"/>
-      <c r="GI1" s="197"/>
-      <c r="GJ1" s="197"/>
-      <c r="GK1" s="197"/>
-      <c r="GL1" s="197"/>
-      <c r="GM1" s="197"/>
-      <c r="GN1" s="197"/>
-      <c r="GO1" s="197"/>
-      <c r="GP1" s="197"/>
-      <c r="GQ1" s="197"/>
-      <c r="GR1" s="197"/>
-      <c r="GS1" s="197"/>
-      <c r="GT1" s="197"/>
-      <c r="GU1" s="197"/>
-      <c r="GV1" s="197"/>
-      <c r="GW1" s="198"/>
-      <c r="GX1" s="196" t="s">
-        <v>174</v>
-      </c>
-      <c r="GY1" s="197"/>
-      <c r="GZ1" s="197"/>
-      <c r="HA1" s="197"/>
-      <c r="HB1" s="197"/>
-      <c r="HC1" s="197"/>
-      <c r="HD1" s="197"/>
-      <c r="HE1" s="197"/>
-      <c r="HF1" s="197"/>
-      <c r="HG1" s="197"/>
-      <c r="HH1" s="197"/>
-      <c r="HI1" s="197"/>
-      <c r="HJ1" s="197"/>
-      <c r="HK1" s="197"/>
-      <c r="HL1" s="197"/>
-      <c r="HM1" s="197"/>
-      <c r="HN1" s="197"/>
-      <c r="HO1" s="197"/>
-      <c r="HP1" s="197"/>
-      <c r="HQ1" s="197"/>
-      <c r="HR1" s="197"/>
-      <c r="HS1" s="197"/>
-      <c r="HT1" s="197"/>
-      <c r="HU1" s="197"/>
-      <c r="HV1" s="197"/>
-      <c r="HW1" s="198"/>
-      <c r="HX1" s="196" t="s">
+      <c r="D2" s="163" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="167" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="165"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="172" t="s">
         <v>175</v>
       </c>
-      <c r="HY1" s="197"/>
-      <c r="HZ1" s="197"/>
-      <c r="IA1" s="197"/>
-      <c r="IB1" s="197"/>
-      <c r="IC1" s="197"/>
-      <c r="ID1" s="197"/>
-      <c r="IE1" s="197"/>
-      <c r="IF1" s="197"/>
-      <c r="IG1" s="197"/>
-      <c r="IH1" s="197"/>
-      <c r="II1" s="197"/>
-      <c r="IJ1" s="197"/>
-      <c r="IK1" s="197"/>
-      <c r="IL1" s="197"/>
-      <c r="IM1" s="197"/>
-      <c r="IN1" s="197"/>
-      <c r="IO1" s="197"/>
-      <c r="IP1" s="197"/>
-      <c r="IQ1" s="197"/>
-      <c r="IR1" s="197"/>
-      <c r="IS1" s="197"/>
-      <c r="IT1" s="197"/>
-      <c r="IU1" s="197"/>
-      <c r="IV1" s="197"/>
-      <c r="IW1" s="198"/>
-      <c r="IX1" s="196" t="s">
-        <v>8</v>
-      </c>
-      <c r="IY1" s="197"/>
-      <c r="IZ1" s="197"/>
-      <c r="JA1" s="197"/>
-      <c r="JB1" s="198"/>
-      <c r="JC1" s="200" t="s">
+      <c r="I2" s="170" t="s">
         <v>176</v>
       </c>
-      <c r="JD1" s="200"/>
-      <c r="JE1" s="200"/>
-      <c r="JF1" s="200"/>
-      <c r="JG1" s="201"/>
-      <c r="JH1" s="196" t="s">
+      <c r="J2" s="174" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="174" t="s">
+        <v>178</v>
+      </c>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="170" t="s">
+        <v>179</v>
+      </c>
+      <c r="S2" s="170" t="s">
+        <v>180</v>
+      </c>
+      <c r="T2" s="170" t="s">
+        <v>181</v>
+      </c>
+      <c r="U2" s="170" t="s">
+        <v>182</v>
+      </c>
+      <c r="V2" s="170" t="s">
+        <v>183</v>
+      </c>
+      <c r="W2" s="172" t="s">
+        <v>175</v>
+      </c>
+      <c r="X2" s="170" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y2" s="174" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="176"/>
+      <c r="AC2" s="174" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="175"/>
+      <c r="AG2" s="170" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH2" s="170" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI2" s="170" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ2" s="170" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK2" s="170" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL2" s="172" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM2" s="170" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN2" s="174" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO2" s="175"/>
+      <c r="AP2" s="175"/>
+      <c r="AQ2" s="176"/>
+      <c r="AR2" s="174" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS2" s="175"/>
+      <c r="AT2" s="175"/>
+      <c r="AU2" s="175"/>
+      <c r="AV2" s="170" t="s">
+        <v>179</v>
+      </c>
+      <c r="AW2" s="170" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX2" s="170" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY2" s="170" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ2" s="170" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA2" s="172" t="s">
+        <v>175</v>
+      </c>
+      <c r="BB2" s="170" t="s">
+        <v>176</v>
+      </c>
+      <c r="BC2" s="174" t="s">
+        <v>177</v>
+      </c>
+      <c r="BD2" s="175"/>
+      <c r="BE2" s="175"/>
+      <c r="BF2" s="176"/>
+      <c r="BG2" s="174" t="s">
+        <v>178</v>
+      </c>
+      <c r="BH2" s="175"/>
+      <c r="BI2" s="175"/>
+      <c r="BJ2" s="175"/>
+      <c r="BK2" s="170" t="s">
+        <v>179</v>
+      </c>
+      <c r="BL2" s="170" t="s">
+        <v>180</v>
+      </c>
+      <c r="BM2" s="170" t="s">
+        <v>181</v>
+      </c>
+      <c r="BN2" s="170" t="s">
+        <v>182</v>
+      </c>
+      <c r="BO2" s="170" t="s">
+        <v>183</v>
+      </c>
+      <c r="BP2" s="172" t="s">
+        <v>175</v>
+      </c>
+      <c r="BQ2" s="170" t="s">
+        <v>176</v>
+      </c>
+      <c r="BR2" s="174" t="s">
+        <v>177</v>
+      </c>
+      <c r="BS2" s="175"/>
+      <c r="BT2" s="175"/>
+      <c r="BU2" s="176"/>
+      <c r="BV2" s="174" t="s">
+        <v>178</v>
+      </c>
+      <c r="BW2" s="175"/>
+      <c r="BX2" s="175"/>
+      <c r="BY2" s="175"/>
+      <c r="BZ2" s="170" t="s">
+        <v>179</v>
+      </c>
+      <c r="CA2" s="170" t="s">
+        <v>180</v>
+      </c>
+      <c r="CB2" s="170" t="s">
+        <v>181</v>
+      </c>
+      <c r="CC2" s="170" t="s">
+        <v>182</v>
+      </c>
+      <c r="CD2" s="170" t="s">
+        <v>183</v>
+      </c>
+      <c r="CE2" s="172" t="s">
+        <v>175</v>
+      </c>
+      <c r="CF2" s="170" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG2" s="174" t="s">
+        <v>177</v>
+      </c>
+      <c r="CH2" s="175"/>
+      <c r="CI2" s="175"/>
+      <c r="CJ2" s="176"/>
+      <c r="CK2" s="174" t="s">
+        <v>178</v>
+      </c>
+      <c r="CL2" s="175"/>
+      <c r="CM2" s="175"/>
+      <c r="CN2" s="175"/>
+      <c r="CO2" s="170" t="s">
+        <v>179</v>
+      </c>
+      <c r="CP2" s="170" t="s">
+        <v>180</v>
+      </c>
+      <c r="CQ2" s="170" t="s">
+        <v>181</v>
+      </c>
+      <c r="CR2" s="170" t="s">
+        <v>182</v>
+      </c>
+      <c r="CS2" s="170" t="s">
+        <v>183</v>
+      </c>
+      <c r="CT2" s="172" t="s">
+        <v>175</v>
+      </c>
+      <c r="CU2" s="170" t="s">
+        <v>176</v>
+      </c>
+      <c r="CV2" s="174" t="s">
+        <v>177</v>
+      </c>
+      <c r="CW2" s="175"/>
+      <c r="CX2" s="175"/>
+      <c r="CY2" s="176"/>
+      <c r="CZ2" s="174" t="s">
+        <v>178</v>
+      </c>
+      <c r="DA2" s="175"/>
+      <c r="DB2" s="175"/>
+      <c r="DC2" s="175"/>
+      <c r="DD2" s="170" t="s">
+        <v>179</v>
+      </c>
+      <c r="DE2" s="170" t="s">
+        <v>180</v>
+      </c>
+      <c r="DF2" s="170" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG2" s="170" t="s">
+        <v>182</v>
+      </c>
+      <c r="DH2" s="170" t="s">
+        <v>183</v>
+      </c>
+      <c r="DI2" s="172" t="s">
+        <v>175</v>
+      </c>
+      <c r="DJ2" s="170" t="s">
+        <v>176</v>
+      </c>
+      <c r="DK2" s="174" t="s">
+        <v>177</v>
+      </c>
+      <c r="DL2" s="175"/>
+      <c r="DM2" s="175"/>
+      <c r="DN2" s="176"/>
+      <c r="DO2" s="174" t="s">
+        <v>178</v>
+      </c>
+      <c r="DP2" s="175"/>
+      <c r="DQ2" s="175"/>
+      <c r="DR2" s="175"/>
+      <c r="DS2" s="170" t="s">
+        <v>179</v>
+      </c>
+      <c r="DT2" s="170" t="s">
+        <v>180</v>
+      </c>
+      <c r="DU2" s="170" t="s">
+        <v>181</v>
+      </c>
+      <c r="DV2" s="170" t="s">
+        <v>182</v>
+      </c>
+      <c r="DW2" s="172" t="s">
+        <v>183</v>
+      </c>
+      <c r="DX2" s="179" t="s">
+        <v>184</v>
+      </c>
+      <c r="DY2" s="177" t="s">
+        <v>185</v>
+      </c>
+      <c r="DZ2" s="177" t="s">
+        <v>186</v>
+      </c>
+      <c r="EA2" s="177" t="s">
+        <v>378</v>
+      </c>
+      <c r="EB2" s="177" t="s">
+        <v>187</v>
+      </c>
+      <c r="EC2" s="177" t="s">
+        <v>188</v>
+      </c>
+      <c r="ED2" s="177" t="s">
+        <v>189</v>
+      </c>
+      <c r="EE2" s="177" t="s">
+        <v>190</v>
+      </c>
+      <c r="EF2" s="177" t="s">
+        <v>191</v>
+      </c>
+      <c r="EG2" s="177" t="s">
+        <v>192</v>
+      </c>
+      <c r="EH2" s="177" t="s">
+        <v>193</v>
+      </c>
+      <c r="EI2" s="177" t="s">
+        <v>194</v>
+      </c>
+      <c r="EJ2" s="177" t="s">
+        <v>195</v>
+      </c>
+      <c r="EK2" s="181" t="s">
+        <v>405</v>
+      </c>
+      <c r="EL2" s="177" t="s">
+        <v>196</v>
+      </c>
+      <c r="EM2" s="177" t="s">
+        <v>197</v>
+      </c>
+      <c r="EN2" s="177" t="s">
+        <v>198</v>
+      </c>
+      <c r="EO2" s="177" t="s">
+        <v>199</v>
+      </c>
+      <c r="EP2" s="177" t="s">
+        <v>200</v>
+      </c>
+      <c r="EQ2" s="177" t="s">
+        <v>201</v>
+      </c>
+      <c r="ER2" s="177" t="s">
+        <v>202</v>
+      </c>
+      <c r="ES2" s="177" t="s">
+        <v>203</v>
+      </c>
+      <c r="ET2" s="177" t="s">
+        <v>204</v>
+      </c>
+      <c r="EU2" s="177" t="s">
+        <v>205</v>
+      </c>
+      <c r="EV2" s="177" t="s">
+        <v>206</v>
+      </c>
+      <c r="EW2" s="183" t="s">
+        <v>207</v>
+      </c>
+      <c r="EX2" s="177" t="s">
+        <v>184</v>
+      </c>
+      <c r="EY2" s="177" t="s">
+        <v>185</v>
+      </c>
+      <c r="EZ2" s="177" t="s">
+        <v>186</v>
+      </c>
+      <c r="FA2" s="185" t="s">
+        <v>378</v>
+      </c>
+      <c r="FB2" s="177" t="s">
+        <v>187</v>
+      </c>
+      <c r="FC2" s="177" t="s">
+        <v>188</v>
+      </c>
+      <c r="FD2" s="177" t="s">
+        <v>189</v>
+      </c>
+      <c r="FE2" s="177" t="s">
+        <v>190</v>
+      </c>
+      <c r="FF2" s="177" t="s">
+        <v>191</v>
+      </c>
+      <c r="FG2" s="177" t="s">
+        <v>192</v>
+      </c>
+      <c r="FH2" s="177" t="s">
+        <v>193</v>
+      </c>
+      <c r="FI2" s="177" t="s">
+        <v>194</v>
+      </c>
+      <c r="FJ2" s="177" t="s">
+        <v>195</v>
+      </c>
+      <c r="FK2" s="177" t="s">
+        <v>405</v>
+      </c>
+      <c r="FL2" s="177" t="s">
+        <v>196</v>
+      </c>
+      <c r="FM2" s="177" t="s">
+        <v>197</v>
+      </c>
+      <c r="FN2" s="177" t="s">
+        <v>198</v>
+      </c>
+      <c r="FO2" s="177" t="s">
+        <v>199</v>
+      </c>
+      <c r="FP2" s="177" t="s">
+        <v>200</v>
+      </c>
+      <c r="FQ2" s="177" t="s">
+        <v>201</v>
+      </c>
+      <c r="FR2" s="177" t="s">
+        <v>202</v>
+      </c>
+      <c r="FS2" s="177" t="s">
+        <v>203</v>
+      </c>
+      <c r="FT2" s="177" t="s">
+        <v>204</v>
+      </c>
+      <c r="FU2" s="177" t="s">
+        <v>205</v>
+      </c>
+      <c r="FV2" s="177" t="s">
+        <v>206</v>
+      </c>
+      <c r="FW2" s="183" t="s">
+        <v>207</v>
+      </c>
+      <c r="FX2" s="177" t="s">
+        <v>184</v>
+      </c>
+      <c r="FY2" s="177" t="s">
+        <v>185</v>
+      </c>
+      <c r="FZ2" s="177" t="s">
+        <v>186</v>
+      </c>
+      <c r="GA2" s="185" t="s">
+        <v>378</v>
+      </c>
+      <c r="GB2" s="177" t="s">
+        <v>187</v>
+      </c>
+      <c r="GC2" s="177" t="s">
+        <v>188</v>
+      </c>
+      <c r="GD2" s="177" t="s">
+        <v>189</v>
+      </c>
+      <c r="GE2" s="177" t="s">
+        <v>190</v>
+      </c>
+      <c r="GF2" s="177" t="s">
+        <v>191</v>
+      </c>
+      <c r="GG2" s="177" t="s">
+        <v>192</v>
+      </c>
+      <c r="GH2" s="177" t="s">
+        <v>193</v>
+      </c>
+      <c r="GI2" s="177" t="s">
+        <v>194</v>
+      </c>
+      <c r="GJ2" s="177" t="s">
+        <v>195</v>
+      </c>
+      <c r="GK2" s="181" t="s">
+        <v>405</v>
+      </c>
+      <c r="GL2" s="177" t="s">
+        <v>196</v>
+      </c>
+      <c r="GM2" s="177" t="s">
+        <v>197</v>
+      </c>
+      <c r="GN2" s="177" t="s">
+        <v>198</v>
+      </c>
+      <c r="GO2" s="177" t="s">
+        <v>199</v>
+      </c>
+      <c r="GP2" s="177" t="s">
+        <v>200</v>
+      </c>
+      <c r="GQ2" s="177" t="s">
+        <v>201</v>
+      </c>
+      <c r="GR2" s="177" t="s">
+        <v>202</v>
+      </c>
+      <c r="GS2" s="177" t="s">
+        <v>203</v>
+      </c>
+      <c r="GT2" s="177" t="s">
+        <v>204</v>
+      </c>
+      <c r="GU2" s="177" t="s">
+        <v>205</v>
+      </c>
+      <c r="GV2" s="177" t="s">
+        <v>206</v>
+      </c>
+      <c r="GW2" s="183" t="s">
+        <v>207</v>
+      </c>
+      <c r="GX2" s="177" t="s">
+        <v>184</v>
+      </c>
+      <c r="GY2" s="177" t="s">
+        <v>185</v>
+      </c>
+      <c r="GZ2" s="177" t="s">
+        <v>186</v>
+      </c>
+      <c r="HA2" s="185" t="s">
+        <v>378</v>
+      </c>
+      <c r="HB2" s="177" t="s">
+        <v>187</v>
+      </c>
+      <c r="HC2" s="177" t="s">
+        <v>188</v>
+      </c>
+      <c r="HD2" s="177" t="s">
+        <v>189</v>
+      </c>
+      <c r="HE2" s="177" t="s">
+        <v>190</v>
+      </c>
+      <c r="HF2" s="177" t="s">
+        <v>191</v>
+      </c>
+      <c r="HG2" s="177" t="s">
+        <v>192</v>
+      </c>
+      <c r="HH2" s="177" t="s">
+        <v>193</v>
+      </c>
+      <c r="HI2" s="177" t="s">
+        <v>194</v>
+      </c>
+      <c r="HJ2" s="177" t="s">
+        <v>195</v>
+      </c>
+      <c r="HK2" s="181" t="s">
+        <v>405</v>
+      </c>
+      <c r="HL2" s="177" t="s">
+        <v>196</v>
+      </c>
+      <c r="HM2" s="177" t="s">
+        <v>197</v>
+      </c>
+      <c r="HN2" s="177" t="s">
+        <v>198</v>
+      </c>
+      <c r="HO2" s="177" t="s">
+        <v>199</v>
+      </c>
+      <c r="HP2" s="177" t="s">
+        <v>200</v>
+      </c>
+      <c r="HQ2" s="177" t="s">
+        <v>201</v>
+      </c>
+      <c r="HR2" s="177" t="s">
+        <v>202</v>
+      </c>
+      <c r="HS2" s="177" t="s">
+        <v>203</v>
+      </c>
+      <c r="HT2" s="177" t="s">
+        <v>204</v>
+      </c>
+      <c r="HU2" s="177" t="s">
+        <v>205</v>
+      </c>
+      <c r="HV2" s="177" t="s">
+        <v>206</v>
+      </c>
+      <c r="HW2" s="183" t="s">
+        <v>207</v>
+      </c>
+      <c r="HX2" s="177" t="s">
+        <v>184</v>
+      </c>
+      <c r="HY2" s="177" t="s">
+        <v>185</v>
+      </c>
+      <c r="HZ2" s="177" t="s">
+        <v>186</v>
+      </c>
+      <c r="IA2" s="185" t="s">
+        <v>378</v>
+      </c>
+      <c r="IB2" s="177" t="s">
+        <v>187</v>
+      </c>
+      <c r="IC2" s="177" t="s">
+        <v>188</v>
+      </c>
+      <c r="ID2" s="177" t="s">
+        <v>189</v>
+      </c>
+      <c r="IE2" s="177" t="s">
+        <v>190</v>
+      </c>
+      <c r="IF2" s="177" t="s">
+        <v>191</v>
+      </c>
+      <c r="IG2" s="177" t="s">
+        <v>192</v>
+      </c>
+      <c r="IH2" s="177" t="s">
+        <v>193</v>
+      </c>
+      <c r="II2" s="177" t="s">
+        <v>194</v>
+      </c>
+      <c r="IJ2" s="177" t="s">
+        <v>195</v>
+      </c>
+      <c r="IK2" s="181" t="s">
+        <v>405</v>
+      </c>
+      <c r="IL2" s="177" t="s">
+        <v>196</v>
+      </c>
+      <c r="IM2" s="177" t="s">
+        <v>197</v>
+      </c>
+      <c r="IN2" s="177" t="s">
+        <v>198</v>
+      </c>
+      <c r="IO2" s="177" t="s">
+        <v>199</v>
+      </c>
+      <c r="IP2" s="177" t="s">
+        <v>200</v>
+      </c>
+      <c r="IQ2" s="177" t="s">
+        <v>201</v>
+      </c>
+      <c r="IR2" s="177" t="s">
+        <v>202</v>
+      </c>
+      <c r="IS2" s="177" t="s">
+        <v>203</v>
+      </c>
+      <c r="IT2" s="177" t="s">
+        <v>204</v>
+      </c>
+      <c r="IU2" s="177" t="s">
+        <v>205</v>
+      </c>
+      <c r="IV2" s="177" t="s">
+        <v>206</v>
+      </c>
+      <c r="IW2" s="183" t="s">
+        <v>207</v>
+      </c>
+      <c r="IX2" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="IY2" s="165"/>
+      <c r="IZ2" s="165"/>
+      <c r="JA2" s="165"/>
+      <c r="JB2" s="165"/>
+      <c r="JC2" s="165" t="s">
+        <v>208</v>
+      </c>
+      <c r="JD2" s="165"/>
+      <c r="JE2" s="165"/>
+      <c r="JF2" s="165"/>
+      <c r="JG2" s="165"/>
+      <c r="JH2" s="187" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI2" s="188"/>
+      <c r="JJ2" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="JI1" s="197"/>
-      <c r="JJ1" s="197"/>
-      <c r="JK1" s="197"/>
-      <c r="JL1" s="197"/>
-      <c r="JM1" s="197"/>
-      <c r="JN1" s="197"/>
-      <c r="JO1" s="197"/>
-      <c r="JP1" s="197"/>
-      <c r="JQ1" s="197"/>
-      <c r="JR1" s="197"/>
-      <c r="JS1" s="196" t="s">
-        <v>16</v>
-      </c>
-      <c r="JT1" s="197"/>
-      <c r="JU1" s="197"/>
-      <c r="JV1" s="197"/>
-      <c r="JW1" s="197"/>
-      <c r="JX1" s="197"/>
-      <c r="JY1" s="197"/>
-      <c r="JZ1" s="197"/>
-      <c r="KA1" s="197"/>
-      <c r="KB1" s="197"/>
-      <c r="KC1" s="197"/>
-      <c r="KD1" s="196" t="s">
+      <c r="JK2" s="188"/>
+      <c r="JL2" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="JM2" s="188"/>
+      <c r="JN2" s="187" t="s">
+        <v>12</v>
+      </c>
+      <c r="JO2" s="188"/>
+      <c r="JP2" s="187" t="s">
+        <v>13</v>
+      </c>
+      <c r="JQ2" s="188"/>
+      <c r="JR2" s="191" t="s">
+        <v>234</v>
+      </c>
+      <c r="JS2" s="189" t="s">
+        <v>7</v>
+      </c>
+      <c r="JT2" s="190"/>
+      <c r="JU2" s="189" t="s">
+        <v>10</v>
+      </c>
+      <c r="JV2" s="190"/>
+      <c r="JW2" s="189" t="s">
+        <v>11</v>
+      </c>
+      <c r="JX2" s="190"/>
+      <c r="JY2" s="189" t="s">
+        <v>12</v>
+      </c>
+      <c r="JZ2" s="190"/>
+      <c r="KA2" s="189" t="s">
+        <v>13</v>
+      </c>
+      <c r="KB2" s="190"/>
+      <c r="KC2" s="199" t="s">
+        <v>234</v>
+      </c>
+      <c r="KD2" s="191" t="s">
+        <v>35</v>
+      </c>
+      <c r="KE2" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="KE1" s="197"/>
-      <c r="KF1" s="197"/>
-      <c r="KG1" s="197"/>
-      <c r="KH1" s="197"/>
-      <c r="KI1" s="196" t="s">
+      <c r="KF2" s="193"/>
+      <c r="KG2" s="193" t="s">
+        <v>327</v>
+      </c>
+      <c r="KH2" s="193"/>
+      <c r="KI2" s="191" t="s">
+        <v>382</v>
+      </c>
+      <c r="KJ2" s="194" t="s">
+        <v>397</v>
+      </c>
+      <c r="KK2" s="196" t="s">
+        <v>19</v>
+      </c>
+      <c r="KL2" s="196"/>
+      <c r="KM2" s="196"/>
+      <c r="KN2" s="197"/>
+      <c r="KO2" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="KJ1" s="198"/>
-      <c r="KK1" s="196" t="s">
-        <v>28</v>
-      </c>
-      <c r="KL1" s="197"/>
-      <c r="KM1" s="197"/>
-      <c r="KN1" s="197"/>
-      <c r="KO1" s="197"/>
-      <c r="KP1" s="197"/>
-      <c r="KQ1" s="197"/>
-      <c r="KR1" s="197"/>
-      <c r="KS1" s="197"/>
-      <c r="KT1" s="197"/>
-      <c r="KU1" s="197"/>
-      <c r="KV1" s="197"/>
-      <c r="KW1" s="197"/>
-      <c r="KX1" s="197"/>
-      <c r="KY1" s="197"/>
-      <c r="KZ1" s="197"/>
-      <c r="LA1" s="197"/>
-      <c r="LB1" s="197"/>
-      <c r="LC1" s="197"/>
-      <c r="LD1" s="197"/>
-      <c r="LE1" s="197"/>
-      <c r="LF1" s="196" t="s">
+      <c r="KP2" s="196"/>
+      <c r="KQ2" s="196"/>
+      <c r="KR2" s="196"/>
+      <c r="KS2" s="201" t="s">
+        <v>21</v>
+      </c>
+      <c r="KT2" s="197"/>
+      <c r="KU2" s="196" t="s">
+        <v>22</v>
+      </c>
+      <c r="KV2" s="196"/>
+      <c r="KW2" s="201" t="s">
+        <v>23</v>
+      </c>
+      <c r="KX2" s="197"/>
+      <c r="KY2" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="KZ2" s="196"/>
+      <c r="LA2" s="201" t="s">
+        <v>25</v>
+      </c>
+      <c r="LB2" s="196"/>
+      <c r="LC2" s="196"/>
+      <c r="LD2" s="196"/>
+      <c r="LE2" s="197"/>
+      <c r="LF2" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="LG1" s="197"/>
-      <c r="LH1" s="197"/>
-      <c r="LI1" s="197"/>
-      <c r="LJ1" s="197"/>
-      <c r="LK1" s="197"/>
-      <c r="LL1" s="197"/>
-      <c r="LM1" s="197"/>
-      <c r="LN1" s="197"/>
-      <c r="LO1" s="197"/>
-      <c r="LP1" s="197"/>
-      <c r="LQ1" s="198"/>
-      <c r="LR1" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="LS1" s="60"/>
-    </row>
-    <row r="2" spans="1:332" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="158" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="158" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="159" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="160" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="158" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="159" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" s="187" t="s">
-        <v>178</v>
-      </c>
-      <c r="I2" s="185" t="s">
-        <v>179</v>
-      </c>
-      <c r="J2" s="191" t="s">
-        <v>180</v>
-      </c>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="191" t="s">
-        <v>181</v>
-      </c>
-      <c r="O2" s="192"/>
-      <c r="P2" s="192"/>
-      <c r="Q2" s="192"/>
-      <c r="R2" s="185" t="s">
-        <v>182</v>
-      </c>
-      <c r="S2" s="185" t="s">
-        <v>183</v>
-      </c>
-      <c r="T2" s="185" t="s">
-        <v>184</v>
-      </c>
-      <c r="U2" s="185" t="s">
-        <v>185</v>
-      </c>
-      <c r="V2" s="185" t="s">
-        <v>186</v>
-      </c>
-      <c r="W2" s="187" t="s">
-        <v>178</v>
-      </c>
-      <c r="X2" s="185" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y2" s="191" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z2" s="192"/>
-      <c r="AA2" s="192"/>
-      <c r="AB2" s="193"/>
-      <c r="AC2" s="191" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD2" s="192"/>
-      <c r="AE2" s="192"/>
-      <c r="AF2" s="192"/>
-      <c r="AG2" s="185" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH2" s="185" t="s">
-        <v>183</v>
-      </c>
-      <c r="AI2" s="185" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ2" s="185" t="s">
-        <v>185</v>
-      </c>
-      <c r="AK2" s="185" t="s">
-        <v>186</v>
-      </c>
-      <c r="AL2" s="187" t="s">
-        <v>178</v>
-      </c>
-      <c r="AM2" s="185" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN2" s="191" t="s">
-        <v>180</v>
-      </c>
-      <c r="AO2" s="192"/>
-      <c r="AP2" s="192"/>
-      <c r="AQ2" s="193"/>
-      <c r="AR2" s="191" t="s">
-        <v>181</v>
-      </c>
-      <c r="AS2" s="192"/>
-      <c r="AT2" s="192"/>
-      <c r="AU2" s="192"/>
-      <c r="AV2" s="185" t="s">
-        <v>182</v>
-      </c>
-      <c r="AW2" s="185" t="s">
-        <v>183</v>
-      </c>
-      <c r="AX2" s="185" t="s">
-        <v>184</v>
-      </c>
-      <c r="AY2" s="185" t="s">
-        <v>185</v>
-      </c>
-      <c r="AZ2" s="185" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA2" s="187" t="s">
-        <v>178</v>
-      </c>
-      <c r="BB2" s="185" t="s">
-        <v>179</v>
-      </c>
-      <c r="BC2" s="191" t="s">
-        <v>180</v>
-      </c>
-      <c r="BD2" s="192"/>
-      <c r="BE2" s="192"/>
-      <c r="BF2" s="193"/>
-      <c r="BG2" s="191" t="s">
-        <v>181</v>
-      </c>
-      <c r="BH2" s="192"/>
-      <c r="BI2" s="192"/>
-      <c r="BJ2" s="192"/>
-      <c r="BK2" s="185" t="s">
-        <v>182</v>
-      </c>
-      <c r="BL2" s="185" t="s">
-        <v>183</v>
-      </c>
-      <c r="BM2" s="185" t="s">
-        <v>184</v>
-      </c>
-      <c r="BN2" s="185" t="s">
-        <v>185</v>
-      </c>
-      <c r="BO2" s="185" t="s">
-        <v>186</v>
-      </c>
-      <c r="BP2" s="187" t="s">
-        <v>178</v>
-      </c>
-      <c r="BQ2" s="185" t="s">
-        <v>179</v>
-      </c>
-      <c r="BR2" s="191" t="s">
-        <v>180</v>
-      </c>
-      <c r="BS2" s="192"/>
-      <c r="BT2" s="192"/>
-      <c r="BU2" s="193"/>
-      <c r="BV2" s="191" t="s">
-        <v>181</v>
-      </c>
-      <c r="BW2" s="192"/>
-      <c r="BX2" s="192"/>
-      <c r="BY2" s="192"/>
-      <c r="BZ2" s="185" t="s">
-        <v>182</v>
-      </c>
-      <c r="CA2" s="185" t="s">
-        <v>183</v>
-      </c>
-      <c r="CB2" s="185" t="s">
-        <v>184</v>
-      </c>
-      <c r="CC2" s="185" t="s">
-        <v>185</v>
-      </c>
-      <c r="CD2" s="185" t="s">
-        <v>186</v>
-      </c>
-      <c r="CE2" s="187" t="s">
-        <v>178</v>
-      </c>
-      <c r="CF2" s="185" t="s">
-        <v>179</v>
-      </c>
-      <c r="CG2" s="191" t="s">
-        <v>180</v>
-      </c>
-      <c r="CH2" s="192"/>
-      <c r="CI2" s="192"/>
-      <c r="CJ2" s="193"/>
-      <c r="CK2" s="191" t="s">
-        <v>181</v>
-      </c>
-      <c r="CL2" s="192"/>
-      <c r="CM2" s="192"/>
-      <c r="CN2" s="192"/>
-      <c r="CO2" s="185" t="s">
-        <v>182</v>
-      </c>
-      <c r="CP2" s="185" t="s">
-        <v>183</v>
-      </c>
-      <c r="CQ2" s="185" t="s">
-        <v>184</v>
-      </c>
-      <c r="CR2" s="185" t="s">
-        <v>185</v>
-      </c>
-      <c r="CS2" s="185" t="s">
-        <v>186</v>
-      </c>
-      <c r="CT2" s="187" t="s">
-        <v>178</v>
-      </c>
-      <c r="CU2" s="185" t="s">
-        <v>179</v>
-      </c>
-      <c r="CV2" s="191" t="s">
-        <v>180</v>
-      </c>
-      <c r="CW2" s="192"/>
-      <c r="CX2" s="192"/>
-      <c r="CY2" s="193"/>
-      <c r="CZ2" s="191" t="s">
-        <v>181</v>
-      </c>
-      <c r="DA2" s="192"/>
-      <c r="DB2" s="192"/>
-      <c r="DC2" s="192"/>
-      <c r="DD2" s="185" t="s">
-        <v>182</v>
-      </c>
-      <c r="DE2" s="185" t="s">
-        <v>183</v>
-      </c>
-      <c r="DF2" s="185" t="s">
-        <v>184</v>
-      </c>
-      <c r="DG2" s="185" t="s">
-        <v>185</v>
-      </c>
-      <c r="DH2" s="185" t="s">
-        <v>186</v>
-      </c>
-      <c r="DI2" s="187" t="s">
-        <v>178</v>
-      </c>
-      <c r="DJ2" s="185" t="s">
-        <v>179</v>
-      </c>
-      <c r="DK2" s="191" t="s">
-        <v>180</v>
-      </c>
-      <c r="DL2" s="192"/>
-      <c r="DM2" s="192"/>
-      <c r="DN2" s="193"/>
-      <c r="DO2" s="191" t="s">
-        <v>181</v>
-      </c>
-      <c r="DP2" s="192"/>
-      <c r="DQ2" s="192"/>
-      <c r="DR2" s="192"/>
-      <c r="DS2" s="185" t="s">
-        <v>182</v>
-      </c>
-      <c r="DT2" s="185" t="s">
-        <v>183</v>
-      </c>
-      <c r="DU2" s="185" t="s">
-        <v>184</v>
-      </c>
-      <c r="DV2" s="185" t="s">
-        <v>185</v>
-      </c>
-      <c r="DW2" s="187" t="s">
-        <v>186</v>
-      </c>
-      <c r="DX2" s="189" t="s">
-        <v>187</v>
-      </c>
-      <c r="DY2" s="177" t="s">
-        <v>188</v>
-      </c>
-      <c r="DZ2" s="177" t="s">
-        <v>189</v>
-      </c>
-      <c r="EA2" s="177" t="s">
-        <v>381</v>
-      </c>
-      <c r="EB2" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="EC2" s="177" t="s">
-        <v>191</v>
-      </c>
-      <c r="ED2" s="177" t="s">
-        <v>192</v>
-      </c>
-      <c r="EE2" s="177" t="s">
-        <v>193</v>
-      </c>
-      <c r="EF2" s="177" t="s">
-        <v>194</v>
-      </c>
-      <c r="EG2" s="177" t="s">
-        <v>195</v>
-      </c>
-      <c r="EH2" s="177" t="s">
-        <v>196</v>
-      </c>
-      <c r="EI2" s="177" t="s">
-        <v>197</v>
-      </c>
-      <c r="EJ2" s="177" t="s">
-        <v>198</v>
-      </c>
-      <c r="EK2" s="181" t="s">
-        <v>408</v>
-      </c>
-      <c r="EL2" s="177" t="s">
-        <v>199</v>
-      </c>
-      <c r="EM2" s="177" t="s">
-        <v>200</v>
-      </c>
-      <c r="EN2" s="177" t="s">
-        <v>201</v>
-      </c>
-      <c r="EO2" s="177" t="s">
-        <v>202</v>
-      </c>
-      <c r="EP2" s="177" t="s">
-        <v>203</v>
-      </c>
-      <c r="EQ2" s="177" t="s">
-        <v>204</v>
-      </c>
-      <c r="ER2" s="177" t="s">
-        <v>205</v>
-      </c>
-      <c r="ES2" s="177" t="s">
-        <v>206</v>
-      </c>
-      <c r="ET2" s="177" t="s">
-        <v>207</v>
-      </c>
-      <c r="EU2" s="177" t="s">
-        <v>208</v>
-      </c>
-      <c r="EV2" s="177" t="s">
-        <v>209</v>
-      </c>
-      <c r="EW2" s="179" t="s">
-        <v>210</v>
-      </c>
-      <c r="EX2" s="177" t="s">
-        <v>187</v>
-      </c>
-      <c r="EY2" s="177" t="s">
-        <v>188</v>
-      </c>
-      <c r="EZ2" s="177" t="s">
-        <v>189</v>
-      </c>
-      <c r="FA2" s="183" t="s">
-        <v>381</v>
-      </c>
-      <c r="FB2" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="FC2" s="177" t="s">
-        <v>191</v>
-      </c>
-      <c r="FD2" s="177" t="s">
-        <v>192</v>
-      </c>
-      <c r="FE2" s="177" t="s">
-        <v>193</v>
-      </c>
-      <c r="FF2" s="177" t="s">
-        <v>194</v>
-      </c>
-      <c r="FG2" s="177" t="s">
-        <v>195</v>
-      </c>
-      <c r="FH2" s="177" t="s">
-        <v>196</v>
-      </c>
-      <c r="FI2" s="177" t="s">
-        <v>197</v>
-      </c>
-      <c r="FJ2" s="177" t="s">
-        <v>198</v>
-      </c>
-      <c r="FK2" s="177" t="s">
-        <v>408</v>
-      </c>
-      <c r="FL2" s="177" t="s">
-        <v>199</v>
-      </c>
-      <c r="FM2" s="177" t="s">
-        <v>200</v>
-      </c>
-      <c r="FN2" s="177" t="s">
-        <v>201</v>
-      </c>
-      <c r="FO2" s="177" t="s">
-        <v>202</v>
-      </c>
-      <c r="FP2" s="177" t="s">
-        <v>203</v>
-      </c>
-      <c r="FQ2" s="177" t="s">
-        <v>204</v>
-      </c>
-      <c r="FR2" s="177" t="s">
-        <v>205</v>
-      </c>
-      <c r="FS2" s="177" t="s">
-        <v>206</v>
-      </c>
-      <c r="FT2" s="177" t="s">
-        <v>207</v>
-      </c>
-      <c r="FU2" s="177" t="s">
-        <v>208</v>
-      </c>
-      <c r="FV2" s="177" t="s">
-        <v>209</v>
-      </c>
-      <c r="FW2" s="179" t="s">
-        <v>210</v>
-      </c>
-      <c r="FX2" s="177" t="s">
-        <v>187</v>
-      </c>
-      <c r="FY2" s="177" t="s">
-        <v>188</v>
-      </c>
-      <c r="FZ2" s="177" t="s">
-        <v>189</v>
-      </c>
-      <c r="GA2" s="183" t="s">
-        <v>381</v>
-      </c>
-      <c r="GB2" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="GC2" s="177" t="s">
-        <v>191</v>
-      </c>
-      <c r="GD2" s="177" t="s">
-        <v>192</v>
-      </c>
-      <c r="GE2" s="177" t="s">
-        <v>193</v>
-      </c>
-      <c r="GF2" s="177" t="s">
-        <v>194</v>
-      </c>
-      <c r="GG2" s="177" t="s">
-        <v>195</v>
-      </c>
-      <c r="GH2" s="177" t="s">
-        <v>196</v>
-      </c>
-      <c r="GI2" s="177" t="s">
-        <v>197</v>
-      </c>
-      <c r="GJ2" s="177" t="s">
-        <v>198</v>
-      </c>
-      <c r="GK2" s="181" t="s">
-        <v>408</v>
-      </c>
-      <c r="GL2" s="177" t="s">
-        <v>199</v>
-      </c>
-      <c r="GM2" s="177" t="s">
-        <v>200</v>
-      </c>
-      <c r="GN2" s="177" t="s">
-        <v>201</v>
-      </c>
-      <c r="GO2" s="177" t="s">
-        <v>202</v>
-      </c>
-      <c r="GP2" s="177" t="s">
-        <v>203</v>
-      </c>
-      <c r="GQ2" s="177" t="s">
-        <v>204</v>
-      </c>
-      <c r="GR2" s="177" t="s">
-        <v>205</v>
-      </c>
-      <c r="GS2" s="177" t="s">
-        <v>206</v>
-      </c>
-      <c r="GT2" s="177" t="s">
-        <v>207</v>
-      </c>
-      <c r="GU2" s="177" t="s">
-        <v>208</v>
-      </c>
-      <c r="GV2" s="177" t="s">
-        <v>209</v>
-      </c>
-      <c r="GW2" s="179" t="s">
-        <v>210</v>
-      </c>
-      <c r="GX2" s="177" t="s">
-        <v>187</v>
-      </c>
-      <c r="GY2" s="177" t="s">
-        <v>188</v>
-      </c>
-      <c r="GZ2" s="177" t="s">
-        <v>189</v>
-      </c>
-      <c r="HA2" s="183" t="s">
-        <v>381</v>
-      </c>
-      <c r="HB2" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="HC2" s="177" t="s">
-        <v>191</v>
-      </c>
-      <c r="HD2" s="177" t="s">
-        <v>192</v>
-      </c>
-      <c r="HE2" s="177" t="s">
-        <v>193</v>
-      </c>
-      <c r="HF2" s="177" t="s">
-        <v>194</v>
-      </c>
-      <c r="HG2" s="177" t="s">
-        <v>195</v>
-      </c>
-      <c r="HH2" s="177" t="s">
-        <v>196</v>
-      </c>
-      <c r="HI2" s="177" t="s">
-        <v>197</v>
-      </c>
-      <c r="HJ2" s="177" t="s">
-        <v>198</v>
-      </c>
-      <c r="HK2" s="181" t="s">
-        <v>408</v>
-      </c>
-      <c r="HL2" s="177" t="s">
-        <v>199</v>
-      </c>
-      <c r="HM2" s="177" t="s">
-        <v>200</v>
-      </c>
-      <c r="HN2" s="177" t="s">
-        <v>201</v>
-      </c>
-      <c r="HO2" s="177" t="s">
-        <v>202</v>
-      </c>
-      <c r="HP2" s="177" t="s">
-        <v>203</v>
-      </c>
-      <c r="HQ2" s="177" t="s">
-        <v>204</v>
-      </c>
-      <c r="HR2" s="177" t="s">
-        <v>205</v>
-      </c>
-      <c r="HS2" s="177" t="s">
-        <v>206</v>
-      </c>
-      <c r="HT2" s="177" t="s">
-        <v>207</v>
-      </c>
-      <c r="HU2" s="177" t="s">
-        <v>208</v>
-      </c>
-      <c r="HV2" s="177" t="s">
-        <v>209</v>
-      </c>
-      <c r="HW2" s="179" t="s">
-        <v>210</v>
-      </c>
-      <c r="HX2" s="177" t="s">
-        <v>187</v>
-      </c>
-      <c r="HY2" s="177" t="s">
-        <v>188</v>
-      </c>
-      <c r="HZ2" s="177" t="s">
-        <v>189</v>
-      </c>
-      <c r="IA2" s="183" t="s">
-        <v>381</v>
-      </c>
-      <c r="IB2" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="IC2" s="177" t="s">
-        <v>191</v>
-      </c>
-      <c r="ID2" s="177" t="s">
-        <v>192</v>
-      </c>
-      <c r="IE2" s="177" t="s">
-        <v>193</v>
-      </c>
-      <c r="IF2" s="177" t="s">
-        <v>194</v>
-      </c>
-      <c r="IG2" s="177" t="s">
-        <v>195</v>
-      </c>
-      <c r="IH2" s="177" t="s">
-        <v>196</v>
-      </c>
-      <c r="II2" s="177" t="s">
-        <v>197</v>
-      </c>
-      <c r="IJ2" s="177" t="s">
-        <v>198</v>
-      </c>
-      <c r="IK2" s="181" t="s">
-        <v>408</v>
-      </c>
-      <c r="IL2" s="177" t="s">
-        <v>199</v>
-      </c>
-      <c r="IM2" s="177" t="s">
-        <v>200</v>
-      </c>
-      <c r="IN2" s="177" t="s">
-        <v>201</v>
-      </c>
-      <c r="IO2" s="177" t="s">
-        <v>202</v>
-      </c>
-      <c r="IP2" s="177" t="s">
-        <v>203</v>
-      </c>
-      <c r="IQ2" s="177" t="s">
-        <v>204</v>
-      </c>
-      <c r="IR2" s="177" t="s">
-        <v>205</v>
-      </c>
-      <c r="IS2" s="177" t="s">
-        <v>206</v>
-      </c>
-      <c r="IT2" s="177" t="s">
-        <v>207</v>
-      </c>
-      <c r="IU2" s="177" t="s">
-        <v>208</v>
-      </c>
-      <c r="IV2" s="177" t="s">
-        <v>209</v>
-      </c>
-      <c r="IW2" s="179" t="s">
-        <v>210</v>
-      </c>
-      <c r="IX2" s="158" t="s">
-        <v>38</v>
-      </c>
-      <c r="IY2" s="158"/>
-      <c r="IZ2" s="158"/>
-      <c r="JA2" s="158"/>
-      <c r="JB2" s="158"/>
-      <c r="JC2" s="158" t="s">
-        <v>211</v>
-      </c>
-      <c r="JD2" s="158"/>
-      <c r="JE2" s="158"/>
-      <c r="JF2" s="158"/>
-      <c r="JG2" s="158"/>
-      <c r="JH2" s="175" t="s">
-        <v>9</v>
-      </c>
-      <c r="JI2" s="176"/>
-      <c r="JJ2" s="175" t="s">
-        <v>12</v>
-      </c>
-      <c r="JK2" s="176"/>
-      <c r="JL2" s="175" t="s">
-        <v>13</v>
-      </c>
-      <c r="JM2" s="176"/>
-      <c r="JN2" s="175" t="s">
-        <v>14</v>
-      </c>
-      <c r="JO2" s="176"/>
-      <c r="JP2" s="175" t="s">
-        <v>15</v>
-      </c>
-      <c r="JQ2" s="176"/>
-      <c r="JR2" s="173" t="s">
-        <v>237</v>
-      </c>
-      <c r="JS2" s="168" t="s">
-        <v>9</v>
-      </c>
-      <c r="JT2" s="169"/>
-      <c r="JU2" s="168" t="s">
-        <v>12</v>
-      </c>
-      <c r="JV2" s="169"/>
-      <c r="JW2" s="168" t="s">
-        <v>13</v>
-      </c>
-      <c r="JX2" s="169"/>
-      <c r="JY2" s="168" t="s">
-        <v>14</v>
-      </c>
-      <c r="JZ2" s="169"/>
-      <c r="KA2" s="168" t="s">
-        <v>15</v>
-      </c>
-      <c r="KB2" s="169"/>
-      <c r="KC2" s="171" t="s">
-        <v>237</v>
-      </c>
-      <c r="KD2" s="173" t="s">
+      <c r="LG2" s="165"/>
+      <c r="LH2" s="165"/>
+      <c r="LI2" s="165"/>
+      <c r="LJ2" s="165"/>
+      <c r="LK2" s="163"/>
+      <c r="LL2" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="KE2" s="170" t="s">
-        <v>19</v>
-      </c>
-      <c r="KF2" s="165"/>
-      <c r="KG2" s="165" t="s">
-        <v>330</v>
-      </c>
-      <c r="KH2" s="165"/>
-      <c r="KI2" s="173" t="s">
-        <v>385</v>
-      </c>
-      <c r="KJ2" s="166" t="s">
-        <v>400</v>
-      </c>
-      <c r="KK2" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="KL2" s="162"/>
-      <c r="KM2" s="162"/>
-      <c r="KN2" s="164"/>
-      <c r="KO2" s="162" t="s">
-        <v>22</v>
-      </c>
-      <c r="KP2" s="162"/>
-      <c r="KQ2" s="162"/>
-      <c r="KR2" s="162"/>
-      <c r="KS2" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="KT2" s="164"/>
-      <c r="KU2" s="162" t="s">
-        <v>24</v>
-      </c>
-      <c r="KV2" s="162"/>
-      <c r="KW2" s="163" t="s">
-        <v>25</v>
-      </c>
-      <c r="KX2" s="164"/>
-      <c r="KY2" s="162" t="s">
-        <v>26</v>
-      </c>
-      <c r="KZ2" s="162"/>
-      <c r="LA2" s="163" t="s">
-        <v>27</v>
-      </c>
-      <c r="LB2" s="162"/>
-      <c r="LC2" s="162"/>
-      <c r="LD2" s="162"/>
-      <c r="LE2" s="164"/>
-      <c r="LF2" s="158" t="s">
+      <c r="LM2" s="165"/>
+      <c r="LN2" s="165"/>
+      <c r="LO2" s="165"/>
+      <c r="LP2" s="165"/>
+      <c r="LQ2" s="165"/>
+      <c r="LR2" s="167" t="s">
         <v>33</v>
-      </c>
-      <c r="LG2" s="158"/>
-      <c r="LH2" s="158"/>
-      <c r="LI2" s="158"/>
-      <c r="LJ2" s="158"/>
-      <c r="LK2" s="159"/>
-      <c r="LL2" s="158" t="s">
-        <v>39</v>
-      </c>
-      <c r="LM2" s="158"/>
-      <c r="LN2" s="158"/>
-      <c r="LO2" s="158"/>
-      <c r="LP2" s="158"/>
-      <c r="LQ2" s="158"/>
-      <c r="LR2" s="160" t="s">
-        <v>35</v>
       </c>
       <c r="LS2" s="59"/>
       <c r="LT2" s="6"/>
     </row>
     <row r="3" spans="1:332" s="5" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="194"/>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="186"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="171"/>
       <c r="J3" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="L3" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="M3" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="K3" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="L3" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="M3" s="141" t="s">
-        <v>215</v>
-      </c>
       <c r="N3" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="O3" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="P3" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q3" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="O3" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="P3" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q3" s="142" t="s">
-        <v>215</v>
-      </c>
-      <c r="R3" s="186"/>
-      <c r="S3" s="186"/>
-      <c r="T3" s="186"/>
-      <c r="U3" s="186"/>
-      <c r="V3" s="186"/>
-      <c r="W3" s="188"/>
-      <c r="X3" s="186"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="173"/>
+      <c r="X3" s="171"/>
       <c r="Y3" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z3" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA3" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB3" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="Z3" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA3" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB3" s="141" t="s">
-        <v>215</v>
-      </c>
       <c r="AC3" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD3" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE3" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF3" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="AD3" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE3" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF3" s="142" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG3" s="186"/>
-      <c r="AH3" s="186"/>
-      <c r="AI3" s="186"/>
-      <c r="AJ3" s="186"/>
-      <c r="AK3" s="186"/>
-      <c r="AL3" s="188"/>
-      <c r="AM3" s="186"/>
+      <c r="AG3" s="171"/>
+      <c r="AH3" s="171"/>
+      <c r="AI3" s="171"/>
+      <c r="AJ3" s="171"/>
+      <c r="AK3" s="171"/>
+      <c r="AL3" s="173"/>
+      <c r="AM3" s="171"/>
       <c r="AN3" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO3" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP3" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ3" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="AO3" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="AP3" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ3" s="141" t="s">
-        <v>215</v>
-      </c>
       <c r="AR3" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="AS3" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT3" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU3" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="AS3" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="AT3" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="AU3" s="142" t="s">
-        <v>215</v>
-      </c>
-      <c r="AV3" s="186"/>
-      <c r="AW3" s="186"/>
-      <c r="AX3" s="186"/>
-      <c r="AY3" s="186"/>
-      <c r="AZ3" s="186"/>
-      <c r="BA3" s="188"/>
-      <c r="BB3" s="186"/>
+      <c r="AV3" s="171"/>
+      <c r="AW3" s="171"/>
+      <c r="AX3" s="171"/>
+      <c r="AY3" s="171"/>
+      <c r="AZ3" s="171"/>
+      <c r="BA3" s="173"/>
+      <c r="BB3" s="171"/>
       <c r="BC3" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="BD3" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE3" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF3" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="BD3" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE3" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="BF3" s="141" t="s">
-        <v>215</v>
-      </c>
       <c r="BG3" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="BH3" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="BI3" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="BJ3" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="BH3" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="BI3" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="BJ3" s="142" t="s">
-        <v>215</v>
-      </c>
-      <c r="BK3" s="186"/>
-      <c r="BL3" s="186"/>
-      <c r="BM3" s="186"/>
-      <c r="BN3" s="186"/>
-      <c r="BO3" s="186"/>
-      <c r="BP3" s="188"/>
-      <c r="BQ3" s="186"/>
+      <c r="BK3" s="171"/>
+      <c r="BL3" s="171"/>
+      <c r="BM3" s="171"/>
+      <c r="BN3" s="171"/>
+      <c r="BO3" s="171"/>
+      <c r="BP3" s="173"/>
+      <c r="BQ3" s="171"/>
       <c r="BR3" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="BS3" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="BT3" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="BU3" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="BS3" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="BT3" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="BU3" s="141" t="s">
-        <v>215</v>
-      </c>
       <c r="BV3" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="BW3" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="BX3" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="BY3" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="BW3" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="BX3" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="BY3" s="142" t="s">
-        <v>215</v>
-      </c>
-      <c r="BZ3" s="186"/>
-      <c r="CA3" s="186"/>
-      <c r="CB3" s="186"/>
-      <c r="CC3" s="186"/>
-      <c r="CD3" s="186"/>
-      <c r="CE3" s="188"/>
-      <c r="CF3" s="186"/>
+      <c r="BZ3" s="171"/>
+      <c r="CA3" s="171"/>
+      <c r="CB3" s="171"/>
+      <c r="CC3" s="171"/>
+      <c r="CD3" s="171"/>
+      <c r="CE3" s="173"/>
+      <c r="CF3" s="171"/>
       <c r="CG3" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="CH3" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="CI3" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="CJ3" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="CH3" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="CI3" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="CJ3" s="141" t="s">
-        <v>215</v>
-      </c>
       <c r="CK3" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="CL3" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="CM3" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="CN3" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="CL3" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="CM3" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="CN3" s="142" t="s">
-        <v>215</v>
-      </c>
-      <c r="CO3" s="186"/>
-      <c r="CP3" s="186"/>
-      <c r="CQ3" s="186"/>
-      <c r="CR3" s="186"/>
-      <c r="CS3" s="186"/>
-      <c r="CT3" s="188"/>
-      <c r="CU3" s="186"/>
+      <c r="CO3" s="171"/>
+      <c r="CP3" s="171"/>
+      <c r="CQ3" s="171"/>
+      <c r="CR3" s="171"/>
+      <c r="CS3" s="171"/>
+      <c r="CT3" s="173"/>
+      <c r="CU3" s="171"/>
       <c r="CV3" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="CW3" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="CX3" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="CY3" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="CW3" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="CX3" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="CY3" s="141" t="s">
-        <v>215</v>
-      </c>
       <c r="CZ3" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="DA3" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="DB3" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="DC3" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="DA3" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="DB3" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="DC3" s="142" t="s">
-        <v>215</v>
-      </c>
-      <c r="DD3" s="186"/>
-      <c r="DE3" s="186"/>
-      <c r="DF3" s="186"/>
-      <c r="DG3" s="186"/>
-      <c r="DH3" s="186"/>
-      <c r="DI3" s="188"/>
-      <c r="DJ3" s="186"/>
+      <c r="DD3" s="171"/>
+      <c r="DE3" s="171"/>
+      <c r="DF3" s="171"/>
+      <c r="DG3" s="171"/>
+      <c r="DH3" s="171"/>
+      <c r="DI3" s="173"/>
+      <c r="DJ3" s="171"/>
       <c r="DK3" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="DL3" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="DM3" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="DN3" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="DL3" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="DM3" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="DN3" s="141" t="s">
-        <v>215</v>
-      </c>
       <c r="DO3" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="DP3" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="DQ3" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="DR3" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="DP3" s="141" t="s">
-        <v>213</v>
-      </c>
-      <c r="DQ3" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="DR3" s="142" t="s">
-        <v>215</v>
-      </c>
-      <c r="DS3" s="186"/>
-      <c r="DT3" s="186"/>
-      <c r="DU3" s="186"/>
-      <c r="DV3" s="186"/>
-      <c r="DW3" s="188"/>
-      <c r="DX3" s="190"/>
+      <c r="DS3" s="171"/>
+      <c r="DT3" s="171"/>
+      <c r="DU3" s="171"/>
+      <c r="DV3" s="171"/>
+      <c r="DW3" s="173"/>
+      <c r="DX3" s="180"/>
       <c r="DY3" s="178"/>
       <c r="DZ3" s="178"/>
       <c r="EA3" s="178"/>
@@ -5200,11 +5184,11 @@
       <c r="ET3" s="178"/>
       <c r="EU3" s="178"/>
       <c r="EV3" s="178"/>
-      <c r="EW3" s="180"/>
+      <c r="EW3" s="184"/>
       <c r="EX3" s="178"/>
       <c r="EY3" s="178"/>
       <c r="EZ3" s="178"/>
-      <c r="FA3" s="184"/>
+      <c r="FA3" s="186"/>
       <c r="FB3" s="178"/>
       <c r="FC3" s="178"/>
       <c r="FD3" s="178"/>
@@ -5226,11 +5210,11 @@
       <c r="FT3" s="178"/>
       <c r="FU3" s="178"/>
       <c r="FV3" s="178"/>
-      <c r="FW3" s="180"/>
+      <c r="FW3" s="184"/>
       <c r="FX3" s="178"/>
       <c r="FY3" s="178"/>
       <c r="FZ3" s="178"/>
-      <c r="GA3" s="184"/>
+      <c r="GA3" s="186"/>
       <c r="GB3" s="178"/>
       <c r="GC3" s="178"/>
       <c r="GD3" s="178"/>
@@ -5252,11 +5236,11 @@
       <c r="GT3" s="178"/>
       <c r="GU3" s="178"/>
       <c r="GV3" s="178"/>
-      <c r="GW3" s="180"/>
+      <c r="GW3" s="184"/>
       <c r="GX3" s="178"/>
       <c r="GY3" s="178"/>
       <c r="GZ3" s="178"/>
-      <c r="HA3" s="184"/>
+      <c r="HA3" s="186"/>
       <c r="HB3" s="178"/>
       <c r="HC3" s="178"/>
       <c r="HD3" s="178"/>
@@ -5278,11 +5262,11 @@
       <c r="HT3" s="178"/>
       <c r="HU3" s="178"/>
       <c r="HV3" s="178"/>
-      <c r="HW3" s="180"/>
+      <c r="HW3" s="184"/>
       <c r="HX3" s="178"/>
       <c r="HY3" s="178"/>
       <c r="HZ3" s="178"/>
-      <c r="IA3" s="184"/>
+      <c r="IA3" s="186"/>
       <c r="IB3" s="178"/>
       <c r="IC3" s="178"/>
       <c r="ID3" s="178"/>
@@ -5304,225 +5288,225 @@
       <c r="IT3" s="178"/>
       <c r="IU3" s="178"/>
       <c r="IV3" s="178"/>
-      <c r="IW3" s="180"/>
+      <c r="IW3" s="184"/>
       <c r="IX3" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="IY3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="IZ3" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="JA3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="JB3" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="JC3" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="JD3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="JE3" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="JF3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="JG3" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="JH3" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="JI3" s="144" t="s">
+        <v>233</v>
+      </c>
+      <c r="JJ3" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="JK3" s="144" t="s">
+        <v>233</v>
+      </c>
+      <c r="JL3" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="JM3" s="144" t="s">
+        <v>233</v>
+      </c>
+      <c r="JN3" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="JO3" s="144" t="s">
+        <v>233</v>
+      </c>
+      <c r="JP3" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="JQ3" s="145" t="s">
+        <v>233</v>
+      </c>
+      <c r="JR3" s="192"/>
+      <c r="JS3" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="JT3" s="144" t="s">
+        <v>233</v>
+      </c>
+      <c r="JU3" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="JV3" s="144" t="s">
+        <v>233</v>
+      </c>
+      <c r="JW3" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="JX3" s="144" t="s">
+        <v>233</v>
+      </c>
+      <c r="JY3" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="JZ3" s="144" t="s">
+        <v>233</v>
+      </c>
+      <c r="KA3" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="KB3" s="144" t="s">
+        <v>233</v>
+      </c>
+      <c r="KC3" s="200"/>
+      <c r="KD3" s="192"/>
+      <c r="KE3" s="146" t="s">
+        <v>16</v>
+      </c>
+      <c r="KF3" s="147" t="s">
+        <v>217</v>
+      </c>
+      <c r="KG3" s="144" t="s">
+        <v>328</v>
+      </c>
+      <c r="KH3" s="147" t="s">
+        <v>218</v>
+      </c>
+      <c r="KI3" s="192"/>
+      <c r="KJ3" s="195"/>
+      <c r="KK3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="KL3" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="KM3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="KN3" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="KO3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="KP3" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="KQ3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="KR3" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="KS3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="KT3" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="KU3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="KV3" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="KW3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="KX3" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="KY3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="KZ3" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="LA3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="LB3" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="LC3" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="LD3" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="LE3" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="LF3" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="LG3" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="LH3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="LI3" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="LJ3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="LK3" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="IY3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="IZ3" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="JA3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="JB3" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="JC3" s="62" t="s">
+      <c r="LL3" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="LM3" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="LN3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="LO3" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="LP3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="LQ3" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="JD3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="JE3" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="JF3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="JG3" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="JH3" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="JI3" s="144" t="s">
-        <v>236</v>
-      </c>
-      <c r="JJ3" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="JK3" s="144" t="s">
-        <v>236</v>
-      </c>
-      <c r="JL3" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="JM3" s="144" t="s">
-        <v>236</v>
-      </c>
-      <c r="JN3" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="JO3" s="144" t="s">
-        <v>236</v>
-      </c>
-      <c r="JP3" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="JQ3" s="145" t="s">
-        <v>236</v>
-      </c>
-      <c r="JR3" s="174"/>
-      <c r="JS3" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="JT3" s="144" t="s">
-        <v>236</v>
-      </c>
-      <c r="JU3" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="JV3" s="144" t="s">
-        <v>236</v>
-      </c>
-      <c r="JW3" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="JX3" s="144" t="s">
-        <v>236</v>
-      </c>
-      <c r="JY3" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="JZ3" s="144" t="s">
-        <v>236</v>
-      </c>
-      <c r="KA3" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="KB3" s="144" t="s">
-        <v>236</v>
-      </c>
-      <c r="KC3" s="172"/>
-      <c r="KD3" s="174"/>
-      <c r="KE3" s="146" t="s">
-        <v>18</v>
-      </c>
-      <c r="KF3" s="147" t="s">
-        <v>220</v>
-      </c>
-      <c r="KG3" s="144" t="s">
-        <v>331</v>
-      </c>
-      <c r="KH3" s="147" t="s">
-        <v>221</v>
-      </c>
-      <c r="KI3" s="174"/>
-      <c r="KJ3" s="167"/>
-      <c r="KK3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="KL3" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="KM3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="KN3" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="KO3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="KP3" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="KQ3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="KR3" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="KS3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="KT3" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="KU3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="KV3" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="KW3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="KX3" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="KY3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="KZ3" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="LA3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="LB3" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="LC3" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="LD3" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="LE3" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="LF3" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="LG3" s="63" t="s">
-        <v>403</v>
-      </c>
-      <c r="LH3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="LI3" s="63" t="s">
-        <v>228</v>
-      </c>
-      <c r="LJ3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="LK3" s="64" t="s">
-        <v>219</v>
-      </c>
-      <c r="LL3" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="LM3" s="63" t="s">
-        <v>403</v>
-      </c>
-      <c r="LN3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="LO3" s="63" t="s">
-        <v>228</v>
-      </c>
-      <c r="LP3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="LQ3" s="64" t="s">
-        <v>219</v>
-      </c>
-      <c r="LR3" s="161"/>
+      <c r="LR3" s="168"/>
       <c r="LS3" s="7"/>
     </row>
     <row r="4" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="66" t="s">
         <v>147</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>149</v>
       </c>
       <c r="D4" s="66">
         <v>2887.81</v>
@@ -5705,7 +5689,7 @@
       <c r="DR4" s="67"/>
       <c r="DS4" s="67"/>
       <c r="DX4" s="69" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="DY4" s="66">
         <v>312.5</v>
@@ -5723,22 +5707,22 @@
         <v>4</v>
       </c>
       <c r="EG4" s="140" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="EI4" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="EJ4" s="66">
         <v>0</v>
       </c>
       <c r="EL4" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="EM4" s="66">
         <v>0</v>
       </c>
       <c r="EN4" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="EO4" s="66">
         <v>130</v>
@@ -5747,10 +5731,10 @@
         <v>37</v>
       </c>
       <c r="EQ4" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="ER4" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="ES4" s="66">
         <v>0</v>
@@ -5765,10 +5749,10 @@
         <v>0</v>
       </c>
       <c r="EW4" s="66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="EX4" s="65" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="EY4" s="66">
         <v>106</v>
@@ -5786,22 +5770,22 @@
         <v>4</v>
       </c>
       <c r="FG4" s="74" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="FI4" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="FJ4" s="66">
         <v>0</v>
       </c>
       <c r="FL4" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="FM4" s="66">
         <v>0</v>
       </c>
       <c r="FN4" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="FO4" s="66">
         <v>80</v>
@@ -5810,10 +5794,10 @@
         <v>37</v>
       </c>
       <c r="FQ4" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="FR4" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="FS4" s="66">
         <v>0</v>
@@ -5828,26 +5812,26 @@
         <v>0</v>
       </c>
       <c r="FW4" s="66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="FX4" s="65"/>
       <c r="GX4" s="65"/>
       <c r="HX4" s="65"/>
       <c r="IX4" s="65"/>
       <c r="JC4" s="65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="JD4" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="JE4" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="JF4" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="JG4" s="68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="JH4" s="70"/>
       <c r="JI4" s="67"/>
@@ -5878,72 +5862,72 @@
       <c r="KH4" s="71"/>
       <c r="KI4" s="70"/>
       <c r="KJ4" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="KK4" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="KK4" s="65" t="s">
-        <v>152</v>
-      </c>
       <c r="KO4" s="65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="KP4" s="66">
         <v>2019</v>
       </c>
       <c r="KR4" s="68"/>
       <c r="KS4" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="KU4" s="65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="KV4" s="68"/>
       <c r="KW4" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="KY4" s="65" t="s">
         <v>150</v>
-      </c>
-      <c r="KY4" s="65" t="s">
-        <v>152</v>
       </c>
       <c r="KZ4" s="68"/>
       <c r="LA4" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="LF4" s="65" t="s">
         <v>150</v>
-      </c>
-      <c r="LF4" s="65" t="s">
-        <v>152</v>
       </c>
       <c r="LG4" s="102"/>
       <c r="LH4" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="LI4" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="LL4" s="65" t="s">
         <v>150</v>
-      </c>
-      <c r="LI4" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="LL4" s="65" t="s">
-        <v>152</v>
       </c>
       <c r="LM4" s="102"/>
       <c r="LN4" s="66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="LO4" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="LQ4" s="68" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="LR4" s="65" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="LS4" s="65"/>
     </row>
     <row r="5" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="66">
         <v>2570</v>
@@ -6271,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="DX5" s="69" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="DY5" s="66">
         <v>375.3</v>
@@ -6298,13 +6282,13 @@
         <v>4</v>
       </c>
       <c r="EG5" s="66" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="EH5" s="74" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="EI5" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="EJ5" s="66">
         <v>0</v>
@@ -6313,13 +6297,13 @@
         <v>350</v>
       </c>
       <c r="EL5" s="66" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="EM5" s="74">
         <v>0.8</v>
       </c>
       <c r="EN5" s="74" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="EO5" s="74">
         <v>120</v>
@@ -6328,10 +6312,10 @@
         <v>33</v>
       </c>
       <c r="EQ5" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="ER5" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="ES5" s="66">
         <v>0</v>
@@ -6346,10 +6330,10 @@
         <v>0</v>
       </c>
       <c r="EW5" s="66" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="EX5" s="65" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="EY5" s="66">
         <v>103</v>
@@ -6376,13 +6360,13 @@
         <v>4</v>
       </c>
       <c r="FG5" s="66" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="FH5" s="74" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="FI5" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="FJ5" s="66">
         <v>0</v>
@@ -6391,13 +6375,13 @@
         <v>350</v>
       </c>
       <c r="FL5" s="74" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="FM5" s="74">
         <v>0.8</v>
       </c>
       <c r="FN5" s="74" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="FO5" s="74">
         <v>50</v>
@@ -6406,10 +6390,10 @@
         <v>33</v>
       </c>
       <c r="FQ5" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="FR5" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="FS5" s="66">
         <v>0</v>
@@ -6424,10 +6408,10 @@
         <v>0</v>
       </c>
       <c r="FW5" s="66" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="FX5" s="65" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="FY5" s="66">
         <v>33.5</v>
@@ -6454,13 +6438,13 @@
         <v>4</v>
       </c>
       <c r="GG5" s="66" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="GH5" s="74" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="GI5" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="GJ5" s="66">
         <v>0</v>
@@ -6469,13 +6453,13 @@
         <v>350</v>
       </c>
       <c r="GL5" s="74" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="GM5" s="74">
         <v>0.8</v>
       </c>
       <c r="GN5" s="74" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="GO5" s="74">
         <v>21</v>
@@ -6484,10 +6468,10 @@
         <v>33</v>
       </c>
       <c r="GQ5" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="GR5" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="GS5" s="66">
         <v>0</v>
@@ -6502,46 +6486,46 @@
         <v>0</v>
       </c>
       <c r="GW5" s="66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="GX5" s="65"/>
       <c r="HX5" s="65"/>
       <c r="IX5" s="65"/>
       <c r="JC5" s="65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="JD5" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="JE5" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="JF5" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="JG5" s="68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="JH5" s="65" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="JI5" s="102">
         <v>11.5</v>
       </c>
       <c r="JJ5" s="102" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="JK5" s="102">
         <v>0.2</v>
       </c>
       <c r="JL5" s="102" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="JM5" s="102">
         <v>20</v>
       </c>
       <c r="JN5" s="102" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="JO5" s="102">
         <v>24</v>
@@ -6549,28 +6533,28 @@
       <c r="JP5" s="102"/>
       <c r="JQ5" s="102"/>
       <c r="JR5" s="104" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="JS5" s="65" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="JT5" s="102">
         <v>6.5</v>
       </c>
       <c r="JU5" s="102" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="JV5" s="102">
         <v>1</v>
       </c>
       <c r="JW5" s="102" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="JX5" s="102">
         <v>18</v>
       </c>
       <c r="JY5" s="102" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="JZ5" s="102">
         <v>25</v>
@@ -6578,82 +6562,82 @@
       <c r="KA5" s="102"/>
       <c r="KB5" s="68"/>
       <c r="KC5" s="65" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="KD5" s="65" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="KE5" s="102" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="KF5" s="102"/>
       <c r="KG5" s="102" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="KH5" s="68">
         <v>24</v>
       </c>
       <c r="KI5" s="65" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="KJ5" s="68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="KK5" s="65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="KL5" s="66">
         <v>2018</v>
       </c>
       <c r="KM5" s="66" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="KO5" s="65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="KP5" s="66">
         <v>2018</v>
       </c>
       <c r="KQ5" s="66" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="KR5" s="68"/>
       <c r="KS5" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="KU5" s="65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="KV5" s="68"/>
       <c r="KW5" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="KY5" s="65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="KZ5" s="68"/>
       <c r="LA5" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="LF5" s="65" t="s">
         <v>150</v>
-      </c>
-      <c r="LF5" s="65" t="s">
-        <v>152</v>
       </c>
       <c r="LG5" s="102"/>
       <c r="LH5" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="LI5" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="LL5" s="65" t="s">
         <v>150</v>
-      </c>
-      <c r="LI5" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="LL5" s="65" t="s">
-        <v>152</v>
       </c>
       <c r="LM5" s="102"/>
       <c r="LN5" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="LO5" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="LQ5" s="68"/>
       <c r="LR5" s="65"/>
@@ -6661,13 +6645,13 @@
     </row>
     <row r="6" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D6" s="66">
         <v>2887.81</v>
@@ -6812,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="DX6" s="69" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="DY6" s="66">
         <v>312.5</v>
@@ -6839,22 +6823,22 @@
         <v>4</v>
       </c>
       <c r="EG6" s="66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="EI6" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="EJ6" s="66">
         <v>0</v>
       </c>
       <c r="EL6" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="EM6" s="66">
         <v>0</v>
       </c>
       <c r="EN6" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="EO6" s="66">
         <v>130</v>
@@ -6863,10 +6847,10 @@
         <v>30</v>
       </c>
       <c r="EQ6" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="ER6" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="ES6" s="66">
         <v>0</v>
@@ -6881,10 +6865,10 @@
         <v>0</v>
       </c>
       <c r="EW6" s="66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="EX6" s="65" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="EY6" s="66">
         <v>100</v>
@@ -6911,22 +6895,22 @@
         <v>4</v>
       </c>
       <c r="FG6" s="66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="FI6" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="FJ6" s="66">
         <v>0</v>
       </c>
       <c r="FL6" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="FM6" s="66">
         <v>0</v>
       </c>
       <c r="FN6" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="FO6" s="66">
         <v>80</v>
@@ -6935,10 +6919,10 @@
         <v>30</v>
       </c>
       <c r="FQ6" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="FR6" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="FS6" s="66">
         <v>0</v>
@@ -6953,10 +6937,10 @@
         <v>0</v>
       </c>
       <c r="FW6" s="66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="FX6" s="65" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="FY6" s="66">
         <v>125</v>
@@ -6986,40 +6970,40 @@
       <c r="HX6" s="65"/>
       <c r="IX6" s="65"/>
       <c r="JC6" s="65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="JD6" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="JE6" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="JF6" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="JG6" s="68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="JH6" s="65" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="JI6" s="102">
         <v>10</v>
       </c>
       <c r="JJ6" s="102" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="JK6" s="102">
         <v>1</v>
       </c>
       <c r="JL6" s="102" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="JM6" s="102">
         <v>12.5</v>
       </c>
       <c r="JN6" s="102" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="JO6" s="102">
         <v>2</v>
@@ -7027,28 +7011,28 @@
       <c r="JP6" s="102"/>
       <c r="JQ6" s="102"/>
       <c r="JR6" s="104" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="JS6" s="65" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="JT6" s="102">
         <v>2.5</v>
       </c>
       <c r="JU6" s="102" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="JV6" s="102">
         <v>2</v>
       </c>
       <c r="JW6" s="102" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="JX6" s="102">
         <v>15</v>
       </c>
       <c r="JY6" s="102" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="JZ6" s="102">
         <v>30</v>
@@ -7056,38 +7040,38 @@
       <c r="KA6" s="102"/>
       <c r="KB6" s="68"/>
       <c r="KC6" s="65" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="KD6" s="65" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="KE6" s="102" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="KF6" s="102"/>
       <c r="KG6" s="102" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="KH6" s="68">
         <v>15</v>
       </c>
       <c r="KI6" s="65" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="KJ6" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="KK6" s="65" t="s">
         <v>150</v>
-      </c>
-      <c r="KK6" s="65" t="s">
-        <v>152</v>
       </c>
       <c r="KL6" s="66">
         <v>2019</v>
       </c>
       <c r="KM6" s="66" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="KO6" s="65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="KP6" s="66">
         <v>2019</v>
@@ -7096,47 +7080,47 @@
       <c r="KU6" s="65"/>
       <c r="KV6" s="68"/>
       <c r="KY6" s="65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="KZ6" s="68"/>
       <c r="LA6" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="LF6" s="65" t="s">
         <v>150</v>
-      </c>
-      <c r="LF6" s="65" t="s">
-        <v>152</v>
       </c>
       <c r="LG6" s="102"/>
       <c r="LH6" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="LI6" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="LL6" s="65" t="s">
         <v>150</v>
-      </c>
-      <c r="LI6" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="LL6" s="65" t="s">
-        <v>152</v>
       </c>
       <c r="LM6" s="102"/>
       <c r="LN6" s="66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="LO6" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="LQ6" s="68"/>
       <c r="LR6" s="65" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="LS6" s="65"/>
     </row>
     <row r="7" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="66">
         <v>3023.57</v>
@@ -7423,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="DX7" s="69" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="DY7" s="66">
         <v>425</v>
@@ -7447,13 +7431,13 @@
         <v>54.16</v>
       </c>
       <c r="EG7" s="66" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="EI7" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="ER7" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="ES7" s="66">
         <v>0</v>
@@ -7468,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="EX7" s="65" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="EY7" s="66">
         <v>108</v>
@@ -7492,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="FG7" s="66" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="FR7" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="FS7" s="66">
         <v>0</v>
@@ -7538,7 +7522,7 @@
       <c r="KB7" s="68"/>
       <c r="KC7" s="65"/>
       <c r="KD7" s="65" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="KE7" s="102"/>
       <c r="KF7" s="102"/>
@@ -7546,57 +7530,57 @@
       <c r="KH7" s="68"/>
       <c r="KI7" s="65"/>
       <c r="KJ7" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="KK7" s="65" t="s">
         <v>150</v>
-      </c>
-      <c r="KK7" s="65" t="s">
-        <v>152</v>
       </c>
       <c r="KL7" s="66">
         <v>2016</v>
       </c>
       <c r="KO7" s="65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="KP7" s="66">
         <v>2016</v>
       </c>
       <c r="KR7" s="68"/>
       <c r="KS7" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="KU7" s="65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="KV7" s="68"/>
       <c r="KW7" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="KY7" s="65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="KZ7" s="68"/>
       <c r="LA7" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="LF7" s="65" t="s">
         <v>150</v>
-      </c>
-      <c r="LF7" s="65" t="s">
-        <v>152</v>
       </c>
       <c r="LG7" s="102"/>
       <c r="LH7" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="LI7" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="LL7" s="65" t="s">
         <v>150</v>
-      </c>
-      <c r="LI7" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="LL7" s="65" t="s">
-        <v>152</v>
       </c>
       <c r="LM7" s="102"/>
       <c r="LN7" s="66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="LO7" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="LQ7" s="68"/>
       <c r="LR7" s="65"/>
@@ -7604,13 +7588,13 @@
     </row>
     <row r="8" spans="1:332" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" s="66">
         <v>2990.19</v>
@@ -7980,13 +7964,13 @@
         <v>147.16999999999999</v>
       </c>
       <c r="DX8" s="69" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="DY8" s="66">
         <v>416.5</v>
       </c>
       <c r="EX8" s="65" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="FX8" s="65"/>
       <c r="GX8" s="65"/>
@@ -14480,17 +14464,232 @@
     </row>
   </sheetData>
   <mergeCells count="261">
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:AK1"/>
-    <mergeCell ref="AL1:AZ1"/>
-    <mergeCell ref="BA1:BO1"/>
-    <mergeCell ref="JS1:KC1"/>
-    <mergeCell ref="KD1:KH1"/>
-    <mergeCell ref="KI1:KJ1"/>
-    <mergeCell ref="KK1:LE1"/>
-    <mergeCell ref="LF1:LQ1"/>
-    <mergeCell ref="JC1:JG1"/>
-    <mergeCell ref="JH1:JR1"/>
+    <mergeCell ref="LF2:LK2"/>
+    <mergeCell ref="LL2:LQ2"/>
+    <mergeCell ref="LR2:LR3"/>
+    <mergeCell ref="KO2:KR2"/>
+    <mergeCell ref="KS2:KT2"/>
+    <mergeCell ref="KU2:KV2"/>
+    <mergeCell ref="KW2:KX2"/>
+    <mergeCell ref="KY2:KZ2"/>
+    <mergeCell ref="LA2:LE2"/>
+    <mergeCell ref="KG2:KH2"/>
+    <mergeCell ref="KJ2:KJ3"/>
+    <mergeCell ref="KK2:KN2"/>
+    <mergeCell ref="JW2:JX2"/>
+    <mergeCell ref="JY2:JZ2"/>
+    <mergeCell ref="KA2:KB2"/>
+    <mergeCell ref="KE2:KF2"/>
+    <mergeCell ref="KC2:KC3"/>
+    <mergeCell ref="KD2:KD3"/>
+    <mergeCell ref="KI2:KI3"/>
+    <mergeCell ref="JL2:JM2"/>
+    <mergeCell ref="JN2:JO2"/>
+    <mergeCell ref="JP2:JQ2"/>
+    <mergeCell ref="JS2:JT2"/>
+    <mergeCell ref="JU2:JV2"/>
+    <mergeCell ref="IV2:IV3"/>
+    <mergeCell ref="IW2:IW3"/>
+    <mergeCell ref="IX2:JB2"/>
+    <mergeCell ref="JC2:JG2"/>
+    <mergeCell ref="JH2:JI2"/>
+    <mergeCell ref="JJ2:JK2"/>
+    <mergeCell ref="JR2:JR3"/>
+    <mergeCell ref="IP2:IP3"/>
+    <mergeCell ref="IQ2:IQ3"/>
+    <mergeCell ref="IR2:IR3"/>
+    <mergeCell ref="IS2:IS3"/>
+    <mergeCell ref="IT2:IT3"/>
+    <mergeCell ref="IU2:IU3"/>
+    <mergeCell ref="II2:II3"/>
+    <mergeCell ref="IJ2:IJ3"/>
+    <mergeCell ref="IL2:IL3"/>
+    <mergeCell ref="IM2:IM3"/>
+    <mergeCell ref="IN2:IN3"/>
+    <mergeCell ref="IO2:IO3"/>
+    <mergeCell ref="IK2:IK3"/>
+    <mergeCell ref="IC2:IC3"/>
+    <mergeCell ref="ID2:ID3"/>
+    <mergeCell ref="IE2:IE3"/>
+    <mergeCell ref="IF2:IF3"/>
+    <mergeCell ref="IG2:IG3"/>
+    <mergeCell ref="IH2:IH3"/>
+    <mergeCell ref="HV2:HV3"/>
+    <mergeCell ref="HW2:HW3"/>
+    <mergeCell ref="HX2:HX3"/>
+    <mergeCell ref="HY2:HY3"/>
+    <mergeCell ref="HZ2:HZ3"/>
+    <mergeCell ref="IB2:IB3"/>
+    <mergeCell ref="IA2:IA3"/>
+    <mergeCell ref="HP2:HP3"/>
+    <mergeCell ref="HQ2:HQ3"/>
+    <mergeCell ref="HR2:HR3"/>
+    <mergeCell ref="HS2:HS3"/>
+    <mergeCell ref="HT2:HT3"/>
+    <mergeCell ref="HU2:HU3"/>
+    <mergeCell ref="HI2:HI3"/>
+    <mergeCell ref="HJ2:HJ3"/>
+    <mergeCell ref="HL2:HL3"/>
+    <mergeCell ref="HM2:HM3"/>
+    <mergeCell ref="HN2:HN3"/>
+    <mergeCell ref="HO2:HO3"/>
+    <mergeCell ref="HK2:HK3"/>
+    <mergeCell ref="HC2:HC3"/>
+    <mergeCell ref="HD2:HD3"/>
+    <mergeCell ref="HE2:HE3"/>
+    <mergeCell ref="HF2:HF3"/>
+    <mergeCell ref="HG2:HG3"/>
+    <mergeCell ref="HH2:HH3"/>
+    <mergeCell ref="GV2:GV3"/>
+    <mergeCell ref="GW2:GW3"/>
+    <mergeCell ref="GX2:GX3"/>
+    <mergeCell ref="GY2:GY3"/>
+    <mergeCell ref="GZ2:GZ3"/>
+    <mergeCell ref="HB2:HB3"/>
+    <mergeCell ref="HA2:HA3"/>
+    <mergeCell ref="GP2:GP3"/>
+    <mergeCell ref="GQ2:GQ3"/>
+    <mergeCell ref="GR2:GR3"/>
+    <mergeCell ref="GS2:GS3"/>
+    <mergeCell ref="GT2:GT3"/>
+    <mergeCell ref="GU2:GU3"/>
+    <mergeCell ref="GI2:GI3"/>
+    <mergeCell ref="GJ2:GJ3"/>
+    <mergeCell ref="GL2:GL3"/>
+    <mergeCell ref="GM2:GM3"/>
+    <mergeCell ref="GN2:GN3"/>
+    <mergeCell ref="GO2:GO3"/>
+    <mergeCell ref="GK2:GK3"/>
+    <mergeCell ref="GC2:GC3"/>
+    <mergeCell ref="GD2:GD3"/>
+    <mergeCell ref="GE2:GE3"/>
+    <mergeCell ref="GF2:GF3"/>
+    <mergeCell ref="GG2:GG3"/>
+    <mergeCell ref="GH2:GH3"/>
+    <mergeCell ref="FV2:FV3"/>
+    <mergeCell ref="FW2:FW3"/>
+    <mergeCell ref="FX2:FX3"/>
+    <mergeCell ref="FY2:FY3"/>
+    <mergeCell ref="FZ2:FZ3"/>
+    <mergeCell ref="GB2:GB3"/>
+    <mergeCell ref="GA2:GA3"/>
+    <mergeCell ref="FP2:FP3"/>
+    <mergeCell ref="FQ2:FQ3"/>
+    <mergeCell ref="FR2:FR3"/>
+    <mergeCell ref="FS2:FS3"/>
+    <mergeCell ref="FT2:FT3"/>
+    <mergeCell ref="FU2:FU3"/>
+    <mergeCell ref="FI2:FI3"/>
+    <mergeCell ref="FJ2:FJ3"/>
+    <mergeCell ref="FL2:FL3"/>
+    <mergeCell ref="FM2:FM3"/>
+    <mergeCell ref="FN2:FN3"/>
+    <mergeCell ref="FO2:FO3"/>
+    <mergeCell ref="FK2:FK3"/>
+    <mergeCell ref="FC2:FC3"/>
+    <mergeCell ref="FD2:FD3"/>
+    <mergeCell ref="FE2:FE3"/>
+    <mergeCell ref="FF2:FF3"/>
+    <mergeCell ref="FG2:FG3"/>
+    <mergeCell ref="FH2:FH3"/>
+    <mergeCell ref="EV2:EV3"/>
+    <mergeCell ref="EW2:EW3"/>
+    <mergeCell ref="EX2:EX3"/>
+    <mergeCell ref="EY2:EY3"/>
+    <mergeCell ref="EZ2:EZ3"/>
+    <mergeCell ref="FB2:FB3"/>
+    <mergeCell ref="FA2:FA3"/>
+    <mergeCell ref="EP2:EP3"/>
+    <mergeCell ref="EQ2:EQ3"/>
+    <mergeCell ref="ER2:ER3"/>
+    <mergeCell ref="ES2:ES3"/>
+    <mergeCell ref="ET2:ET3"/>
+    <mergeCell ref="EU2:EU3"/>
+    <mergeCell ref="EI2:EI3"/>
+    <mergeCell ref="EJ2:EJ3"/>
+    <mergeCell ref="EL2:EL3"/>
+    <mergeCell ref="EM2:EM3"/>
+    <mergeCell ref="EN2:EN3"/>
+    <mergeCell ref="EO2:EO3"/>
+    <mergeCell ref="EK2:EK3"/>
+    <mergeCell ref="EC2:EC3"/>
+    <mergeCell ref="ED2:ED3"/>
+    <mergeCell ref="EE2:EE3"/>
+    <mergeCell ref="EF2:EF3"/>
+    <mergeCell ref="EG2:EG3"/>
+    <mergeCell ref="EH2:EH3"/>
+    <mergeCell ref="DV2:DV3"/>
+    <mergeCell ref="DW2:DW3"/>
+    <mergeCell ref="DX2:DX3"/>
+    <mergeCell ref="DY2:DY3"/>
+    <mergeCell ref="DZ2:DZ3"/>
+    <mergeCell ref="EB2:EB3"/>
+    <mergeCell ref="EA2:EA3"/>
+    <mergeCell ref="DJ2:DJ3"/>
+    <mergeCell ref="DK2:DN2"/>
+    <mergeCell ref="DO2:DR2"/>
+    <mergeCell ref="DS2:DS3"/>
+    <mergeCell ref="DT2:DT3"/>
+    <mergeCell ref="DU2:DU3"/>
+    <mergeCell ref="DD2:DD3"/>
+    <mergeCell ref="DE2:DE3"/>
+    <mergeCell ref="DF2:DF3"/>
+    <mergeCell ref="DG2:DG3"/>
+    <mergeCell ref="DH2:DH3"/>
+    <mergeCell ref="DI2:DI3"/>
+    <mergeCell ref="CR2:CR3"/>
+    <mergeCell ref="CS2:CS3"/>
+    <mergeCell ref="CT2:CT3"/>
+    <mergeCell ref="CU2:CU3"/>
+    <mergeCell ref="CV2:CY2"/>
+    <mergeCell ref="CZ2:DC2"/>
+    <mergeCell ref="CF2:CF3"/>
+    <mergeCell ref="CG2:CJ2"/>
+    <mergeCell ref="CK2:CN2"/>
+    <mergeCell ref="CO2:CO3"/>
+    <mergeCell ref="CP2:CP3"/>
+    <mergeCell ref="CQ2:CQ3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CA3"/>
+    <mergeCell ref="CB2:CB3"/>
+    <mergeCell ref="CC2:CC3"/>
+    <mergeCell ref="CD2:CD3"/>
+    <mergeCell ref="CE2:CE3"/>
+    <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BP2:BP3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BU2"/>
+    <mergeCell ref="BV2:BY2"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -14515,232 +14714,17 @@
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="BM2:BM3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CA3"/>
-    <mergeCell ref="CB2:CB3"/>
-    <mergeCell ref="CC2:CC3"/>
-    <mergeCell ref="CD2:CD3"/>
-    <mergeCell ref="CE2:CE3"/>
-    <mergeCell ref="BN2:BN3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BP2:BP3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BR2:BU2"/>
-    <mergeCell ref="BV2:BY2"/>
-    <mergeCell ref="CR2:CR3"/>
-    <mergeCell ref="CS2:CS3"/>
-    <mergeCell ref="CT2:CT3"/>
-    <mergeCell ref="CU2:CU3"/>
-    <mergeCell ref="CV2:CY2"/>
-    <mergeCell ref="CZ2:DC2"/>
-    <mergeCell ref="CF2:CF3"/>
-    <mergeCell ref="CG2:CJ2"/>
-    <mergeCell ref="CK2:CN2"/>
-    <mergeCell ref="CO2:CO3"/>
-    <mergeCell ref="CP2:CP3"/>
-    <mergeCell ref="CQ2:CQ3"/>
-    <mergeCell ref="DJ2:DJ3"/>
-    <mergeCell ref="DK2:DN2"/>
-    <mergeCell ref="DO2:DR2"/>
-    <mergeCell ref="DS2:DS3"/>
-    <mergeCell ref="DT2:DT3"/>
-    <mergeCell ref="DU2:DU3"/>
-    <mergeCell ref="DD2:DD3"/>
-    <mergeCell ref="DE2:DE3"/>
-    <mergeCell ref="DF2:DF3"/>
-    <mergeCell ref="DG2:DG3"/>
-    <mergeCell ref="DH2:DH3"/>
-    <mergeCell ref="DI2:DI3"/>
-    <mergeCell ref="EC2:EC3"/>
-    <mergeCell ref="ED2:ED3"/>
-    <mergeCell ref="EE2:EE3"/>
-    <mergeCell ref="EF2:EF3"/>
-    <mergeCell ref="EG2:EG3"/>
-    <mergeCell ref="EH2:EH3"/>
-    <mergeCell ref="DV2:DV3"/>
-    <mergeCell ref="DW2:DW3"/>
-    <mergeCell ref="DX2:DX3"/>
-    <mergeCell ref="DY2:DY3"/>
-    <mergeCell ref="DZ2:DZ3"/>
-    <mergeCell ref="EB2:EB3"/>
-    <mergeCell ref="EA2:EA3"/>
-    <mergeCell ref="EP2:EP3"/>
-    <mergeCell ref="EQ2:EQ3"/>
-    <mergeCell ref="ER2:ER3"/>
-    <mergeCell ref="ES2:ES3"/>
-    <mergeCell ref="ET2:ET3"/>
-    <mergeCell ref="EU2:EU3"/>
-    <mergeCell ref="EI2:EI3"/>
-    <mergeCell ref="EJ2:EJ3"/>
-    <mergeCell ref="EL2:EL3"/>
-    <mergeCell ref="EM2:EM3"/>
-    <mergeCell ref="EN2:EN3"/>
-    <mergeCell ref="EO2:EO3"/>
-    <mergeCell ref="EK2:EK3"/>
-    <mergeCell ref="FC2:FC3"/>
-    <mergeCell ref="FD2:FD3"/>
-    <mergeCell ref="FE2:FE3"/>
-    <mergeCell ref="FF2:FF3"/>
-    <mergeCell ref="FG2:FG3"/>
-    <mergeCell ref="FH2:FH3"/>
-    <mergeCell ref="EV2:EV3"/>
-    <mergeCell ref="EW2:EW3"/>
-    <mergeCell ref="EX2:EX3"/>
-    <mergeCell ref="EY2:EY3"/>
-    <mergeCell ref="EZ2:EZ3"/>
-    <mergeCell ref="FB2:FB3"/>
-    <mergeCell ref="FA2:FA3"/>
-    <mergeCell ref="FP2:FP3"/>
-    <mergeCell ref="FQ2:FQ3"/>
-    <mergeCell ref="FR2:FR3"/>
-    <mergeCell ref="FS2:FS3"/>
-    <mergeCell ref="FT2:FT3"/>
-    <mergeCell ref="FU2:FU3"/>
-    <mergeCell ref="FI2:FI3"/>
-    <mergeCell ref="FJ2:FJ3"/>
-    <mergeCell ref="FL2:FL3"/>
-    <mergeCell ref="FM2:FM3"/>
-    <mergeCell ref="FN2:FN3"/>
-    <mergeCell ref="FO2:FO3"/>
-    <mergeCell ref="FK2:FK3"/>
-    <mergeCell ref="GC2:GC3"/>
-    <mergeCell ref="GD2:GD3"/>
-    <mergeCell ref="GE2:GE3"/>
-    <mergeCell ref="GF2:GF3"/>
-    <mergeCell ref="GG2:GG3"/>
-    <mergeCell ref="GH2:GH3"/>
-    <mergeCell ref="FV2:FV3"/>
-    <mergeCell ref="FW2:FW3"/>
-    <mergeCell ref="FX2:FX3"/>
-    <mergeCell ref="FY2:FY3"/>
-    <mergeCell ref="FZ2:FZ3"/>
-    <mergeCell ref="GB2:GB3"/>
-    <mergeCell ref="GA2:GA3"/>
-    <mergeCell ref="GP2:GP3"/>
-    <mergeCell ref="GQ2:GQ3"/>
-    <mergeCell ref="GR2:GR3"/>
-    <mergeCell ref="GS2:GS3"/>
-    <mergeCell ref="GT2:GT3"/>
-    <mergeCell ref="GU2:GU3"/>
-    <mergeCell ref="GI2:GI3"/>
-    <mergeCell ref="GJ2:GJ3"/>
-    <mergeCell ref="GL2:GL3"/>
-    <mergeCell ref="GM2:GM3"/>
-    <mergeCell ref="GN2:GN3"/>
-    <mergeCell ref="GO2:GO3"/>
-    <mergeCell ref="GK2:GK3"/>
-    <mergeCell ref="HC2:HC3"/>
-    <mergeCell ref="HD2:HD3"/>
-    <mergeCell ref="HE2:HE3"/>
-    <mergeCell ref="HF2:HF3"/>
-    <mergeCell ref="HG2:HG3"/>
-    <mergeCell ref="HH2:HH3"/>
-    <mergeCell ref="GV2:GV3"/>
-    <mergeCell ref="GW2:GW3"/>
-    <mergeCell ref="GX2:GX3"/>
-    <mergeCell ref="GY2:GY3"/>
-    <mergeCell ref="GZ2:GZ3"/>
-    <mergeCell ref="HB2:HB3"/>
-    <mergeCell ref="HA2:HA3"/>
-    <mergeCell ref="HP2:HP3"/>
-    <mergeCell ref="HQ2:HQ3"/>
-    <mergeCell ref="HR2:HR3"/>
-    <mergeCell ref="HS2:HS3"/>
-    <mergeCell ref="HT2:HT3"/>
-    <mergeCell ref="HU2:HU3"/>
-    <mergeCell ref="HI2:HI3"/>
-    <mergeCell ref="HJ2:HJ3"/>
-    <mergeCell ref="HL2:HL3"/>
-    <mergeCell ref="HM2:HM3"/>
-    <mergeCell ref="HN2:HN3"/>
-    <mergeCell ref="HO2:HO3"/>
-    <mergeCell ref="HK2:HK3"/>
-    <mergeCell ref="IC2:IC3"/>
-    <mergeCell ref="ID2:ID3"/>
-    <mergeCell ref="IE2:IE3"/>
-    <mergeCell ref="IF2:IF3"/>
-    <mergeCell ref="IG2:IG3"/>
-    <mergeCell ref="IH2:IH3"/>
-    <mergeCell ref="HV2:HV3"/>
-    <mergeCell ref="HW2:HW3"/>
-    <mergeCell ref="HX2:HX3"/>
-    <mergeCell ref="HY2:HY3"/>
-    <mergeCell ref="HZ2:HZ3"/>
-    <mergeCell ref="IB2:IB3"/>
-    <mergeCell ref="IA2:IA3"/>
-    <mergeCell ref="IP2:IP3"/>
-    <mergeCell ref="IQ2:IQ3"/>
-    <mergeCell ref="IR2:IR3"/>
-    <mergeCell ref="IS2:IS3"/>
-    <mergeCell ref="IT2:IT3"/>
-    <mergeCell ref="IU2:IU3"/>
-    <mergeCell ref="II2:II3"/>
-    <mergeCell ref="IJ2:IJ3"/>
-    <mergeCell ref="IL2:IL3"/>
-    <mergeCell ref="IM2:IM3"/>
-    <mergeCell ref="IN2:IN3"/>
-    <mergeCell ref="IO2:IO3"/>
-    <mergeCell ref="IK2:IK3"/>
-    <mergeCell ref="JL2:JM2"/>
-    <mergeCell ref="JN2:JO2"/>
-    <mergeCell ref="JP2:JQ2"/>
-    <mergeCell ref="JS2:JT2"/>
-    <mergeCell ref="JU2:JV2"/>
-    <mergeCell ref="IV2:IV3"/>
-    <mergeCell ref="IW2:IW3"/>
-    <mergeCell ref="IX2:JB2"/>
-    <mergeCell ref="JC2:JG2"/>
-    <mergeCell ref="JH2:JI2"/>
-    <mergeCell ref="JJ2:JK2"/>
-    <mergeCell ref="JR2:JR3"/>
-    <mergeCell ref="KG2:KH2"/>
-    <mergeCell ref="KJ2:KJ3"/>
-    <mergeCell ref="KK2:KN2"/>
-    <mergeCell ref="JW2:JX2"/>
-    <mergeCell ref="JY2:JZ2"/>
-    <mergeCell ref="KA2:KB2"/>
-    <mergeCell ref="KE2:KF2"/>
-    <mergeCell ref="KC2:KC3"/>
-    <mergeCell ref="KD2:KD3"/>
-    <mergeCell ref="KI2:KI3"/>
-    <mergeCell ref="LF2:LK2"/>
-    <mergeCell ref="LL2:LQ2"/>
-    <mergeCell ref="LR2:LR3"/>
-    <mergeCell ref="KO2:KR2"/>
-    <mergeCell ref="KS2:KT2"/>
-    <mergeCell ref="KU2:KV2"/>
-    <mergeCell ref="KW2:KX2"/>
-    <mergeCell ref="KY2:KZ2"/>
-    <mergeCell ref="LA2:LE2"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:AK1"/>
+    <mergeCell ref="AL1:AZ1"/>
+    <mergeCell ref="BA1:BO1"/>
+    <mergeCell ref="JS1:KC1"/>
+    <mergeCell ref="KD1:KH1"/>
+    <mergeCell ref="KI1:KJ1"/>
+    <mergeCell ref="KK1:LE1"/>
+    <mergeCell ref="LF1:LQ1"/>
+    <mergeCell ref="JC1:JG1"/>
+    <mergeCell ref="JH1:JR1"/>
   </mergeCells>
   <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EI4:EI100 EN4:EN100 EL4:EL100 EQ4:ER100 FI4:FI100 FN4:FN100 FL4:FL100 FQ4:FR100 II4:II100 IN4:IN100 IL4:IL100 IQ4:IR100 HI4:HI100 HN4:HN100 HL4:HL100 HQ4:HR100 GI4:GI100 GN4:GN100 GL4:GL100 GQ4:GR100" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -14814,7 +14798,7 @@
   </sheetPr>
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -14830,25 +14814,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
-      <c r="P1" s="209"/>
-      <c r="Q1" s="209"/>
+      <c r="A1" s="202" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="203"/>
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
     </row>
     <row r="2" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="str">
@@ -14874,133 +14858,133 @@
     </row>
     <row r="3" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="208" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="205"/>
+      <c r="D3" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="214" t="s">
+      <c r="E3" s="205"/>
+      <c r="F3" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="211"/>
-      <c r="D3" s="210" t="s">
+      <c r="G3" s="207"/>
+      <c r="H3" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="211"/>
-      <c r="F3" s="212" t="s">
+      <c r="I3" s="205"/>
+      <c r="J3" s="206" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="213"/>
-      <c r="H3" s="214" t="s">
+      <c r="K3" s="207"/>
+      <c r="L3" s="206" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="211"/>
-      <c r="J3" s="212" t="s">
+      <c r="M3" s="207"/>
+      <c r="N3" s="206" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="213"/>
-      <c r="L3" s="212" t="s">
+      <c r="O3" s="207"/>
+      <c r="P3" s="208" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="213"/>
-      <c r="N3" s="212" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="213"/>
-      <c r="P3" s="214" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="211"/>
+      <c r="Q3" s="205"/>
     </row>
     <row r="4" spans="1:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="211" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="212"/>
+      <c r="D4" s="211" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="204" t="s">
+      <c r="E4" s="212"/>
+      <c r="F4" s="211" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="212"/>
+      <c r="H4" s="211" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="212"/>
+      <c r="J4" s="209" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="210"/>
+      <c r="L4" s="209" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="204" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="205"/>
-      <c r="F4" s="204" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="205"/>
-      <c r="H4" s="204" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="205"/>
-      <c r="J4" s="202" t="s">
+      <c r="M4" s="210"/>
+      <c r="N4" s="209" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="203"/>
-      <c r="L4" s="202" t="s">
+      <c r="O4" s="210"/>
+      <c r="P4" s="211" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="203"/>
-      <c r="N4" s="202" t="s">
+      <c r="Q4" s="212"/>
+    </row>
+    <row r="5" spans="1:17" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="213" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="203"/>
-      <c r="P4" s="204" t="s">
+      <c r="B5" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="Q4" s="205"/>
-    </row>
-    <row r="5" spans="1:17" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="206" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="C5" s="98">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$J$2),FALSE)</f>
         <v>106.99849999999999</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$Y$2),FALSE)</f>
         <v>113.3</v>
       </c>
       <c r="F5" s="92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G5" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$AN$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I5" s="98">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$BC$2),FALSE)</f>
         <v>67.31</v>
       </c>
       <c r="J5" s="92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K5" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$BR$2),FALSE)</f>
         <v>24.75</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M5" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$CV$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N5" s="92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O5" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$DK$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="98">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$CG$2),FALSE)</f>
@@ -15008,58 +14992,58 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="206"/>
+      <c r="A6" s="213"/>
       <c r="B6" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="98">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$K$2),FALSE)</f>
         <v>123</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$Z$2),FALSE)</f>
         <v>42.66</v>
       </c>
       <c r="F6" s="93" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G6" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$AO$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I6" s="98">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$BD$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J6" s="93" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K6" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$BS$2),FALSE)</f>
         <v>11.88</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M6" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$CW$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N6" s="93" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O6" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$DL$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="98">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$CH$2),FALSE)</f>
@@ -15067,58 +15051,58 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="206"/>
+      <c r="A7" s="213"/>
       <c r="B7" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="98">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$L$2),FALSE)</f>
         <v>236.63210000000001</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$AA$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="F7" s="93" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$AP$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I7" s="98">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$BE$2),FALSE)</f>
         <v>25.68</v>
       </c>
       <c r="J7" s="93" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K7" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$BT$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M7" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$CX$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N7" s="93" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O7" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$DM$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q7" s="98">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$CI$2),FALSE)</f>
@@ -15126,58 +15110,58 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="206"/>
+      <c r="A8" s="213"/>
       <c r="B8" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="89">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$M$2),FALSE)</f>
         <v>34.253999999999998</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" s="91">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$AB$2),FALSE)</f>
         <v>7.58</v>
       </c>
       <c r="F8" s="94" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G8" s="89">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$AQ$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I8" s="89">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$BF$2),FALSE)</f>
         <v>64.5</v>
       </c>
       <c r="J8" s="94" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K8" s="89">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$BU$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M8" s="91">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$CY$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N8" s="94" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O8" s="89">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$DN$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="89">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$CJ$2),FALSE)</f>
@@ -15185,60 +15169,60 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="206" t="s">
-        <v>65</v>
+      <c r="A9" s="213" t="s">
+        <v>63</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="98">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$N$2),FALSE)</f>
         <v>17.440000000000001</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$AC$2),FALSE)</f>
         <v>8.9600000000000009</v>
       </c>
       <c r="F9" s="95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G9" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$AR$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H9" s="90" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I9" s="98">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$BG$2),FALSE)</f>
         <v>6.72</v>
       </c>
       <c r="J9" s="95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K9" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$BV$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L9" s="90" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M9" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$CZ$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N9" s="95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O9" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$DO$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P9" s="90" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="98">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$CK$2),FALSE)</f>
@@ -15246,58 +15230,58 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="206"/>
+      <c r="A10" s="213"/>
       <c r="B10" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="98">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$O$2),FALSE)</f>
         <v>110.7</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$AD$2),FALSE)</f>
         <v>2.4</v>
       </c>
       <c r="F10" s="93" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$AS$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I10" s="98">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$BH$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J10" s="93" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K10" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$BW$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M10" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$DA$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N10" s="93" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O10" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$DP$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="98">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$CL$2),FALSE)</f>
@@ -15305,58 +15289,58 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="206"/>
+      <c r="A11" s="213"/>
       <c r="B11" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="98">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$P$2),FALSE)</f>
         <v>247.54129999999998</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$AE$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="F11" s="93" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G11" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$AT$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I11" s="98">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$BI$2),FALSE)</f>
         <v>1.8</v>
       </c>
       <c r="J11" s="93" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K11" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$BX$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M11" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$DB$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N11" s="93" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O11" s="12">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$DQ$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="98">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$CM$2),FALSE)</f>
@@ -15364,58 +15348,58 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="206"/>
+      <c r="A12" s="213"/>
       <c r="B12" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="89">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$Q$2),FALSE)</f>
         <v>75.635999999999996</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" s="91">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$AF$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="F12" s="96" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" s="89">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$AU$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I12" s="89">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$BJ$2),FALSE)</f>
         <v>40</v>
       </c>
       <c r="J12" s="96" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K12" s="89">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$BY$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M12" s="91">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$DC$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N12" s="96" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O12" s="89">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$DR$2),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="89">
         <f>VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$CN$2),FALSE)</f>
@@ -15424,7 +15408,7 @@
     </row>
     <row r="13" spans="1:17" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="18">
@@ -15469,7 +15453,7 @@
     </row>
     <row r="14" spans="1:17" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="18">
@@ -15514,7 +15498,7 @@
     </row>
     <row r="15" spans="1:17" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="21">
@@ -15559,7 +15543,7 @@
     </row>
     <row r="16" spans="1:17" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="21">
@@ -15604,7 +15588,7 @@
     </row>
     <row r="17" spans="1:18" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="21">
@@ -15650,7 +15634,7 @@
     </row>
     <row r="18" spans="1:18" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="18">
@@ -15695,7 +15679,7 @@
     </row>
     <row r="19" spans="1:18" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="99" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="18">
@@ -15839,24 +15823,15 @@
     </row>
     <row r="25" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R26" s="207"/>
+      <c r="R26" s="214"/>
     </row>
     <row r="27" spans="1:18" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R27" s="207"/>
+      <c r="R27" s="214"/>
     </row>
     <row r="28" spans="1:18" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:18" ht="46.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="A5:A8"/>
@@ -15868,6 +15843,15 @@
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
@@ -15908,11 +15892,11 @@
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15926,22 +15910,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="s">
-        <v>410</v>
-      </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
+      <c r="A1" s="202" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
@@ -15951,64 +15935,64 @@
     </row>
     <row r="3" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="215" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="213"/>
+      <c r="C3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="206"/>
-      <c r="C3" s="14" t="s">
+      <c r="E3" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="F3" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="H3" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="I3" s="32" t="s">
         <v>78</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E4" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="H4" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="I4" s="35" t="s">
         <v>413</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>417</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>415</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" s="37">
         <f ca="1">SUM(D5:I5)</f>
@@ -16041,10 +16025,10 @@
     </row>
     <row r="6" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="148" cm="1">
@@ -16075,10 +16059,10 @@
     </row>
     <row r="7" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="37">
         <f ca="1">SUM(D7:I7)</f>
@@ -16112,10 +16096,10 @@
     </row>
     <row r="8" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="148" cm="1">
@@ -16146,10 +16130,10 @@
     </row>
     <row r="9" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="37">
         <f ca="1">SUM(D9:I9)</f>
@@ -16183,10 +16167,10 @@
     </row>
     <row r="10" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="37">
         <f ca="1">SUM(D10:I10)</f>
@@ -16219,10 +16203,10 @@
     </row>
     <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="37">
         <f ca="1">SUM(D11:I11)</f>
@@ -16255,10 +16239,10 @@
     </row>
     <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" s="37">
         <f ca="1">SUM(D12:I12)</f>
@@ -16292,10 +16276,10 @@
     </row>
     <row r="13" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="149" cm="1">
@@ -16326,10 +16310,10 @@
     </row>
     <row r="14" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="47" cm="1">
@@ -16359,10 +16343,10 @@
     </row>
     <row r="15" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="47" t="str" cm="1">
@@ -16392,10 +16376,10 @@
     </row>
     <row r="16" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="47" t="str" cm="1">
@@ -16425,10 +16409,10 @@
     </row>
     <row r="17" spans="1:11" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="38" t="str" cm="1">
@@ -16458,10 +16442,10 @@
     </row>
     <row r="18" spans="1:11" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="38" t="str" cm="1">
@@ -16491,7 +16475,7 @@
     </row>
     <row r="19" spans="1:11" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="37"/>
@@ -16523,10 +16507,10 @@
     </row>
     <row r="20" spans="1:11" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="154" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="41" cm="1">
@@ -16557,10 +16541,10 @@
     </row>
     <row r="21" spans="1:11" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" s="41" t="str" cm="1">
@@ -16591,10 +16575,10 @@
     </row>
     <row r="22" spans="1:11" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="41" cm="1">
@@ -16625,10 +16609,10 @@
     </row>
     <row r="23" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C23" s="37"/>
       <c r="D23" s="41" t="str" cm="1">
@@ -16659,10 +16643,10 @@
     </row>
     <row r="24" spans="1:11" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C24" s="37"/>
       <c r="D24" s="41" cm="1">
@@ -16693,10 +16677,10 @@
     </row>
     <row r="25" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" s="37"/>
       <c r="D25" s="47" cm="1">
@@ -16726,10 +16710,10 @@
     </row>
     <row r="26" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="38" t="str" cm="1">
@@ -16759,10 +16743,10 @@
     </row>
     <row r="27" spans="1:11" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="38" t="str" cm="1">
@@ -16792,10 +16776,10 @@
     </row>
     <row r="28" spans="1:11" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="38" cm="1">
@@ -16822,14 +16806,14 @@
         <f t="array" aca="1" ref="I28" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(I$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+21))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(I$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+21)))</f>
         <v/>
       </c>
-      <c r="K28" s="207"/>
+      <c r="K28" s="214"/>
     </row>
     <row r="29" spans="1:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="38" cm="1">
@@ -16856,14 +16840,14 @@
         <f t="array" aca="1" ref="I29" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(I$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+22))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(I$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+22)))</f>
         <v/>
       </c>
-      <c r="K29" s="207"/>
+      <c r="K29" s="214"/>
     </row>
     <row r="30" spans="1:11" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="38" cm="1">
@@ -16893,10 +16877,10 @@
     </row>
     <row r="31" spans="1:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="38" cm="1">
@@ -16926,10 +16910,10 @@
     </row>
     <row r="32" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="38" t="str" cm="1">
@@ -17000,7 +16984,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="86" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="83"/>
@@ -17031,67 +17015,67 @@
     </row>
     <row r="3" spans="1:14" s="85" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>385</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>380</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>381</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="51" t="s">
         <v>122</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>382</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>387</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>388</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="51" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="124"/>
       <c r="B4" s="129"/>
       <c r="C4" s="52" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" s="52"/>
       <c r="E4" s="52"/>
       <c r="F4" s="124"/>
       <c r="G4" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="52" t="s">
-        <v>131</v>
-      </c>
       <c r="J4" s="52" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="87" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="84">
         <v>1</v>
@@ -17271,7 +17255,7 @@
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="81" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" s="81">
         <v>1</v>
@@ -17360,7 +17344,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" s="84">
         <v>1</v>
@@ -17500,7 +17484,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="81" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B20" s="84">
         <v>1</v>
@@ -17682,7 +17666,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B25" s="84">
         <v>1</v>
@@ -17759,7 +17743,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B30" s="84">
         <v>1</v>
@@ -17836,7 +17820,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B35" s="57">
         <v>1</v>
@@ -17911,28 +17895,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="115" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B1" s="106" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="106" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="107" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="108" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="106" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1" s="107" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" s="107" t="s">
-        <v>239</v>
-      </c>
-      <c r="F1" s="108" t="s">
-        <v>241</v>
-      </c>
       <c r="G1" s="108" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H1" s="108" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -17940,19 +17924,19 @@
       <c r="B2" s="109"/>
       <c r="C2" s="109"/>
       <c r="D2" s="110" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E2" s="110" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F2" s="111" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G2" s="111" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H2" s="111" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17960,24 +17944,24 @@
       <c r="B3" s="112"/>
       <c r="C3" s="112"/>
       <c r="D3" s="113" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="113" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="113" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" s="114" t="s">
-        <v>131</v>
-      </c>
       <c r="G3" s="114" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H3" s="114" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="118" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B4" s="119"/>
       <c r="C4" s="119"/>
@@ -17989,13 +17973,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C5" s="105" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D5" s="105">
         <v>237</v>
@@ -18009,13 +17993,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" s="105" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D6" s="105">
         <v>1.9375</v>
@@ -18029,13 +18013,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B7" s="105" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C7" s="105" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D7" s="105">
         <v>0.14000000000000001</v>
@@ -18049,13 +18033,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D8" s="105">
         <v>1.2</v>
@@ -18069,13 +18053,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B9" s="105" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" s="105" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D9" s="105">
         <v>0.21129999999999999</v>
@@ -18089,13 +18073,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B10" s="105" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C10" s="105" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D10" s="105">
         <v>0.3</v>
@@ -18109,13 +18093,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B11" s="105" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C11" s="105" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D11" s="105">
         <v>0.17</v>
@@ -18129,13 +18113,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C12" s="105" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D12" s="105">
         <v>0.7</v>
@@ -18149,13 +18133,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C13" s="105" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D13" s="105">
         <v>0.91949999999999998</v>
@@ -18169,13 +18153,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B14" s="105" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C14" s="105" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D14" s="105">
         <v>2.6100000000000002E-2</v>
@@ -18189,13 +18173,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B15" s="105" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C15" s="105" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D15" s="105">
         <v>0.6</v>
@@ -18209,13 +18193,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B16" s="105" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" s="105" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D16" s="105">
         <v>48</v>
@@ -18229,13 +18213,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B17" s="105" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C17" s="105" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D17" s="105">
         <v>1.6</v>
@@ -18249,13 +18233,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="123" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B18" s="105" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C18" s="105" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D18" s="105">
         <v>0.53500000000000003</v>
@@ -18273,7 +18257,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="120" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B24" s="121"/>
       <c r="C24" s="122"/>
@@ -18285,13 +18269,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B25" s="105" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C25" s="105" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D25" s="105">
         <v>4.4999999999999998E-2</v>
@@ -18305,13 +18289,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B26" s="105" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C26" s="105" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D26" s="105">
         <v>0.04</v>
@@ -18325,13 +18309,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B27" s="105" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C27" s="105" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D27" s="105">
         <v>6.5000000000000002E-2</v>
@@ -18345,13 +18329,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B28" s="105" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C28" s="105" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D28" s="105">
         <v>3.7999999999999999E-2</v>
@@ -18365,13 +18349,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B29" s="105" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C29" s="105" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D29" s="105">
         <v>0.04</v>
@@ -18385,13 +18369,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B30" s="105" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C30" s="105" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D30" s="105">
         <v>5.2999999999999999E-2</v>
@@ -18405,13 +18389,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B31" s="105" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C31" s="105" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D31" s="105">
         <v>0.03</v>
@@ -18425,13 +18409,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B32" s="105" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C32" s="105" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D32" s="105">
         <v>4.2999999999999997E-2</v>
@@ -18445,13 +18429,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B33" s="105" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C33" s="105" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D33" s="105">
         <v>4.3999999999999997E-2</v>
@@ -18465,13 +18449,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B34" s="105" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C34" s="105" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D34" s="105">
         <v>4.1000000000000002E-2</v>
@@ -18485,7 +18469,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="120" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B40" s="121"/>
       <c r="C40" s="122"/>
@@ -18497,13 +18481,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B41" s="105" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C41" s="105" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D41" s="105">
         <v>0.13</v>
@@ -18517,13 +18501,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B42" s="105" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C42" s="105" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D42" s="105">
         <v>1.4</v>
@@ -18537,13 +18521,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B43" s="105" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C43" s="105" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D43" s="105">
         <v>0.14000000000000001</v>
@@ -18557,13 +18541,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B44" s="105" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C44" s="105" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D44" s="105">
         <v>0.12</v>
@@ -18577,13 +18561,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B45" s="105" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C45" s="105" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D45" s="105">
         <v>1.6</v>
@@ -18597,13 +18581,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B46" s="105" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C46" s="105" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D46" s="105">
         <v>0.04</v>
@@ -18617,7 +18601,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B50" s="121"/>
       <c r="C50" s="122"/>
@@ -18629,13 +18613,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B51" s="105" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C51" s="105" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D51" s="105">
         <v>0.12</v>
@@ -18649,13 +18633,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B52" s="105" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C52" s="105" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D52" s="105">
         <v>1.6</v>
@@ -18669,13 +18653,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B53" s="105" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C53" s="105" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D53" s="105">
         <v>0.81399999999999995</v>
@@ -18689,13 +18673,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B54" s="105" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C54" s="105" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D54" s="105">
         <v>0.3</v>
@@ -18709,7 +18693,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="120" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B56" s="121"/>
       <c r="C56" s="122"/>
@@ -18721,13 +18705,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B57" s="105" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C57" s="105" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D57" s="105">
         <v>0.8</v>
@@ -18747,13 +18731,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B58" s="105" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C58" s="105" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D58" s="105">
         <v>0.12</v>
@@ -18773,13 +18757,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B59" s="105" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C59" s="105" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D59" s="105">
         <v>0.14699999999999999</v>
@@ -18799,13 +18783,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B60" s="105" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C60" s="105" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D60" s="105">
         <v>0.38400000000000001</v>
@@ -18825,13 +18809,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B61" s="105" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C61" s="105" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D61" s="105">
         <v>0.12</v>
@@ -18851,13 +18835,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B62" s="105" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C62" s="105" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D62" s="105">
         <v>0.14699999999999999</v>
@@ -18877,13 +18861,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B63" s="105" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C63" s="105" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D63" s="105">
         <v>0.38400000000000001</v>
@@ -18903,13 +18887,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B64" s="105" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C64" s="105" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D64" s="105">
         <v>0.12</v>
@@ -18929,13 +18913,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B65" s="105" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C65" s="105" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D65" s="105">
         <v>0.14699999999999999</v>
@@ -18955,13 +18939,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B66" s="105" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C66" s="105" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D66" s="105">
         <v>0.16800000000000001</v>
@@ -18981,13 +18965,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B67" s="105" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C67" s="105" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D67" s="105">
         <v>5.2999999999999999E-2</v>
@@ -19007,13 +18991,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B68" s="105" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C68" s="105" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D68" s="105">
         <v>6.7000000000000004E-2</v>
@@ -19033,13 +19017,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B69" s="105" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C69" s="105" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D69" s="105">
         <v>0.04</v>
@@ -19059,13 +19043,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B70" s="105" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C70" s="105" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D70" s="105">
         <v>6.7000000000000004E-2</v>
@@ -19085,13 +19069,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B71" s="105" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C71" s="105" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D71" s="105">
         <v>2.2200000000000001E-2</v>
